--- a/article/spreadsheets/thesis_graphics.xlsx
+++ b/article/spreadsheets/thesis_graphics.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="893" firstSheet="2" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="893" firstSheet="3" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Algorithm Overview" sheetId="1" r:id="rId1"/>
@@ -21,25 +21,27 @@
     <sheet name="Ray Decompression" sheetId="22" r:id="rId7"/>
     <sheet name="Cone-Ray Union" sheetId="35" r:id="rId8"/>
     <sheet name="Ray Hierarchy" sheetId="60" r:id="rId9"/>
-    <sheet name="Secondary Rays" sheetId="59" r:id="rId10"/>
-    <sheet name="Bounding Sphere" sheetId="25" r:id="rId11"/>
-    <sheet name="Barycentric Coordinates" sheetId="56" r:id="rId12"/>
-    <sheet name="Memory 1" sheetId="37" r:id="rId13"/>
-    <sheet name="Indexing 1" sheetId="42" r:id="rId14"/>
-    <sheet name="Indexing 2" sheetId="48" r:id="rId15"/>
-    <sheet name="Configuration Graphs" sheetId="57" r:id="rId16"/>
-    <sheet name="Configuration Comparison Graphs" sheetId="58" r:id="rId17"/>
-    <sheet name="Graph Data" sheetId="54" r:id="rId18"/>
+    <sheet name="Hashing Area" sheetId="61" r:id="rId10"/>
+    <sheet name="Secondary Rays" sheetId="59" r:id="rId11"/>
+    <sheet name="Bounding Sphere" sheetId="25" r:id="rId12"/>
+    <sheet name="Barycentric Coordinates" sheetId="56" r:id="rId13"/>
+    <sheet name="Memory 1" sheetId="37" r:id="rId14"/>
+    <sheet name="Indexing 1" sheetId="42" r:id="rId15"/>
+    <sheet name="Indexing 2" sheetId="48" r:id="rId16"/>
+    <sheet name="Configuration Graphs" sheetId="57" r:id="rId17"/>
+    <sheet name="Configuration Comparison Graphs" sheetId="58" r:id="rId18"/>
+    <sheet name="Graph Data" sheetId="54" r:id="rId19"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'Indexing 2'!$C$188:$O$275</definedName>
-    <definedName name="btg" localSheetId="11">'Memory 1'!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">'Indexing 2'!$C$188:$O$275</definedName>
+    <definedName name="btg" localSheetId="12">'Memory 1'!#REF!</definedName>
+    <definedName name="btg" localSheetId="17">'Memory 1'!#REF!</definedName>
     <definedName name="btg" localSheetId="16">'Memory 1'!#REF!</definedName>
+    <definedName name="btg" localSheetId="9">'Memory 1'!#REF!</definedName>
+    <definedName name="btg" localSheetId="14">'Memory 1'!#REF!</definedName>
     <definedName name="btg" localSheetId="15">'Memory 1'!#REF!</definedName>
-    <definedName name="btg" localSheetId="13">'Memory 1'!#REF!</definedName>
-    <definedName name="btg" localSheetId="14">'Memory 1'!#REF!</definedName>
     <definedName name="btg" localSheetId="8">'Memory 1'!#REF!</definedName>
-    <definedName name="btg" localSheetId="9">'Memory 1'!#REF!</definedName>
+    <definedName name="btg" localSheetId="10">'Memory 1'!#REF!</definedName>
     <definedName name="btg">'Memory 1'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -3451,6 +3453,51 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3473,51 +3520,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3559,16 +3561,7 @@
     <xf numFmtId="10" fontId="2" fillId="10" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3578,6 +3571,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3595,27 +3597,6 @@
     <xf numFmtId="10" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -3624,6 +3605,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -3643,7 +3636,16 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3843,11 +3845,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="41"/>
-        <c:axId val="246444216"/>
-        <c:axId val="246442256"/>
+        <c:axId val="279127744"/>
+        <c:axId val="279129312"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="246444216"/>
+        <c:axId val="279127744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3884,7 +3886,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246442256"/>
+        <c:crossAx val="279129312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3892,7 +3894,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="246442256"/>
+        <c:axId val="279129312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4009,7 +4011,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246444216"/>
+        <c:crossAx val="279127744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4366,11 +4368,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="41"/>
-        <c:axId val="312688496"/>
-        <c:axId val="312688888"/>
+        <c:axId val="277158624"/>
+        <c:axId val="277159016"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="312688496"/>
+        <c:axId val="277158624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4407,7 +4409,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="312688888"/>
+        <c:crossAx val="277159016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4415,7 +4417,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="312688888"/>
+        <c:axId val="277159016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.0000000000000004E-2"/>
@@ -4534,7 +4536,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="312688496"/>
+        <c:crossAx val="277158624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4891,11 +4893,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="41"/>
-        <c:axId val="312689672"/>
-        <c:axId val="313237592"/>
+        <c:axId val="351455824"/>
+        <c:axId val="351460136"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="312689672"/>
+        <c:axId val="351455824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4932,7 +4934,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="313237592"/>
+        <c:crossAx val="351460136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4940,7 +4942,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="313237592"/>
+        <c:axId val="351460136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.0000000000000004E-2"/>
@@ -5059,7 +5061,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="312689672"/>
+        <c:crossAx val="351455824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5299,11 +5301,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="41"/>
-        <c:axId val="246448136"/>
-        <c:axId val="246440688"/>
+        <c:axId val="279129704"/>
+        <c:axId val="279130096"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="246448136"/>
+        <c:axId val="279129704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5340,7 +5342,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246440688"/>
+        <c:crossAx val="279130096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5348,7 +5350,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="246440688"/>
+        <c:axId val="279130096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5465,7 +5467,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246448136"/>
+        <c:crossAx val="279129704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5705,11 +5707,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="41"/>
-        <c:axId val="246441080"/>
-        <c:axId val="246441864"/>
+        <c:axId val="352309592"/>
+        <c:axId val="352310768"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="246441080"/>
+        <c:axId val="352309592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5746,7 +5748,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246441864"/>
+        <c:crossAx val="352310768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5754,7 +5756,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="246441864"/>
+        <c:axId val="352310768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5871,7 +5873,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246441080"/>
+        <c:crossAx val="352309592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6111,11 +6113,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="41"/>
-        <c:axId val="246443040"/>
-        <c:axId val="246443432"/>
+        <c:axId val="352319392"/>
+        <c:axId val="352318608"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="246443040"/>
+        <c:axId val="352319392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6152,7 +6154,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246443432"/>
+        <c:crossAx val="352318608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6160,7 +6162,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="246443432"/>
+        <c:axId val="352318608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6277,7 +6279,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246443040"/>
+        <c:crossAx val="352319392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6517,11 +6519,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="41"/>
-        <c:axId val="312687320"/>
-        <c:axId val="312690064"/>
+        <c:axId val="343183048"/>
+        <c:axId val="343179912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="312687320"/>
+        <c:axId val="343183048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6558,7 +6560,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="312690064"/>
+        <c:crossAx val="343179912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6566,7 +6568,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="312690064"/>
+        <c:axId val="343179912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6683,7 +6685,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="312687320"/>
+        <c:crossAx val="343183048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6923,11 +6925,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="41"/>
-        <c:axId val="312690456"/>
-        <c:axId val="312685360"/>
+        <c:axId val="343183832"/>
+        <c:axId val="343180304"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="312690456"/>
+        <c:axId val="343183832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6964,7 +6966,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="312685360"/>
+        <c:crossAx val="343180304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6972,7 +6974,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="312685360"/>
+        <c:axId val="343180304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7089,7 +7091,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="312690456"/>
+        <c:crossAx val="343183832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7532,11 +7534,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="41"/>
-        <c:axId val="312692416"/>
-        <c:axId val="312690848"/>
+        <c:axId val="343180696"/>
+        <c:axId val="343184224"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="312692416"/>
+        <c:axId val="343180696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7573,7 +7575,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="312690848"/>
+        <c:crossAx val="343184224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7581,7 +7583,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="312690848"/>
+        <c:axId val="343184224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5000000000000003E-2"/>
@@ -7700,7 +7702,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="312692416"/>
+        <c:crossAx val="343180696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8057,11 +8059,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="41"/>
-        <c:axId val="312692808"/>
-        <c:axId val="312687712"/>
+        <c:axId val="352319784"/>
+        <c:axId val="352320960"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="312692808"/>
+        <c:axId val="352319784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8098,7 +8100,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="312687712"/>
+        <c:crossAx val="352320960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8106,7 +8108,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="312687712"/>
+        <c:axId val="352320960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.0000000000000004E-2"/>
@@ -8225,7 +8227,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="312692808"/>
+        <c:crossAx val="352319784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8582,11 +8584,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="41"/>
-        <c:axId val="312686536"/>
-        <c:axId val="312686928"/>
+        <c:axId val="352318216"/>
+        <c:axId val="352313904"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="312686536"/>
+        <c:axId val="352318216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8623,7 +8625,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="312686928"/>
+        <c:crossAx val="352313904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8631,7 +8633,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="312686928"/>
+        <c:axId val="352313904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.0000000000000004E-2"/>
@@ -8750,7 +8752,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="312686536"/>
+        <c:crossAx val="352318216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16585,6 +16587,124 @@
 
 <file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>276906</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114981</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Imagem 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="542925" y="476250"/>
+          <a:ext cx="4877481" cy="4877481"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>304799</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>396150</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>72299</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Oval 12"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2247900" y="2686049"/>
+          <a:ext cx="720000" cy="720000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000">
+            <a:alpha val="25000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100"/>
+            <a:t> 	</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -17175,7 +17295,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -17294,7 +17414,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -18022,7 +18142,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -18219,7 +18339,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -38427,7 +38547,7 @@
   <dimension ref="C5:M15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:S14"/>
+      <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.7109375" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -38584,6 +38704,167 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C5:M15"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X11" sqref="X11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="7.7109375" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="7.7109375" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="3:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="186"/>
+    </row>
+    <row r="6" spans="3:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="186"/>
+    </row>
+    <row r="7" spans="3:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="186"/>
+    </row>
+    <row r="8" spans="3:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="186"/>
+    </row>
+    <row r="9" spans="3:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="186"/>
+    </row>
+    <row r="10" spans="3:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="186"/>
+    </row>
+    <row r="11" spans="3:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="186"/>
+    </row>
+    <row r="12" spans="3:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="186"/>
+    </row>
+    <row r="13" spans="3:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="186"/>
+    </row>
+    <row r="14" spans="3:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="186"/>
+    </row>
+    <row r="15" spans="3:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="187"/>
+      <c r="D15" s="187"/>
+      <c r="E15" s="187"/>
+      <c r="F15" s="187"/>
+      <c r="G15" s="187"/>
+      <c r="H15" s="187"/>
+      <c r="I15" s="187"/>
+      <c r="J15" s="187"/>
+      <c r="K15" s="187"/>
+      <c r="L15" s="187"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="C3:M13"/>
@@ -38745,7 +39026,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:N14"/>
   <sheetViews>
@@ -38915,7 +39196,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:SL24"/>
@@ -38949,24 +39230,24 @@
     </row>
     <row r="2" spans="1:11" s="19" customFormat="1" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18"/>
-      <c r="B2" s="208" t="s">
+      <c r="B2" s="192" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="209"/>
-      <c r="D2" s="209"/>
-      <c r="E2" s="209"/>
-      <c r="F2" s="209"/>
-      <c r="G2" s="209"/>
-      <c r="H2" s="210"/>
+      <c r="C2" s="193"/>
+      <c r="D2" s="193"/>
+      <c r="E2" s="193"/>
+      <c r="F2" s="193"/>
+      <c r="G2" s="193"/>
+      <c r="H2" s="194"/>
       <c r="J2" s="21"/>
       <c r="K2" s="21"/>
     </row>
     <row r="3" spans="1:11" s="19" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="18"/>
-      <c r="B3" s="211" t="s">
+      <c r="B3" s="195" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="212"/>
+      <c r="C3" s="196"/>
       <c r="D3" s="34" t="s">
         <v>10</v>
       </c>
@@ -38991,10 +39272,10 @@
     </row>
     <row r="4" spans="1:11" s="19" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18"/>
-      <c r="B4" s="213" t="s">
+      <c r="B4" s="197" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="214"/>
+      <c r="C4" s="198"/>
       <c r="D4" s="22">
         <f>J7/K10+(J7/K10)/16</f>
         <v>174080</v>
@@ -39023,10 +39304,10 @@
     </row>
     <row r="5" spans="1:11" s="19" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="18"/>
-      <c r="B5" s="200" t="s">
+      <c r="B5" s="199" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="201"/>
+      <c r="C5" s="200"/>
       <c r="D5" s="25">
         <f>J7/K10*J13</f>
         <v>117964800</v>
@@ -39051,10 +39332,10 @@
     </row>
     <row r="6" spans="1:11" s="19" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="18"/>
-      <c r="B6" s="200" t="s">
+      <c r="B6" s="199" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="201"/>
+      <c r="C6" s="200"/>
       <c r="D6" s="25">
         <f>D5</f>
         <v>117964800</v>
@@ -39074,10 +39355,10 @@
         <f t="shared" si="0"/>
         <v>0.23868722028841372</v>
       </c>
-      <c r="J6" s="206" t="s">
+      <c r="J6" s="203" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="207"/>
+      <c r="K6" s="204"/>
     </row>
     <row r="7" spans="1:11" s="19" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="18"/>
@@ -39091,18 +39372,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J7" s="204">
+      <c r="J7" s="205">
         <f>J4*K4*5</f>
         <v>1310720</v>
       </c>
-      <c r="K7" s="205"/>
+      <c r="K7" s="206"/>
     </row>
     <row r="8" spans="1:11" s="19" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="18"/>
-      <c r="B8" s="200" t="s">
+      <c r="B8" s="199" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="201"/>
+      <c r="C8" s="200"/>
       <c r="D8" s="25">
         <f>J7</f>
         <v>1310720</v>
@@ -39127,10 +39408,10 @@
     </row>
     <row r="9" spans="1:11" s="19" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="18"/>
-      <c r="B9" s="200" t="s">
+      <c r="B9" s="199" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="201"/>
+      <c r="C9" s="200"/>
       <c r="D9" s="25">
         <f>D8</f>
         <v>1310720</v>
@@ -39150,17 +39431,17 @@
         <f t="shared" si="0"/>
         <v>2.6520802254268194E-3</v>
       </c>
-      <c r="J9" s="202" t="s">
+      <c r="J9" s="201" t="s">
         <v>19</v>
       </c>
-      <c r="K9" s="203"/>
+      <c r="K9" s="202"/>
     </row>
     <row r="10" spans="1:11" s="19" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="18"/>
-      <c r="B10" s="200" t="s">
+      <c r="B10" s="199" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="201"/>
+      <c r="C10" s="200"/>
       <c r="D10" s="25">
         <f>D8</f>
         <v>1310720</v>
@@ -39190,10 +39471,10 @@
     </row>
     <row r="11" spans="1:11" s="19" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="18"/>
-      <c r="B11" s="200" t="s">
+      <c r="B11" s="199" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="201"/>
+      <c r="C11" s="200"/>
       <c r="D11" s="25">
         <f>D8</f>
         <v>1310720</v>
@@ -39218,10 +39499,10 @@
     </row>
     <row r="12" spans="1:11" s="19" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="18"/>
-      <c r="B12" s="200" t="s">
+      <c r="B12" s="199" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="201"/>
+      <c r="C12" s="200"/>
       <c r="D12" s="25">
         <f>D8</f>
         <v>1310720</v>
@@ -39242,17 +39523,17 @@
         <f t="shared" si="0"/>
         <v>2.6520802254268194E-3</v>
       </c>
-      <c r="J12" s="202" t="s">
+      <c r="J12" s="201" t="s">
         <v>23</v>
       </c>
-      <c r="K12" s="203"/>
+      <c r="K12" s="202"/>
     </row>
     <row r="13" spans="1:11" s="19" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="18"/>
-      <c r="B13" s="200" t="s">
+      <c r="B13" s="199" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="201"/>
+      <c r="C13" s="200"/>
       <c r="D13" s="25">
         <f>D8</f>
         <v>1310720</v>
@@ -39273,17 +39554,17 @@
         <f t="shared" si="0"/>
         <v>2.6520802254268194E-3</v>
       </c>
-      <c r="J13" s="204">
-        <v>720</v>
-      </c>
-      <c r="K13" s="205"/>
+      <c r="J13" s="205">
+        <v>720</v>
+      </c>
+      <c r="K13" s="206"/>
     </row>
     <row r="14" spans="1:11" s="19" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="18"/>
-      <c r="B14" s="200" t="s">
+      <c r="B14" s="199" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="201"/>
+      <c r="C14" s="200"/>
       <c r="D14" s="25">
         <f>D8</f>
         <v>1310720</v>
@@ -39309,10 +39590,10 @@
     </row>
     <row r="15" spans="1:11" s="19" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="18"/>
-      <c r="B15" s="200" t="s">
+      <c r="B15" s="199" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="201"/>
+      <c r="C15" s="200"/>
       <c r="D15" s="25">
         <f>D8</f>
         <v>1310720</v>
@@ -39333,17 +39614,17 @@
         <f t="shared" si="0"/>
         <v>2.6520802254268194E-3</v>
       </c>
-      <c r="J15" s="202" t="s">
+      <c r="J15" s="201" t="s">
         <v>6</v>
       </c>
-      <c r="K15" s="203"/>
+      <c r="K15" s="202"/>
     </row>
     <row r="16" spans="1:11" s="19" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="18"/>
-      <c r="B16" s="200" t="s">
+      <c r="B16" s="199" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="201"/>
+      <c r="C16" s="200"/>
       <c r="D16" s="25">
         <f>D8</f>
         <v>1310720</v>
@@ -39364,18 +39645,18 @@
         <f t="shared" si="0"/>
         <v>2.6520802254268194E-3</v>
       </c>
-      <c r="J16" s="204">
+      <c r="J16" s="205">
         <f>J13*J7</f>
         <v>943718400</v>
       </c>
-      <c r="K16" s="205"/>
+      <c r="K16" s="206"/>
     </row>
     <row r="17" spans="1:11" s="19" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="18"/>
-      <c r="B17" s="200" t="s">
+      <c r="B17" s="199" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="201"/>
+      <c r="C17" s="200"/>
       <c r="D17" s="25">
         <f>D8</f>
         <v>1310720</v>
@@ -39401,10 +39682,10 @@
     </row>
     <row r="18" spans="1:11" s="19" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="18"/>
-      <c r="B18" s="200" t="s">
+      <c r="B18" s="199" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="201"/>
+      <c r="C18" s="200"/>
       <c r="D18" s="25">
         <f>D8</f>
         <v>1310720</v>
@@ -39427,8 +39708,8 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="200"/>
-      <c r="C19" s="201"/>
+      <c r="B19" s="199"/>
+      <c r="C19" s="200"/>
       <c r="D19" s="25"/>
       <c r="E19" s="25"/>
       <c r="F19" s="25"/>
@@ -39439,10 +39720,10 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="200" t="s">
+      <c r="B20" s="199" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="201"/>
+      <c r="C20" s="200"/>
       <c r="D20" s="25">
         <f>D5</f>
         <v>117964800</v>
@@ -39466,10 +39747,10 @@
       <c r="K20" s="30"/>
     </row>
     <row r="21" spans="1:11" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="197" t="s">
+      <c r="B21" s="212" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="198"/>
+      <c r="C21" s="213"/>
       <c r="D21" s="31">
         <f>D5</f>
         <v>117964800</v>
@@ -39493,52 +39774,54 @@
     </row>
     <row r="22" spans="1:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="1:11" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="199" t="s">
+      <c r="B23" s="214" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="192"/>
-      <c r="D23" s="192" t="s">
+      <c r="C23" s="207"/>
+      <c r="D23" s="207" t="s">
         <v>33</v>
       </c>
-      <c r="E23" s="192"/>
-      <c r="F23" s="192" t="s">
+      <c r="E23" s="207"/>
+      <c r="F23" s="207" t="s">
         <v>34</v>
       </c>
-      <c r="G23" s="193"/>
+      <c r="G23" s="208"/>
       <c r="H23" s="21"/>
       <c r="J23" s="15"/>
     </row>
     <row r="24" spans="1:11" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="194">
+      <c r="B24" s="209">
         <f>D24/1024</f>
         <v>1.84112548828125</v>
       </c>
-      <c r="C24" s="195"/>
-      <c r="D24" s="195">
+      <c r="C24" s="210"/>
+      <c r="D24" s="210">
         <f>F24/1024</f>
         <v>1885.3125</v>
       </c>
-      <c r="E24" s="195"/>
-      <c r="F24" s="195">
+      <c r="E24" s="210"/>
+      <c r="F24" s="210">
         <f>(G4+G6+G8+G18+G21)/1024</f>
         <v>1930560</v>
       </c>
-      <c r="G24" s="196"/>
+      <c r="G24" s="211"/>
       <c r="H24" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
     <mergeCell ref="J15:K15"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="J16:K16"/>
@@ -39547,26 +39830,24 @@
     <mergeCell ref="J12:K12"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="J13:K13"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AJ30"/>
   <sheetViews>
@@ -42398,7 +42679,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AD187"/>
   <sheetViews>
@@ -53567,7 +53848,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H30"/>
   <sheetViews>
@@ -53643,17 +53924,17 @@
         <f>100%-C4/B4</f>
         <v>0.63790310004572359</v>
       </c>
-      <c r="C5" s="205"/>
+      <c r="C5" s="206"/>
       <c r="D5" s="221">
         <f>100%-E4/D4</f>
         <v>0.26473925055875114</v>
       </c>
-      <c r="E5" s="205"/>
+      <c r="E5" s="206"/>
       <c r="F5" s="221">
         <f>100%-G4/F4</f>
         <v>0.35861130498006433</v>
       </c>
-      <c r="G5" s="205"/>
+      <c r="G5" s="206"/>
     </row>
     <row r="6" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -53717,17 +53998,17 @@
         <f>100%-C9/B9</f>
         <v>0.59175609519597872</v>
       </c>
-      <c r="C10" s="205"/>
+      <c r="C10" s="206"/>
       <c r="D10" s="221">
         <f>100%-E9/D9</f>
         <v>0.24331179432508898</v>
       </c>
-      <c r="E10" s="205"/>
+      <c r="E10" s="206"/>
       <c r="F10" s="221">
         <f>100%-G9/F9</f>
         <v>0.6910328744713532</v>
       </c>
-      <c r="G10" s="205"/>
+      <c r="G10" s="206"/>
     </row>
     <row r="11" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -53791,17 +54072,17 @@
         <f>100%-C14/B14</f>
         <v>0.57571766303408878</v>
       </c>
-      <c r="C15" s="205"/>
+      <c r="C15" s="206"/>
       <c r="D15" s="221">
         <f>100%-E14/D14</f>
         <v>0.24002885225307236</v>
       </c>
-      <c r="E15" s="205"/>
+      <c r="E15" s="206"/>
       <c r="F15" s="221">
         <f>100%-G14/F14</f>
         <v>0.72901749231000568</v>
       </c>
-      <c r="G15" s="205"/>
+      <c r="G15" s="206"/>
     </row>
     <row r="16" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -53865,17 +54146,17 @@
         <f>100%-C19/B19</f>
         <v>0.64970498357021289</v>
       </c>
-      <c r="C20" s="205"/>
+      <c r="C20" s="206"/>
       <c r="D20" s="221">
         <f>100%-E19/D19</f>
         <v>0.30495038301716515</v>
       </c>
-      <c r="E20" s="205"/>
+      <c r="E20" s="206"/>
       <c r="F20" s="221">
         <f>100%-G19/F19</f>
         <v>0.66692162919937847</v>
       </c>
-      <c r="G20" s="205"/>
+      <c r="G20" s="206"/>
     </row>
     <row r="21" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -53939,17 +54220,17 @@
         <f>100%-C24/B24</f>
         <v>0.62588209961792052</v>
       </c>
-      <c r="C25" s="205"/>
+      <c r="C25" s="206"/>
       <c r="D25" s="221">
         <f>100%-E24/D24</f>
         <v>0.29618124258740208</v>
       </c>
-      <c r="E25" s="205"/>
+      <c r="E25" s="206"/>
       <c r="F25" s="221">
         <f>100%-G24/F24</f>
         <v>0.72167224422544307</v>
       </c>
-      <c r="G25" s="205"/>
+      <c r="G25" s="206"/>
     </row>
     <row r="26" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -54013,20 +54294,28 @@
         <f>100%-C29/B29</f>
         <v>0.62451243786428234</v>
       </c>
-      <c r="C30" s="205"/>
+      <c r="C30" s="206"/>
       <c r="D30" s="221">
         <f>100%-E29/D29</f>
         <v>0.29601422277325717</v>
       </c>
-      <c r="E30" s="205"/>
+      <c r="E30" s="206"/>
       <c r="F30" s="221">
         <f>100%-G29/F29</f>
         <v>0.72136742182070912</v>
       </c>
-      <c r="G30" s="205"/>
+      <c r="G30" s="206"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="F30:G30"/>
@@ -54043,21 +54332,13 @@
     <mergeCell ref="B27:G27"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:E5"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I25"/>
   <sheetViews>
@@ -54620,7 +54901,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BK109"/>
   <sheetViews>
@@ -54653,69 +54934,69 @@
   <sheetData>
     <row r="1" spans="2:63" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:63" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D2" s="253" t="s">
+      <c r="D2" s="250" t="s">
         <v>654</v>
       </c>
-      <c r="E2" s="254"/>
-      <c r="F2" s="254"/>
-      <c r="G2" s="254"/>
-      <c r="H2" s="254"/>
-      <c r="I2" s="254"/>
-      <c r="J2" s="254"/>
-      <c r="K2" s="254"/>
-      <c r="L2" s="254"/>
-      <c r="M2" s="254"/>
-      <c r="N2" s="254"/>
-      <c r="O2" s="254"/>
-      <c r="P2" s="254"/>
-      <c r="Q2" s="254"/>
-      <c r="R2" s="254"/>
-      <c r="S2" s="254"/>
-      <c r="T2" s="254"/>
-      <c r="U2" s="254"/>
-      <c r="V2" s="255"/>
-      <c r="X2" s="228" t="s">
+      <c r="E2" s="251"/>
+      <c r="F2" s="251"/>
+      <c r="G2" s="251"/>
+      <c r="H2" s="251"/>
+      <c r="I2" s="251"/>
+      <c r="J2" s="251"/>
+      <c r="K2" s="251"/>
+      <c r="L2" s="251"/>
+      <c r="M2" s="251"/>
+      <c r="N2" s="251"/>
+      <c r="O2" s="251"/>
+      <c r="P2" s="251"/>
+      <c r="Q2" s="251"/>
+      <c r="R2" s="251"/>
+      <c r="S2" s="251"/>
+      <c r="T2" s="251"/>
+      <c r="U2" s="251"/>
+      <c r="V2" s="252"/>
+      <c r="X2" s="243" t="s">
         <v>655</v>
       </c>
-      <c r="Y2" s="229"/>
-      <c r="Z2" s="229"/>
-      <c r="AA2" s="229"/>
-      <c r="AB2" s="229"/>
-      <c r="AC2" s="229"/>
-      <c r="AD2" s="229"/>
-      <c r="AE2" s="229"/>
-      <c r="AF2" s="229"/>
-      <c r="AG2" s="229"/>
-      <c r="AH2" s="229"/>
-      <c r="AI2" s="229"/>
-      <c r="AJ2" s="229"/>
-      <c r="AK2" s="229"/>
-      <c r="AL2" s="229"/>
-      <c r="AM2" s="229"/>
-      <c r="AN2" s="229"/>
-      <c r="AO2" s="229"/>
-      <c r="AP2" s="243"/>
-      <c r="AR2" s="244" t="s">
+      <c r="Y2" s="244"/>
+      <c r="Z2" s="244"/>
+      <c r="AA2" s="244"/>
+      <c r="AB2" s="244"/>
+      <c r="AC2" s="244"/>
+      <c r="AD2" s="244"/>
+      <c r="AE2" s="244"/>
+      <c r="AF2" s="244"/>
+      <c r="AG2" s="244"/>
+      <c r="AH2" s="244"/>
+      <c r="AI2" s="244"/>
+      <c r="AJ2" s="244"/>
+      <c r="AK2" s="244"/>
+      <c r="AL2" s="244"/>
+      <c r="AM2" s="244"/>
+      <c r="AN2" s="244"/>
+      <c r="AO2" s="244"/>
+      <c r="AP2" s="253"/>
+      <c r="AR2" s="254" t="s">
         <v>656</v>
       </c>
-      <c r="AS2" s="245"/>
-      <c r="AT2" s="245"/>
-      <c r="AU2" s="245"/>
-      <c r="AV2" s="245"/>
-      <c r="AW2" s="245"/>
-      <c r="AX2" s="245"/>
-      <c r="AY2" s="245"/>
-      <c r="AZ2" s="245"/>
-      <c r="BA2" s="245"/>
-      <c r="BB2" s="245"/>
-      <c r="BC2" s="245"/>
-      <c r="BD2" s="245"/>
-      <c r="BE2" s="245"/>
-      <c r="BF2" s="245"/>
-      <c r="BG2" s="245"/>
-      <c r="BH2" s="245"/>
-      <c r="BI2" s="245"/>
-      <c r="BJ2" s="246"/>
+      <c r="AS2" s="255"/>
+      <c r="AT2" s="255"/>
+      <c r="AU2" s="255"/>
+      <c r="AV2" s="255"/>
+      <c r="AW2" s="255"/>
+      <c r="AX2" s="255"/>
+      <c r="AY2" s="255"/>
+      <c r="AZ2" s="255"/>
+      <c r="BA2" s="255"/>
+      <c r="BB2" s="255"/>
+      <c r="BC2" s="255"/>
+      <c r="BD2" s="255"/>
+      <c r="BE2" s="255"/>
+      <c r="BF2" s="255"/>
+      <c r="BG2" s="255"/>
+      <c r="BH2" s="255"/>
+      <c r="BI2" s="255"/>
+      <c r="BJ2" s="256"/>
     </row>
     <row r="3" spans="2:63" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="138"/>
@@ -54779,76 +55060,76 @@
       <c r="BJ3" s="138"/>
     </row>
     <row r="4" spans="2:63" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="232" t="s">
+      <c r="D4" s="229" t="s">
         <v>653</v>
       </c>
-      <c r="E4" s="233"/>
-      <c r="F4" s="233"/>
-      <c r="G4" s="233"/>
-      <c r="H4" s="233"/>
-      <c r="I4" s="233"/>
-      <c r="J4" s="233"/>
-      <c r="K4" s="233"/>
-      <c r="L4" s="234"/>
-      <c r="N4" s="240" t="s">
+      <c r="E4" s="230"/>
+      <c r="F4" s="230"/>
+      <c r="G4" s="230"/>
+      <c r="H4" s="230"/>
+      <c r="I4" s="230"/>
+      <c r="J4" s="230"/>
+      <c r="K4" s="230"/>
+      <c r="L4" s="231"/>
+      <c r="N4" s="232" t="s">
         <v>652</v>
       </c>
-      <c r="O4" s="241"/>
-      <c r="P4" s="241"/>
-      <c r="Q4" s="241"/>
-      <c r="R4" s="241"/>
-      <c r="S4" s="241"/>
-      <c r="T4" s="241"/>
-      <c r="U4" s="241"/>
-      <c r="V4" s="242"/>
-      <c r="X4" s="232" t="s">
+      <c r="O4" s="233"/>
+      <c r="P4" s="233"/>
+      <c r="Q4" s="233"/>
+      <c r="R4" s="233"/>
+      <c r="S4" s="233"/>
+      <c r="T4" s="233"/>
+      <c r="U4" s="233"/>
+      <c r="V4" s="234"/>
+      <c r="X4" s="229" t="s">
         <v>653</v>
       </c>
-      <c r="Y4" s="233"/>
-      <c r="Z4" s="233"/>
-      <c r="AA4" s="233"/>
-      <c r="AB4" s="233"/>
-      <c r="AC4" s="233"/>
-      <c r="AD4" s="233"/>
-      <c r="AE4" s="233"/>
-      <c r="AF4" s="234"/>
-      <c r="AH4" s="240" t="s">
+      <c r="Y4" s="230"/>
+      <c r="Z4" s="230"/>
+      <c r="AA4" s="230"/>
+      <c r="AB4" s="230"/>
+      <c r="AC4" s="230"/>
+      <c r="AD4" s="230"/>
+      <c r="AE4" s="230"/>
+      <c r="AF4" s="231"/>
+      <c r="AH4" s="232" t="s">
         <v>652</v>
       </c>
-      <c r="AI4" s="241"/>
-      <c r="AJ4" s="241"/>
-      <c r="AK4" s="241"/>
-      <c r="AL4" s="241"/>
-      <c r="AM4" s="241"/>
-      <c r="AN4" s="241"/>
-      <c r="AO4" s="241"/>
-      <c r="AP4" s="242"/>
-      <c r="AR4" s="232" t="s">
+      <c r="AI4" s="233"/>
+      <c r="AJ4" s="233"/>
+      <c r="AK4" s="233"/>
+      <c r="AL4" s="233"/>
+      <c r="AM4" s="233"/>
+      <c r="AN4" s="233"/>
+      <c r="AO4" s="233"/>
+      <c r="AP4" s="234"/>
+      <c r="AR4" s="229" t="s">
         <v>653</v>
       </c>
-      <c r="AS4" s="233"/>
-      <c r="AT4" s="233"/>
-      <c r="AU4" s="233"/>
-      <c r="AV4" s="233"/>
-      <c r="AW4" s="233"/>
-      <c r="AX4" s="233"/>
-      <c r="AY4" s="233"/>
-      <c r="AZ4" s="234"/>
-      <c r="BB4" s="240" t="s">
+      <c r="AS4" s="230"/>
+      <c r="AT4" s="230"/>
+      <c r="AU4" s="230"/>
+      <c r="AV4" s="230"/>
+      <c r="AW4" s="230"/>
+      <c r="AX4" s="230"/>
+      <c r="AY4" s="230"/>
+      <c r="AZ4" s="231"/>
+      <c r="BB4" s="232" t="s">
         <v>652</v>
       </c>
-      <c r="BC4" s="241"/>
-      <c r="BD4" s="241"/>
-      <c r="BE4" s="241"/>
-      <c r="BF4" s="241"/>
-      <c r="BG4" s="241"/>
-      <c r="BH4" s="241"/>
-      <c r="BI4" s="241"/>
-      <c r="BJ4" s="242"/>
+      <c r="BC4" s="233"/>
+      <c r="BD4" s="233"/>
+      <c r="BE4" s="233"/>
+      <c r="BF4" s="233"/>
+      <c r="BG4" s="233"/>
+      <c r="BH4" s="233"/>
+      <c r="BI4" s="233"/>
+      <c r="BJ4" s="234"/>
     </row>
     <row r="5" spans="2:63" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:63" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="250" t="s">
+      <c r="B6" s="247" t="s">
         <v>663</v>
       </c>
       <c r="D6" s="144"/>
@@ -54911,92 +55192,92 @@
       <c r="BK6" s="21"/>
     </row>
     <row r="7" spans="2:63" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="251"/>
+      <c r="B7" s="248"/>
       <c r="D7" s="145"/>
-      <c r="E7" s="232" t="s">
+      <c r="E7" s="229" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="233"/>
-      <c r="G7" s="233"/>
-      <c r="H7" s="233"/>
-      <c r="I7" s="233"/>
-      <c r="J7" s="234"/>
-      <c r="K7" s="232" t="s">
+      <c r="F7" s="230"/>
+      <c r="G7" s="230"/>
+      <c r="H7" s="230"/>
+      <c r="I7" s="230"/>
+      <c r="J7" s="231"/>
+      <c r="K7" s="229" t="s">
         <v>7</v>
       </c>
-      <c r="L7" s="234"/>
+      <c r="L7" s="231"/>
       <c r="M7" s="143"/>
-      <c r="N7" s="240" t="s">
+      <c r="N7" s="232" t="s">
         <v>35</v>
       </c>
-      <c r="O7" s="241"/>
-      <c r="P7" s="241"/>
-      <c r="Q7" s="241"/>
-      <c r="R7" s="241"/>
-      <c r="S7" s="242"/>
-      <c r="T7" s="240" t="s">
+      <c r="O7" s="233"/>
+      <c r="P7" s="233"/>
+      <c r="Q7" s="233"/>
+      <c r="R7" s="233"/>
+      <c r="S7" s="234"/>
+      <c r="T7" s="232" t="s">
         <v>7</v>
       </c>
-      <c r="U7" s="242"/>
+      <c r="U7" s="234"/>
       <c r="V7" s="147"/>
       <c r="X7" s="145"/>
-      <c r="Y7" s="232" t="s">
+      <c r="Y7" s="229" t="s">
         <v>35</v>
       </c>
-      <c r="Z7" s="233"/>
-      <c r="AA7" s="233"/>
-      <c r="AB7" s="233"/>
-      <c r="AC7" s="233"/>
-      <c r="AD7" s="234"/>
-      <c r="AE7" s="232" t="s">
+      <c r="Z7" s="230"/>
+      <c r="AA7" s="230"/>
+      <c r="AB7" s="230"/>
+      <c r="AC7" s="230"/>
+      <c r="AD7" s="231"/>
+      <c r="AE7" s="229" t="s">
         <v>7</v>
       </c>
-      <c r="AF7" s="234"/>
+      <c r="AF7" s="231"/>
       <c r="AG7" s="143"/>
-      <c r="AH7" s="240" t="s">
+      <c r="AH7" s="232" t="s">
         <v>35</v>
       </c>
-      <c r="AI7" s="241"/>
-      <c r="AJ7" s="241"/>
-      <c r="AK7" s="241"/>
-      <c r="AL7" s="241"/>
-      <c r="AM7" s="242"/>
-      <c r="AN7" s="240" t="s">
+      <c r="AI7" s="233"/>
+      <c r="AJ7" s="233"/>
+      <c r="AK7" s="233"/>
+      <c r="AL7" s="233"/>
+      <c r="AM7" s="234"/>
+      <c r="AN7" s="232" t="s">
         <v>7</v>
       </c>
-      <c r="AO7" s="242"/>
+      <c r="AO7" s="234"/>
       <c r="AP7" s="147"/>
       <c r="AR7" s="145"/>
-      <c r="AS7" s="232" t="s">
+      <c r="AS7" s="229" t="s">
         <v>35</v>
       </c>
-      <c r="AT7" s="233"/>
-      <c r="AU7" s="233"/>
-      <c r="AV7" s="233"/>
-      <c r="AW7" s="233"/>
-      <c r="AX7" s="234"/>
-      <c r="AY7" s="232" t="s">
+      <c r="AT7" s="230"/>
+      <c r="AU7" s="230"/>
+      <c r="AV7" s="230"/>
+      <c r="AW7" s="230"/>
+      <c r="AX7" s="231"/>
+      <c r="AY7" s="229" t="s">
         <v>7</v>
       </c>
-      <c r="AZ7" s="234"/>
+      <c r="AZ7" s="231"/>
       <c r="BA7" s="143"/>
-      <c r="BB7" s="240" t="s">
+      <c r="BB7" s="232" t="s">
         <v>35</v>
       </c>
-      <c r="BC7" s="241"/>
-      <c r="BD7" s="241"/>
-      <c r="BE7" s="241"/>
-      <c r="BF7" s="241"/>
-      <c r="BG7" s="242"/>
-      <c r="BH7" s="240" t="s">
+      <c r="BC7" s="233"/>
+      <c r="BD7" s="233"/>
+      <c r="BE7" s="233"/>
+      <c r="BF7" s="233"/>
+      <c r="BG7" s="234"/>
+      <c r="BH7" s="232" t="s">
         <v>7</v>
       </c>
-      <c r="BI7" s="242"/>
+      <c r="BI7" s="234"/>
       <c r="BJ7" s="147"/>
       <c r="BK7" s="21"/>
     </row>
     <row r="8" spans="2:63" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="251"/>
+      <c r="B8" s="248"/>
       <c r="D8" s="145"/>
       <c r="E8" s="235">
         <v>9133132168</v>
@@ -55088,7 +55369,7 @@
       <c r="BK8" s="141"/>
     </row>
     <row r="9" spans="2:63" s="162" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="251"/>
+      <c r="B9" s="248"/>
       <c r="D9" s="146"/>
       <c r="E9" s="143"/>
       <c r="F9" s="143"/>
@@ -55150,92 +55431,92 @@
       <c r="BK9" s="142"/>
     </row>
     <row r="10" spans="2:63" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="251"/>
+      <c r="B10" s="248"/>
       <c r="D10" s="145"/>
-      <c r="E10" s="232" t="s">
+      <c r="E10" s="229" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="233"/>
-      <c r="G10" s="233"/>
-      <c r="H10" s="233"/>
-      <c r="I10" s="233"/>
-      <c r="J10" s="234"/>
-      <c r="K10" s="232" t="s">
+      <c r="F10" s="230"/>
+      <c r="G10" s="230"/>
+      <c r="H10" s="230"/>
+      <c r="I10" s="230"/>
+      <c r="J10" s="231"/>
+      <c r="K10" s="229" t="s">
         <v>7</v>
       </c>
-      <c r="L10" s="234"/>
+      <c r="L10" s="231"/>
       <c r="M10" s="143"/>
-      <c r="N10" s="240" t="s">
+      <c r="N10" s="232" t="s">
         <v>36</v>
       </c>
-      <c r="O10" s="241"/>
-      <c r="P10" s="241"/>
-      <c r="Q10" s="241"/>
-      <c r="R10" s="241"/>
-      <c r="S10" s="242"/>
-      <c r="T10" s="240" t="s">
+      <c r="O10" s="233"/>
+      <c r="P10" s="233"/>
+      <c r="Q10" s="233"/>
+      <c r="R10" s="233"/>
+      <c r="S10" s="234"/>
+      <c r="T10" s="232" t="s">
         <v>7</v>
       </c>
-      <c r="U10" s="242"/>
+      <c r="U10" s="234"/>
       <c r="V10" s="147"/>
       <c r="X10" s="145"/>
-      <c r="Y10" s="232" t="s">
+      <c r="Y10" s="229" t="s">
         <v>36</v>
       </c>
-      <c r="Z10" s="233"/>
-      <c r="AA10" s="233"/>
-      <c r="AB10" s="233"/>
-      <c r="AC10" s="233"/>
-      <c r="AD10" s="234"/>
-      <c r="AE10" s="232" t="s">
+      <c r="Z10" s="230"/>
+      <c r="AA10" s="230"/>
+      <c r="AB10" s="230"/>
+      <c r="AC10" s="230"/>
+      <c r="AD10" s="231"/>
+      <c r="AE10" s="229" t="s">
         <v>7</v>
       </c>
-      <c r="AF10" s="234"/>
+      <c r="AF10" s="231"/>
       <c r="AG10" s="143"/>
-      <c r="AH10" s="240" t="s">
+      <c r="AH10" s="232" t="s">
         <v>36</v>
       </c>
-      <c r="AI10" s="241"/>
-      <c r="AJ10" s="241"/>
-      <c r="AK10" s="241"/>
-      <c r="AL10" s="241"/>
-      <c r="AM10" s="242"/>
-      <c r="AN10" s="240" t="s">
+      <c r="AI10" s="233"/>
+      <c r="AJ10" s="233"/>
+      <c r="AK10" s="233"/>
+      <c r="AL10" s="233"/>
+      <c r="AM10" s="234"/>
+      <c r="AN10" s="232" t="s">
         <v>7</v>
       </c>
-      <c r="AO10" s="242"/>
+      <c r="AO10" s="234"/>
       <c r="AP10" s="147"/>
       <c r="AR10" s="145"/>
-      <c r="AS10" s="232" t="s">
+      <c r="AS10" s="229" t="s">
         <v>36</v>
       </c>
-      <c r="AT10" s="233"/>
-      <c r="AU10" s="233"/>
-      <c r="AV10" s="233"/>
-      <c r="AW10" s="233"/>
-      <c r="AX10" s="234"/>
-      <c r="AY10" s="232" t="s">
+      <c r="AT10" s="230"/>
+      <c r="AU10" s="230"/>
+      <c r="AV10" s="230"/>
+      <c r="AW10" s="230"/>
+      <c r="AX10" s="231"/>
+      <c r="AY10" s="229" t="s">
         <v>7</v>
       </c>
-      <c r="AZ10" s="234"/>
+      <c r="AZ10" s="231"/>
       <c r="BA10" s="143"/>
-      <c r="BB10" s="240" t="s">
+      <c r="BB10" s="232" t="s">
         <v>36</v>
       </c>
-      <c r="BC10" s="241"/>
-      <c r="BD10" s="241"/>
-      <c r="BE10" s="241"/>
-      <c r="BF10" s="241"/>
-      <c r="BG10" s="242"/>
-      <c r="BH10" s="240" t="s">
+      <c r="BC10" s="233"/>
+      <c r="BD10" s="233"/>
+      <c r="BE10" s="233"/>
+      <c r="BF10" s="233"/>
+      <c r="BG10" s="234"/>
+      <c r="BH10" s="232" t="s">
         <v>7</v>
       </c>
-      <c r="BI10" s="242"/>
+      <c r="BI10" s="234"/>
       <c r="BJ10" s="147"/>
       <c r="BK10" s="21"/>
     </row>
     <row r="11" spans="2:63" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="251"/>
+      <c r="B11" s="248"/>
       <c r="D11" s="145"/>
       <c r="E11" s="235">
         <v>469683524</v>
@@ -55327,7 +55608,7 @@
       <c r="BK11" s="141"/>
     </row>
     <row r="12" spans="2:63" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="251"/>
+      <c r="B12" s="248"/>
       <c r="D12" s="146"/>
       <c r="E12" s="143"/>
       <c r="F12" s="143"/>
@@ -55387,7 +55668,7 @@
       <c r="BJ12" s="147"/>
     </row>
     <row r="13" spans="2:63" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="251"/>
+      <c r="B13" s="248"/>
       <c r="D13" s="146"/>
       <c r="E13" s="143"/>
       <c r="F13" s="143"/>
@@ -55408,31 +55689,31 @@
       <c r="U13" s="143"/>
       <c r="V13" s="147"/>
       <c r="X13" s="146"/>
-      <c r="Y13" s="232" t="s">
+      <c r="Y13" s="229" t="s">
         <v>35</v>
       </c>
-      <c r="Z13" s="233"/>
-      <c r="AA13" s="233"/>
-      <c r="AB13" s="233"/>
-      <c r="AC13" s="233"/>
-      <c r="AD13" s="234"/>
-      <c r="AE13" s="232" t="s">
+      <c r="Z13" s="230"/>
+      <c r="AA13" s="230"/>
+      <c r="AB13" s="230"/>
+      <c r="AC13" s="230"/>
+      <c r="AD13" s="231"/>
+      <c r="AE13" s="229" t="s">
         <v>7</v>
       </c>
-      <c r="AF13" s="234"/>
+      <c r="AF13" s="231"/>
       <c r="AG13" s="143"/>
-      <c r="AH13" s="240" t="s">
+      <c r="AH13" s="232" t="s">
         <v>35</v>
       </c>
-      <c r="AI13" s="241"/>
-      <c r="AJ13" s="241"/>
-      <c r="AK13" s="241"/>
-      <c r="AL13" s="241"/>
-      <c r="AM13" s="242"/>
-      <c r="AN13" s="240" t="s">
+      <c r="AI13" s="233"/>
+      <c r="AJ13" s="233"/>
+      <c r="AK13" s="233"/>
+      <c r="AL13" s="233"/>
+      <c r="AM13" s="234"/>
+      <c r="AN13" s="232" t="s">
         <v>7</v>
       </c>
-      <c r="AO13" s="242"/>
+      <c r="AO13" s="234"/>
       <c r="AP13" s="147"/>
       <c r="AR13" s="146"/>
       <c r="AS13" s="163"/>
@@ -55455,7 +55736,7 @@
       <c r="BJ13" s="147"/>
     </row>
     <row r="14" spans="2:63" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="251"/>
+      <c r="B14" s="248"/>
       <c r="D14" s="146"/>
       <c r="E14" s="143"/>
       <c r="F14" s="143"/>
@@ -55525,7 +55806,7 @@
       <c r="BJ14" s="147"/>
     </row>
     <row r="15" spans="2:63" s="162" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="251"/>
+      <c r="B15" s="248"/>
       <c r="D15" s="146"/>
       <c r="E15" s="143"/>
       <c r="F15" s="143"/>
@@ -55586,7 +55867,7 @@
       <c r="BJ15" s="147"/>
     </row>
     <row r="16" spans="2:63" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="251"/>
+      <c r="B16" s="248"/>
       <c r="D16" s="146"/>
       <c r="E16" s="143"/>
       <c r="F16" s="143"/>
@@ -55607,31 +55888,31 @@
       <c r="U16" s="143"/>
       <c r="V16" s="147"/>
       <c r="X16" s="146"/>
-      <c r="Y16" s="232" t="s">
+      <c r="Y16" s="229" t="s">
         <v>36</v>
       </c>
-      <c r="Z16" s="233"/>
-      <c r="AA16" s="233"/>
-      <c r="AB16" s="233"/>
-      <c r="AC16" s="233"/>
-      <c r="AD16" s="234"/>
-      <c r="AE16" s="232" t="s">
+      <c r="Z16" s="230"/>
+      <c r="AA16" s="230"/>
+      <c r="AB16" s="230"/>
+      <c r="AC16" s="230"/>
+      <c r="AD16" s="231"/>
+      <c r="AE16" s="229" t="s">
         <v>7</v>
       </c>
-      <c r="AF16" s="234"/>
+      <c r="AF16" s="231"/>
       <c r="AG16" s="143"/>
-      <c r="AH16" s="240" t="s">
+      <c r="AH16" s="232" t="s">
         <v>36</v>
       </c>
-      <c r="AI16" s="241"/>
-      <c r="AJ16" s="241"/>
-      <c r="AK16" s="241"/>
-      <c r="AL16" s="241"/>
-      <c r="AM16" s="242"/>
-      <c r="AN16" s="240" t="s">
+      <c r="AI16" s="233"/>
+      <c r="AJ16" s="233"/>
+      <c r="AK16" s="233"/>
+      <c r="AL16" s="233"/>
+      <c r="AM16" s="234"/>
+      <c r="AN16" s="232" t="s">
         <v>7</v>
       </c>
-      <c r="AO16" s="242"/>
+      <c r="AO16" s="234"/>
       <c r="AP16" s="147"/>
       <c r="AR16" s="146"/>
       <c r="AS16" s="163"/>
@@ -55654,7 +55935,7 @@
       <c r="BJ16" s="147"/>
     </row>
     <row r="17" spans="2:63" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="251"/>
+      <c r="B17" s="248"/>
       <c r="D17" s="146"/>
       <c r="E17" s="143"/>
       <c r="F17" s="143"/>
@@ -55724,7 +56005,7 @@
       <c r="BJ17" s="147"/>
     </row>
     <row r="18" spans="2:63" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="251"/>
+      <c r="B18" s="248"/>
       <c r="D18" s="146"/>
       <c r="E18" s="143"/>
       <c r="F18" s="143"/>
@@ -55784,21 +56065,21 @@
       <c r="BJ18" s="147"/>
     </row>
     <row r="19" spans="2:63" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="251"/>
+      <c r="B19" s="248"/>
       <c r="D19" s="146"/>
-      <c r="E19" s="228" t="s">
+      <c r="E19" s="243" t="s">
         <v>669</v>
       </c>
-      <c r="F19" s="229"/>
-      <c r="G19" s="229"/>
-      <c r="H19" s="229"/>
-      <c r="I19" s="229"/>
-      <c r="J19" s="229"/>
-      <c r="K19" s="230">
+      <c r="F19" s="244"/>
+      <c r="G19" s="244"/>
+      <c r="H19" s="244"/>
+      <c r="I19" s="244"/>
+      <c r="J19" s="244"/>
+      <c r="K19" s="245">
         <f>100%-$N11/$E11</f>
         <v>0.63790310004572359</v>
       </c>
-      <c r="L19" s="231"/>
+      <c r="L19" s="246"/>
       <c r="M19" s="143"/>
       <c r="N19" s="143"/>
       <c r="O19" s="143"/>
@@ -55810,51 +56091,51 @@
       <c r="U19" s="143"/>
       <c r="V19" s="147"/>
       <c r="X19" s="146"/>
-      <c r="Y19" s="228" t="s">
+      <c r="Y19" s="243" t="s">
         <v>669</v>
       </c>
-      <c r="Z19" s="229"/>
-      <c r="AA19" s="229"/>
-      <c r="AB19" s="229"/>
-      <c r="AC19" s="229"/>
-      <c r="AD19" s="229"/>
-      <c r="AE19" s="230">
+      <c r="Z19" s="244"/>
+      <c r="AA19" s="244"/>
+      <c r="AB19" s="244"/>
+      <c r="AC19" s="244"/>
+      <c r="AD19" s="244"/>
+      <c r="AE19" s="245">
         <f>100%-($AH11+$AH17)/($Y11+$Y17)</f>
         <v>0.26473925055875114</v>
       </c>
-      <c r="AF19" s="231"/>
+      <c r="AF19" s="246"/>
       <c r="AG19" s="143"/>
-      <c r="AH19" s="228" t="s">
+      <c r="AH19" s="243" t="s">
         <v>670</v>
       </c>
-      <c r="AI19" s="229"/>
-      <c r="AJ19" s="229"/>
-      <c r="AK19" s="229"/>
-      <c r="AL19" s="230">
+      <c r="AI19" s="244"/>
+      <c r="AJ19" s="244"/>
+      <c r="AK19" s="244"/>
+      <c r="AL19" s="245">
         <f>($Y11+$Y17)/($Y$72+$Y$78)</f>
         <v>0.12006625487976859</v>
       </c>
-      <c r="AM19" s="231"/>
-      <c r="AN19" s="230">
+      <c r="AM19" s="246"/>
+      <c r="AN19" s="245">
         <f>($AH11+$AH17)/($Y$72+$Y$78)</f>
         <v>8.8280004545502652E-2</v>
       </c>
-      <c r="AO19" s="231"/>
+      <c r="AO19" s="246"/>
       <c r="AP19" s="147"/>
       <c r="AR19" s="146"/>
-      <c r="AS19" s="228" t="s">
+      <c r="AS19" s="243" t="s">
         <v>669</v>
       </c>
-      <c r="AT19" s="229"/>
-      <c r="AU19" s="229"/>
-      <c r="AV19" s="229"/>
-      <c r="AW19" s="229"/>
-      <c r="AX19" s="229"/>
-      <c r="AY19" s="230">
+      <c r="AT19" s="244"/>
+      <c r="AU19" s="244"/>
+      <c r="AV19" s="244"/>
+      <c r="AW19" s="244"/>
+      <c r="AX19" s="244"/>
+      <c r="AY19" s="245">
         <f>100%-$BB11/$AS11</f>
         <v>0.35861130498006433</v>
       </c>
-      <c r="AZ19" s="231"/>
+      <c r="AZ19" s="246"/>
       <c r="BA19" s="143"/>
       <c r="BB19" s="143"/>
       <c r="BC19" s="143"/>
@@ -55867,7 +56148,7 @@
       <c r="BJ19" s="147"/>
     </row>
     <row r="20" spans="2:63" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="252"/>
+      <c r="B20" s="249"/>
       <c r="D20" s="165"/>
       <c r="E20" s="166"/>
       <c r="F20" s="166"/>
@@ -55928,7 +56209,7 @@
     </row>
     <row r="21" spans="2:63" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="2:63" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="247" t="s">
+      <c r="B22" s="240" t="s">
         <v>664</v>
       </c>
       <c r="D22" s="152"/>
@@ -55991,92 +56272,92 @@
       <c r="BK22" s="21"/>
     </row>
     <row r="23" spans="2:63" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="248"/>
+      <c r="B23" s="241"/>
       <c r="D23" s="153"/>
-      <c r="E23" s="232" t="s">
+      <c r="E23" s="229" t="s">
         <v>35</v>
       </c>
-      <c r="F23" s="233"/>
-      <c r="G23" s="233"/>
-      <c r="H23" s="233"/>
-      <c r="I23" s="233"/>
-      <c r="J23" s="234"/>
-      <c r="K23" s="232" t="s">
+      <c r="F23" s="230"/>
+      <c r="G23" s="230"/>
+      <c r="H23" s="230"/>
+      <c r="I23" s="230"/>
+      <c r="J23" s="231"/>
+      <c r="K23" s="229" t="s">
         <v>7</v>
       </c>
-      <c r="L23" s="234"/>
+      <c r="L23" s="231"/>
       <c r="M23" s="150"/>
-      <c r="N23" s="240" t="s">
+      <c r="N23" s="232" t="s">
         <v>35</v>
       </c>
-      <c r="O23" s="241"/>
-      <c r="P23" s="241"/>
-      <c r="Q23" s="241"/>
-      <c r="R23" s="241"/>
-      <c r="S23" s="242"/>
-      <c r="T23" s="240" t="s">
+      <c r="O23" s="233"/>
+      <c r="P23" s="233"/>
+      <c r="Q23" s="233"/>
+      <c r="R23" s="233"/>
+      <c r="S23" s="234"/>
+      <c r="T23" s="232" t="s">
         <v>7</v>
       </c>
-      <c r="U23" s="242"/>
+      <c r="U23" s="234"/>
       <c r="V23" s="151"/>
       <c r="X23" s="153"/>
-      <c r="Y23" s="232" t="s">
+      <c r="Y23" s="229" t="s">
         <v>35</v>
       </c>
-      <c r="Z23" s="233"/>
-      <c r="AA23" s="233"/>
-      <c r="AB23" s="233"/>
-      <c r="AC23" s="233"/>
-      <c r="AD23" s="234"/>
-      <c r="AE23" s="232" t="s">
+      <c r="Z23" s="230"/>
+      <c r="AA23" s="230"/>
+      <c r="AB23" s="230"/>
+      <c r="AC23" s="230"/>
+      <c r="AD23" s="231"/>
+      <c r="AE23" s="229" t="s">
         <v>7</v>
       </c>
-      <c r="AF23" s="234"/>
+      <c r="AF23" s="231"/>
       <c r="AG23" s="150"/>
-      <c r="AH23" s="240" t="s">
+      <c r="AH23" s="232" t="s">
         <v>35</v>
       </c>
-      <c r="AI23" s="241"/>
-      <c r="AJ23" s="241"/>
-      <c r="AK23" s="241"/>
-      <c r="AL23" s="241"/>
-      <c r="AM23" s="242"/>
-      <c r="AN23" s="240" t="s">
+      <c r="AI23" s="233"/>
+      <c r="AJ23" s="233"/>
+      <c r="AK23" s="233"/>
+      <c r="AL23" s="233"/>
+      <c r="AM23" s="234"/>
+      <c r="AN23" s="232" t="s">
         <v>7</v>
       </c>
-      <c r="AO23" s="242"/>
+      <c r="AO23" s="234"/>
       <c r="AP23" s="151"/>
       <c r="AR23" s="153"/>
-      <c r="AS23" s="232" t="s">
+      <c r="AS23" s="229" t="s">
         <v>35</v>
       </c>
-      <c r="AT23" s="233"/>
-      <c r="AU23" s="233"/>
-      <c r="AV23" s="233"/>
-      <c r="AW23" s="233"/>
-      <c r="AX23" s="234"/>
-      <c r="AY23" s="232" t="s">
+      <c r="AT23" s="230"/>
+      <c r="AU23" s="230"/>
+      <c r="AV23" s="230"/>
+      <c r="AW23" s="230"/>
+      <c r="AX23" s="231"/>
+      <c r="AY23" s="229" t="s">
         <v>7</v>
       </c>
-      <c r="AZ23" s="234"/>
+      <c r="AZ23" s="231"/>
       <c r="BA23" s="150"/>
-      <c r="BB23" s="240" t="s">
+      <c r="BB23" s="232" t="s">
         <v>35</v>
       </c>
-      <c r="BC23" s="241"/>
-      <c r="BD23" s="241"/>
-      <c r="BE23" s="241"/>
-      <c r="BF23" s="241"/>
-      <c r="BG23" s="242"/>
-      <c r="BH23" s="240" t="s">
+      <c r="BC23" s="233"/>
+      <c r="BD23" s="233"/>
+      <c r="BE23" s="233"/>
+      <c r="BF23" s="233"/>
+      <c r="BG23" s="234"/>
+      <c r="BH23" s="232" t="s">
         <v>7</v>
       </c>
-      <c r="BI23" s="242"/>
+      <c r="BI23" s="234"/>
       <c r="BJ23" s="151"/>
       <c r="BK23" s="21"/>
     </row>
     <row r="24" spans="2:63" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="248"/>
+      <c r="B24" s="241"/>
       <c r="D24" s="153"/>
       <c r="E24" s="235">
         <v>9133132168</v>
@@ -56168,7 +56449,7 @@
       <c r="BK24" s="141"/>
     </row>
     <row r="25" spans="2:63" s="162" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="248"/>
+      <c r="B25" s="241"/>
       <c r="D25" s="149"/>
       <c r="E25" s="150"/>
       <c r="F25" s="150"/>
@@ -56230,92 +56511,92 @@
       <c r="BK25" s="142"/>
     </row>
     <row r="26" spans="2:63" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="248"/>
+      <c r="B26" s="241"/>
       <c r="D26" s="153"/>
-      <c r="E26" s="232" t="s">
+      <c r="E26" s="229" t="s">
         <v>36</v>
       </c>
-      <c r="F26" s="233"/>
-      <c r="G26" s="233"/>
-      <c r="H26" s="233"/>
-      <c r="I26" s="233"/>
-      <c r="J26" s="234"/>
-      <c r="K26" s="232" t="s">
+      <c r="F26" s="230"/>
+      <c r="G26" s="230"/>
+      <c r="H26" s="230"/>
+      <c r="I26" s="230"/>
+      <c r="J26" s="231"/>
+      <c r="K26" s="229" t="s">
         <v>7</v>
       </c>
-      <c r="L26" s="234"/>
+      <c r="L26" s="231"/>
       <c r="M26" s="150"/>
-      <c r="N26" s="240" t="s">
+      <c r="N26" s="232" t="s">
         <v>36</v>
       </c>
-      <c r="O26" s="241"/>
-      <c r="P26" s="241"/>
-      <c r="Q26" s="241"/>
-      <c r="R26" s="241"/>
-      <c r="S26" s="242"/>
-      <c r="T26" s="240" t="s">
+      <c r="O26" s="233"/>
+      <c r="P26" s="233"/>
+      <c r="Q26" s="233"/>
+      <c r="R26" s="233"/>
+      <c r="S26" s="234"/>
+      <c r="T26" s="232" t="s">
         <v>7</v>
       </c>
-      <c r="U26" s="242"/>
+      <c r="U26" s="234"/>
       <c r="V26" s="151"/>
       <c r="X26" s="153"/>
-      <c r="Y26" s="232" t="s">
+      <c r="Y26" s="229" t="s">
         <v>36</v>
       </c>
-      <c r="Z26" s="233"/>
-      <c r="AA26" s="233"/>
-      <c r="AB26" s="233"/>
-      <c r="AC26" s="233"/>
-      <c r="AD26" s="234"/>
-      <c r="AE26" s="232" t="s">
+      <c r="Z26" s="230"/>
+      <c r="AA26" s="230"/>
+      <c r="AB26" s="230"/>
+      <c r="AC26" s="230"/>
+      <c r="AD26" s="231"/>
+      <c r="AE26" s="229" t="s">
         <v>7</v>
       </c>
-      <c r="AF26" s="234"/>
+      <c r="AF26" s="231"/>
       <c r="AG26" s="150"/>
-      <c r="AH26" s="240" t="s">
+      <c r="AH26" s="232" t="s">
         <v>36</v>
       </c>
-      <c r="AI26" s="241"/>
-      <c r="AJ26" s="241"/>
-      <c r="AK26" s="241"/>
-      <c r="AL26" s="241"/>
-      <c r="AM26" s="242"/>
-      <c r="AN26" s="240" t="s">
+      <c r="AI26" s="233"/>
+      <c r="AJ26" s="233"/>
+      <c r="AK26" s="233"/>
+      <c r="AL26" s="233"/>
+      <c r="AM26" s="234"/>
+      <c r="AN26" s="232" t="s">
         <v>7</v>
       </c>
-      <c r="AO26" s="242"/>
+      <c r="AO26" s="234"/>
       <c r="AP26" s="151"/>
       <c r="AR26" s="153"/>
-      <c r="AS26" s="232" t="s">
+      <c r="AS26" s="229" t="s">
         <v>36</v>
       </c>
-      <c r="AT26" s="233"/>
-      <c r="AU26" s="233"/>
-      <c r="AV26" s="233"/>
-      <c r="AW26" s="233"/>
-      <c r="AX26" s="234"/>
-      <c r="AY26" s="232" t="s">
+      <c r="AT26" s="230"/>
+      <c r="AU26" s="230"/>
+      <c r="AV26" s="230"/>
+      <c r="AW26" s="230"/>
+      <c r="AX26" s="231"/>
+      <c r="AY26" s="229" t="s">
         <v>7</v>
       </c>
-      <c r="AZ26" s="234"/>
+      <c r="AZ26" s="231"/>
       <c r="BA26" s="150"/>
-      <c r="BB26" s="240" t="s">
+      <c r="BB26" s="232" t="s">
         <v>36</v>
       </c>
-      <c r="BC26" s="241"/>
-      <c r="BD26" s="241"/>
-      <c r="BE26" s="241"/>
-      <c r="BF26" s="241"/>
-      <c r="BG26" s="242"/>
-      <c r="BH26" s="240" t="s">
+      <c r="BC26" s="233"/>
+      <c r="BD26" s="233"/>
+      <c r="BE26" s="233"/>
+      <c r="BF26" s="233"/>
+      <c r="BG26" s="234"/>
+      <c r="BH26" s="232" t="s">
         <v>7</v>
       </c>
-      <c r="BI26" s="242"/>
+      <c r="BI26" s="234"/>
       <c r="BJ26" s="151"/>
       <c r="BK26" s="21"/>
     </row>
     <row r="27" spans="2:63" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="248"/>
+      <c r="B27" s="241"/>
       <c r="D27" s="153"/>
       <c r="E27" s="235">
         <v>476048680</v>
@@ -56407,7 +56688,7 @@
       <c r="BK27" s="141"/>
     </row>
     <row r="28" spans="2:63" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="248"/>
+      <c r="B28" s="241"/>
       <c r="D28" s="149"/>
       <c r="E28" s="150"/>
       <c r="F28" s="150"/>
@@ -56467,7 +56748,7 @@
       <c r="BJ28" s="151"/>
     </row>
     <row r="29" spans="2:63" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="248"/>
+      <c r="B29" s="241"/>
       <c r="D29" s="149"/>
       <c r="E29" s="150"/>
       <c r="F29" s="150"/>
@@ -56488,31 +56769,31 @@
       <c r="U29" s="150"/>
       <c r="V29" s="151"/>
       <c r="X29" s="149"/>
-      <c r="Y29" s="232" t="s">
+      <c r="Y29" s="229" t="s">
         <v>35</v>
       </c>
-      <c r="Z29" s="233"/>
-      <c r="AA29" s="233"/>
-      <c r="AB29" s="233"/>
-      <c r="AC29" s="233"/>
-      <c r="AD29" s="234"/>
-      <c r="AE29" s="232" t="s">
+      <c r="Z29" s="230"/>
+      <c r="AA29" s="230"/>
+      <c r="AB29" s="230"/>
+      <c r="AC29" s="230"/>
+      <c r="AD29" s="231"/>
+      <c r="AE29" s="229" t="s">
         <v>7</v>
       </c>
-      <c r="AF29" s="234"/>
+      <c r="AF29" s="231"/>
       <c r="AG29" s="150"/>
-      <c r="AH29" s="240" t="s">
+      <c r="AH29" s="232" t="s">
         <v>35</v>
       </c>
-      <c r="AI29" s="241"/>
-      <c r="AJ29" s="241"/>
-      <c r="AK29" s="241"/>
-      <c r="AL29" s="241"/>
-      <c r="AM29" s="242"/>
-      <c r="AN29" s="240" t="s">
+      <c r="AI29" s="233"/>
+      <c r="AJ29" s="233"/>
+      <c r="AK29" s="233"/>
+      <c r="AL29" s="233"/>
+      <c r="AM29" s="234"/>
+      <c r="AN29" s="232" t="s">
         <v>7</v>
       </c>
-      <c r="AO29" s="242"/>
+      <c r="AO29" s="234"/>
       <c r="AP29" s="151"/>
       <c r="AR29" s="149"/>
       <c r="AS29" s="150"/>
@@ -56535,7 +56816,7 @@
       <c r="BJ29" s="151"/>
     </row>
     <row r="30" spans="2:63" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="248"/>
+      <c r="B30" s="241"/>
       <c r="D30" s="149"/>
       <c r="E30" s="150"/>
       <c r="F30" s="150"/>
@@ -56605,7 +56886,7 @@
       <c r="BJ30" s="151"/>
     </row>
     <row r="31" spans="2:63" s="162" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="248"/>
+      <c r="B31" s="241"/>
       <c r="D31" s="149"/>
       <c r="E31" s="150"/>
       <c r="F31" s="150"/>
@@ -56666,7 +56947,7 @@
       <c r="BJ31" s="151"/>
     </row>
     <row r="32" spans="2:63" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="248"/>
+      <c r="B32" s="241"/>
       <c r="D32" s="149"/>
       <c r="E32" s="150"/>
       <c r="F32" s="150"/>
@@ -56687,31 +56968,31 @@
       <c r="U32" s="150"/>
       <c r="V32" s="151"/>
       <c r="X32" s="149"/>
-      <c r="Y32" s="232" t="s">
+      <c r="Y32" s="229" t="s">
         <v>36</v>
       </c>
-      <c r="Z32" s="233"/>
-      <c r="AA32" s="233"/>
-      <c r="AB32" s="233"/>
-      <c r="AC32" s="233"/>
-      <c r="AD32" s="234"/>
-      <c r="AE32" s="232" t="s">
+      <c r="Z32" s="230"/>
+      <c r="AA32" s="230"/>
+      <c r="AB32" s="230"/>
+      <c r="AC32" s="230"/>
+      <c r="AD32" s="231"/>
+      <c r="AE32" s="229" t="s">
         <v>7</v>
       </c>
-      <c r="AF32" s="234"/>
+      <c r="AF32" s="231"/>
       <c r="AG32" s="150"/>
-      <c r="AH32" s="240" t="s">
+      <c r="AH32" s="232" t="s">
         <v>36</v>
       </c>
-      <c r="AI32" s="241"/>
-      <c r="AJ32" s="241"/>
-      <c r="AK32" s="241"/>
-      <c r="AL32" s="241"/>
-      <c r="AM32" s="242"/>
-      <c r="AN32" s="240" t="s">
+      <c r="AI32" s="233"/>
+      <c r="AJ32" s="233"/>
+      <c r="AK32" s="233"/>
+      <c r="AL32" s="233"/>
+      <c r="AM32" s="234"/>
+      <c r="AN32" s="232" t="s">
         <v>7</v>
       </c>
-      <c r="AO32" s="242"/>
+      <c r="AO32" s="234"/>
       <c r="AP32" s="151"/>
       <c r="AR32" s="149"/>
       <c r="AS32" s="170"/>
@@ -56734,7 +57015,7 @@
       <c r="BJ32" s="151"/>
     </row>
     <row r="33" spans="1:63" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="248"/>
+      <c r="B33" s="241"/>
       <c r="D33" s="149"/>
       <c r="E33" s="150"/>
       <c r="F33" s="150"/>
@@ -56804,7 +57085,7 @@
       <c r="BJ33" s="151"/>
     </row>
     <row r="34" spans="1:63" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="248"/>
+      <c r="B34" s="241"/>
       <c r="D34" s="149"/>
       <c r="E34" s="150"/>
       <c r="F34" s="150"/>
@@ -56864,21 +57145,21 @@
       <c r="BJ34" s="151"/>
     </row>
     <row r="35" spans="1:63" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="248"/>
+      <c r="B35" s="241"/>
       <c r="D35" s="149"/>
-      <c r="E35" s="228" t="s">
+      <c r="E35" s="243" t="s">
         <v>669</v>
       </c>
-      <c r="F35" s="229"/>
-      <c r="G35" s="229"/>
-      <c r="H35" s="229"/>
-      <c r="I35" s="229"/>
-      <c r="J35" s="229"/>
-      <c r="K35" s="230">
+      <c r="F35" s="244"/>
+      <c r="G35" s="244"/>
+      <c r="H35" s="244"/>
+      <c r="I35" s="244"/>
+      <c r="J35" s="244"/>
+      <c r="K35" s="245">
         <f>100%-$N27/$E27</f>
         <v>0.59175609519597872</v>
       </c>
-      <c r="L35" s="231"/>
+      <c r="L35" s="246"/>
       <c r="M35" s="150"/>
       <c r="N35" s="150"/>
       <c r="O35" s="150"/>
@@ -56890,51 +57171,51 @@
       <c r="U35" s="150"/>
       <c r="V35" s="151"/>
       <c r="X35" s="149"/>
-      <c r="Y35" s="228" t="s">
+      <c r="Y35" s="243" t="s">
         <v>669</v>
       </c>
-      <c r="Z35" s="229"/>
-      <c r="AA35" s="229"/>
-      <c r="AB35" s="229"/>
-      <c r="AC35" s="229"/>
-      <c r="AD35" s="229"/>
-      <c r="AE35" s="230">
+      <c r="Z35" s="244"/>
+      <c r="AA35" s="244"/>
+      <c r="AB35" s="244"/>
+      <c r="AC35" s="244"/>
+      <c r="AD35" s="244"/>
+      <c r="AE35" s="245">
         <f>100%-($AH27+$AH33)/($Y27+$Y33)</f>
         <v>0.24331179432508898</v>
       </c>
-      <c r="AF35" s="231"/>
+      <c r="AF35" s="246"/>
       <c r="AG35" s="150"/>
-      <c r="AH35" s="228" t="s">
+      <c r="AH35" s="243" t="s">
         <v>670</v>
       </c>
-      <c r="AI35" s="229"/>
-      <c r="AJ35" s="229"/>
-      <c r="AK35" s="229"/>
-      <c r="AL35" s="230">
+      <c r="AI35" s="244"/>
+      <c r="AJ35" s="244"/>
+      <c r="AK35" s="244"/>
+      <c r="AL35" s="245">
         <f>($Y27+$Y33)/($Y$72+$Y$78)</f>
         <v>0.12122137461330966</v>
       </c>
-      <c r="AM35" s="231"/>
-      <c r="AN35" s="230">
+      <c r="AM35" s="246"/>
+      <c r="AN35" s="245">
         <f>($AH27+$AH33)/($Y$72+$Y$78)</f>
         <v>9.17267844455915E-2</v>
       </c>
-      <c r="AO35" s="231"/>
+      <c r="AO35" s="246"/>
       <c r="AP35" s="151"/>
       <c r="AR35" s="149"/>
-      <c r="AS35" s="228" t="s">
+      <c r="AS35" s="243" t="s">
         <v>669</v>
       </c>
-      <c r="AT35" s="229"/>
-      <c r="AU35" s="229"/>
-      <c r="AV35" s="229"/>
-      <c r="AW35" s="229"/>
-      <c r="AX35" s="229"/>
-      <c r="AY35" s="230">
+      <c r="AT35" s="244"/>
+      <c r="AU35" s="244"/>
+      <c r="AV35" s="244"/>
+      <c r="AW35" s="244"/>
+      <c r="AX35" s="244"/>
+      <c r="AY35" s="245">
         <f>100%-$BB27/$AS27</f>
         <v>0.6910328744713532</v>
       </c>
-      <c r="AZ35" s="231"/>
+      <c r="AZ35" s="246"/>
       <c r="BA35" s="150"/>
       <c r="BB35" s="150"/>
       <c r="BC35" s="150"/>
@@ -56947,7 +57228,7 @@
       <c r="BJ35" s="151"/>
     </row>
     <row r="36" spans="1:63" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="249"/>
+      <c r="B36" s="242"/>
       <c r="D36" s="172"/>
       <c r="E36" s="173"/>
       <c r="F36" s="173"/>
@@ -57008,7 +57289,7 @@
     </row>
     <row r="37" spans="1:63" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="1:63" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="250" t="s">
+      <c r="B38" s="247" t="s">
         <v>665</v>
       </c>
       <c r="D38" s="144"/>
@@ -57071,92 +57352,92 @@
       <c r="BK38" s="21"/>
     </row>
     <row r="39" spans="1:63" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="251"/>
+      <c r="B39" s="248"/>
       <c r="D39" s="145"/>
-      <c r="E39" s="232" t="s">
+      <c r="E39" s="229" t="s">
         <v>35</v>
       </c>
-      <c r="F39" s="233"/>
-      <c r="G39" s="233"/>
-      <c r="H39" s="233"/>
-      <c r="I39" s="233"/>
-      <c r="J39" s="234"/>
-      <c r="K39" s="232" t="s">
+      <c r="F39" s="230"/>
+      <c r="G39" s="230"/>
+      <c r="H39" s="230"/>
+      <c r="I39" s="230"/>
+      <c r="J39" s="231"/>
+      <c r="K39" s="229" t="s">
         <v>7</v>
       </c>
-      <c r="L39" s="234"/>
+      <c r="L39" s="231"/>
       <c r="M39" s="143"/>
-      <c r="N39" s="240" t="s">
+      <c r="N39" s="232" t="s">
         <v>35</v>
       </c>
-      <c r="O39" s="241"/>
-      <c r="P39" s="241"/>
-      <c r="Q39" s="241"/>
-      <c r="R39" s="241"/>
-      <c r="S39" s="242"/>
-      <c r="T39" s="240" t="s">
+      <c r="O39" s="233"/>
+      <c r="P39" s="233"/>
+      <c r="Q39" s="233"/>
+      <c r="R39" s="233"/>
+      <c r="S39" s="234"/>
+      <c r="T39" s="232" t="s">
         <v>7</v>
       </c>
-      <c r="U39" s="242"/>
+      <c r="U39" s="234"/>
       <c r="V39" s="147"/>
       <c r="X39" s="145"/>
-      <c r="Y39" s="232" t="s">
+      <c r="Y39" s="229" t="s">
         <v>35</v>
       </c>
-      <c r="Z39" s="233"/>
-      <c r="AA39" s="233"/>
-      <c r="AB39" s="233"/>
-      <c r="AC39" s="233"/>
-      <c r="AD39" s="234"/>
-      <c r="AE39" s="232" t="s">
+      <c r="Z39" s="230"/>
+      <c r="AA39" s="230"/>
+      <c r="AB39" s="230"/>
+      <c r="AC39" s="230"/>
+      <c r="AD39" s="231"/>
+      <c r="AE39" s="229" t="s">
         <v>7</v>
       </c>
-      <c r="AF39" s="234"/>
+      <c r="AF39" s="231"/>
       <c r="AG39" s="143"/>
-      <c r="AH39" s="240" t="s">
+      <c r="AH39" s="232" t="s">
         <v>35</v>
       </c>
-      <c r="AI39" s="241"/>
-      <c r="AJ39" s="241"/>
-      <c r="AK39" s="241"/>
-      <c r="AL39" s="241"/>
-      <c r="AM39" s="242"/>
-      <c r="AN39" s="240" t="s">
+      <c r="AI39" s="233"/>
+      <c r="AJ39" s="233"/>
+      <c r="AK39" s="233"/>
+      <c r="AL39" s="233"/>
+      <c r="AM39" s="234"/>
+      <c r="AN39" s="232" t="s">
         <v>7</v>
       </c>
-      <c r="AO39" s="242"/>
+      <c r="AO39" s="234"/>
       <c r="AP39" s="147"/>
       <c r="AR39" s="145"/>
-      <c r="AS39" s="232" t="s">
+      <c r="AS39" s="229" t="s">
         <v>35</v>
       </c>
-      <c r="AT39" s="233"/>
-      <c r="AU39" s="233"/>
-      <c r="AV39" s="233"/>
-      <c r="AW39" s="233"/>
-      <c r="AX39" s="234"/>
-      <c r="AY39" s="232" t="s">
+      <c r="AT39" s="230"/>
+      <c r="AU39" s="230"/>
+      <c r="AV39" s="230"/>
+      <c r="AW39" s="230"/>
+      <c r="AX39" s="231"/>
+      <c r="AY39" s="229" t="s">
         <v>7</v>
       </c>
-      <c r="AZ39" s="234"/>
+      <c r="AZ39" s="231"/>
       <c r="BA39" s="143"/>
-      <c r="BB39" s="240" t="s">
+      <c r="BB39" s="232" t="s">
         <v>35</v>
       </c>
-      <c r="BC39" s="241"/>
-      <c r="BD39" s="241"/>
-      <c r="BE39" s="241"/>
-      <c r="BF39" s="241"/>
-      <c r="BG39" s="242"/>
-      <c r="BH39" s="240" t="s">
+      <c r="BC39" s="233"/>
+      <c r="BD39" s="233"/>
+      <c r="BE39" s="233"/>
+      <c r="BF39" s="233"/>
+      <c r="BG39" s="234"/>
+      <c r="BH39" s="232" t="s">
         <v>7</v>
       </c>
-      <c r="BI39" s="242"/>
+      <c r="BI39" s="234"/>
       <c r="BJ39" s="147"/>
       <c r="BK39" s="21"/>
     </row>
     <row r="40" spans="1:63" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="251"/>
+      <c r="B40" s="248"/>
       <c r="D40" s="145"/>
       <c r="E40" s="235">
         <v>9133132168</v>
@@ -57248,7 +57529,7 @@
       <c r="BK40" s="141"/>
     </row>
     <row r="41" spans="1:63" s="162" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="251"/>
+      <c r="B41" s="248"/>
       <c r="D41" s="146"/>
       <c r="E41" s="143"/>
       <c r="F41" s="143"/>
@@ -57310,92 +57591,92 @@
       <c r="BK41" s="142"/>
     </row>
     <row r="42" spans="1:63" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="251"/>
+      <c r="B42" s="248"/>
       <c r="D42" s="145"/>
-      <c r="E42" s="232" t="s">
+      <c r="E42" s="229" t="s">
         <v>36</v>
       </c>
-      <c r="F42" s="233"/>
-      <c r="G42" s="233"/>
-      <c r="H42" s="233"/>
-      <c r="I42" s="233"/>
-      <c r="J42" s="234"/>
-      <c r="K42" s="232" t="s">
+      <c r="F42" s="230"/>
+      <c r="G42" s="230"/>
+      <c r="H42" s="230"/>
+      <c r="I42" s="230"/>
+      <c r="J42" s="231"/>
+      <c r="K42" s="229" t="s">
         <v>7</v>
       </c>
-      <c r="L42" s="234"/>
+      <c r="L42" s="231"/>
       <c r="M42" s="143"/>
-      <c r="N42" s="240" t="s">
+      <c r="N42" s="232" t="s">
         <v>36</v>
       </c>
-      <c r="O42" s="241"/>
-      <c r="P42" s="241"/>
-      <c r="Q42" s="241"/>
-      <c r="R42" s="241"/>
-      <c r="S42" s="242"/>
-      <c r="T42" s="240" t="s">
+      <c r="O42" s="233"/>
+      <c r="P42" s="233"/>
+      <c r="Q42" s="233"/>
+      <c r="R42" s="233"/>
+      <c r="S42" s="234"/>
+      <c r="T42" s="232" t="s">
         <v>7</v>
       </c>
-      <c r="U42" s="242"/>
+      <c r="U42" s="234"/>
       <c r="V42" s="147"/>
       <c r="X42" s="145"/>
-      <c r="Y42" s="232" t="s">
+      <c r="Y42" s="229" t="s">
         <v>36</v>
       </c>
-      <c r="Z42" s="233"/>
-      <c r="AA42" s="233"/>
-      <c r="AB42" s="233"/>
-      <c r="AC42" s="233"/>
-      <c r="AD42" s="234"/>
-      <c r="AE42" s="232" t="s">
+      <c r="Z42" s="230"/>
+      <c r="AA42" s="230"/>
+      <c r="AB42" s="230"/>
+      <c r="AC42" s="230"/>
+      <c r="AD42" s="231"/>
+      <c r="AE42" s="229" t="s">
         <v>7</v>
       </c>
-      <c r="AF42" s="234"/>
+      <c r="AF42" s="231"/>
       <c r="AG42" s="143"/>
-      <c r="AH42" s="240" t="s">
+      <c r="AH42" s="232" t="s">
         <v>36</v>
       </c>
-      <c r="AI42" s="241"/>
-      <c r="AJ42" s="241"/>
-      <c r="AK42" s="241"/>
-      <c r="AL42" s="241"/>
-      <c r="AM42" s="242"/>
-      <c r="AN42" s="240" t="s">
+      <c r="AI42" s="233"/>
+      <c r="AJ42" s="233"/>
+      <c r="AK42" s="233"/>
+      <c r="AL42" s="233"/>
+      <c r="AM42" s="234"/>
+      <c r="AN42" s="232" t="s">
         <v>7</v>
       </c>
-      <c r="AO42" s="242"/>
+      <c r="AO42" s="234"/>
       <c r="AP42" s="147"/>
       <c r="AR42" s="145"/>
-      <c r="AS42" s="232" t="s">
+      <c r="AS42" s="229" t="s">
         <v>36</v>
       </c>
-      <c r="AT42" s="233"/>
-      <c r="AU42" s="233"/>
-      <c r="AV42" s="233"/>
-      <c r="AW42" s="233"/>
-      <c r="AX42" s="234"/>
-      <c r="AY42" s="232" t="s">
+      <c r="AT42" s="230"/>
+      <c r="AU42" s="230"/>
+      <c r="AV42" s="230"/>
+      <c r="AW42" s="230"/>
+      <c r="AX42" s="231"/>
+      <c r="AY42" s="229" t="s">
         <v>7</v>
       </c>
-      <c r="AZ42" s="234"/>
+      <c r="AZ42" s="231"/>
       <c r="BA42" s="143"/>
-      <c r="BB42" s="240" t="s">
+      <c r="BB42" s="232" t="s">
         <v>36</v>
       </c>
-      <c r="BC42" s="241"/>
-      <c r="BD42" s="241"/>
-      <c r="BE42" s="241"/>
-      <c r="BF42" s="241"/>
-      <c r="BG42" s="242"/>
-      <c r="BH42" s="240" t="s">
+      <c r="BC42" s="233"/>
+      <c r="BD42" s="233"/>
+      <c r="BE42" s="233"/>
+      <c r="BF42" s="233"/>
+      <c r="BG42" s="234"/>
+      <c r="BH42" s="232" t="s">
         <v>7</v>
       </c>
-      <c r="BI42" s="242"/>
+      <c r="BI42" s="234"/>
       <c r="BJ42" s="147"/>
       <c r="BK42" s="21"/>
     </row>
     <row r="43" spans="1:63" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="251"/>
+      <c r="B43" s="248"/>
       <c r="D43" s="145"/>
       <c r="E43" s="235">
         <v>477172968</v>
@@ -57490,7 +57771,7 @@
       <c r="A44" s="159" t="s">
         <v>692</v>
       </c>
-      <c r="B44" s="251"/>
+      <c r="B44" s="248"/>
       <c r="D44" s="146"/>
       <c r="E44" s="143"/>
       <c r="F44" s="143"/>
@@ -57550,7 +57831,7 @@
       <c r="BJ44" s="147"/>
     </row>
     <row r="45" spans="1:63" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="251"/>
+      <c r="B45" s="248"/>
       <c r="D45" s="146"/>
       <c r="E45" s="143"/>
       <c r="F45" s="143"/>
@@ -57571,31 +57852,31 @@
       <c r="U45" s="143"/>
       <c r="V45" s="147"/>
       <c r="X45" s="146"/>
-      <c r="Y45" s="232" t="s">
+      <c r="Y45" s="229" t="s">
         <v>35</v>
       </c>
-      <c r="Z45" s="233"/>
-      <c r="AA45" s="233"/>
-      <c r="AB45" s="233"/>
-      <c r="AC45" s="233"/>
-      <c r="AD45" s="234"/>
-      <c r="AE45" s="232" t="s">
+      <c r="Z45" s="230"/>
+      <c r="AA45" s="230"/>
+      <c r="AB45" s="230"/>
+      <c r="AC45" s="230"/>
+      <c r="AD45" s="231"/>
+      <c r="AE45" s="229" t="s">
         <v>7</v>
       </c>
-      <c r="AF45" s="234"/>
+      <c r="AF45" s="231"/>
       <c r="AG45" s="143"/>
-      <c r="AH45" s="240" t="s">
+      <c r="AH45" s="232" t="s">
         <v>35</v>
       </c>
-      <c r="AI45" s="241"/>
-      <c r="AJ45" s="241"/>
-      <c r="AK45" s="241"/>
-      <c r="AL45" s="241"/>
-      <c r="AM45" s="242"/>
-      <c r="AN45" s="240" t="s">
+      <c r="AI45" s="233"/>
+      <c r="AJ45" s="233"/>
+      <c r="AK45" s="233"/>
+      <c r="AL45" s="233"/>
+      <c r="AM45" s="234"/>
+      <c r="AN45" s="232" t="s">
         <v>7</v>
       </c>
-      <c r="AO45" s="242"/>
+      <c r="AO45" s="234"/>
       <c r="AP45" s="147"/>
       <c r="AR45" s="146"/>
       <c r="AS45" s="143"/>
@@ -57618,7 +57899,7 @@
       <c r="BJ45" s="147"/>
     </row>
     <row r="46" spans="1:63" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="251"/>
+      <c r="B46" s="248"/>
       <c r="D46" s="146"/>
       <c r="E46" s="143"/>
       <c r="F46" s="143"/>
@@ -57688,7 +57969,7 @@
       <c r="BJ46" s="147"/>
     </row>
     <row r="47" spans="1:63" s="162" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="251"/>
+      <c r="B47" s="248"/>
       <c r="D47" s="146"/>
       <c r="E47" s="143"/>
       <c r="F47" s="143"/>
@@ -57749,7 +58030,7 @@
       <c r="BJ47" s="147"/>
     </row>
     <row r="48" spans="1:63" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="251"/>
+      <c r="B48" s="248"/>
       <c r="D48" s="146"/>
       <c r="E48" s="143"/>
       <c r="F48" s="143"/>
@@ -57770,31 +58051,31 @@
       <c r="U48" s="143"/>
       <c r="V48" s="147"/>
       <c r="X48" s="146"/>
-      <c r="Y48" s="232" t="s">
+      <c r="Y48" s="229" t="s">
         <v>36</v>
       </c>
-      <c r="Z48" s="233"/>
-      <c r="AA48" s="233"/>
-      <c r="AB48" s="233"/>
-      <c r="AC48" s="233"/>
-      <c r="AD48" s="234"/>
-      <c r="AE48" s="232" t="s">
+      <c r="Z48" s="230"/>
+      <c r="AA48" s="230"/>
+      <c r="AB48" s="230"/>
+      <c r="AC48" s="230"/>
+      <c r="AD48" s="231"/>
+      <c r="AE48" s="229" t="s">
         <v>7</v>
       </c>
-      <c r="AF48" s="234"/>
+      <c r="AF48" s="231"/>
       <c r="AG48" s="143"/>
-      <c r="AH48" s="240" t="s">
+      <c r="AH48" s="232" t="s">
         <v>36</v>
       </c>
-      <c r="AI48" s="241"/>
-      <c r="AJ48" s="241"/>
-      <c r="AK48" s="241"/>
-      <c r="AL48" s="241"/>
-      <c r="AM48" s="242"/>
-      <c r="AN48" s="240" t="s">
+      <c r="AI48" s="233"/>
+      <c r="AJ48" s="233"/>
+      <c r="AK48" s="233"/>
+      <c r="AL48" s="233"/>
+      <c r="AM48" s="234"/>
+      <c r="AN48" s="232" t="s">
         <v>7</v>
       </c>
-      <c r="AO48" s="242"/>
+      <c r="AO48" s="234"/>
       <c r="AP48" s="147"/>
       <c r="AR48" s="146"/>
       <c r="AS48" s="163"/>
@@ -57817,7 +58098,7 @@
       <c r="BJ48" s="147"/>
     </row>
     <row r="49" spans="2:63" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="251"/>
+      <c r="B49" s="248"/>
       <c r="D49" s="146"/>
       <c r="E49" s="143"/>
       <c r="F49" s="143"/>
@@ -57887,7 +58168,7 @@
       <c r="BJ49" s="147"/>
     </row>
     <row r="50" spans="2:63" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="251"/>
+      <c r="B50" s="248"/>
       <c r="D50" s="146"/>
       <c r="E50" s="143"/>
       <c r="F50" s="143"/>
@@ -57947,21 +58228,21 @@
       <c r="BJ50" s="147"/>
     </row>
     <row r="51" spans="2:63" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="251"/>
+      <c r="B51" s="248"/>
       <c r="D51" s="146"/>
-      <c r="E51" s="228" t="s">
+      <c r="E51" s="243" t="s">
         <v>669</v>
       </c>
-      <c r="F51" s="229"/>
-      <c r="G51" s="229"/>
-      <c r="H51" s="229"/>
-      <c r="I51" s="229"/>
-      <c r="J51" s="229"/>
-      <c r="K51" s="230">
+      <c r="F51" s="244"/>
+      <c r="G51" s="244"/>
+      <c r="H51" s="244"/>
+      <c r="I51" s="244"/>
+      <c r="J51" s="244"/>
+      <c r="K51" s="245">
         <f>100%-$N43/$E43</f>
         <v>0.57571766303408878</v>
       </c>
-      <c r="L51" s="231"/>
+      <c r="L51" s="246"/>
       <c r="M51" s="143"/>
       <c r="N51" s="143"/>
       <c r="O51" s="143"/>
@@ -57973,51 +58254,51 @@
       <c r="U51" s="143"/>
       <c r="V51" s="147"/>
       <c r="X51" s="146"/>
-      <c r="Y51" s="228" t="s">
+      <c r="Y51" s="243" t="s">
         <v>669</v>
       </c>
-      <c r="Z51" s="229"/>
-      <c r="AA51" s="229"/>
-      <c r="AB51" s="229"/>
-      <c r="AC51" s="229"/>
-      <c r="AD51" s="229"/>
-      <c r="AE51" s="230">
+      <c r="Z51" s="244"/>
+      <c r="AA51" s="244"/>
+      <c r="AB51" s="244"/>
+      <c r="AC51" s="244"/>
+      <c r="AD51" s="244"/>
+      <c r="AE51" s="245">
         <f>100%-($AH43+$AH49)/($Y43+$Y49)</f>
         <v>0.24002885225307236</v>
       </c>
-      <c r="AF51" s="231"/>
+      <c r="AF51" s="246"/>
       <c r="AG51" s="143"/>
-      <c r="AH51" s="228" t="s">
+      <c r="AH51" s="243" t="s">
         <v>670</v>
       </c>
-      <c r="AI51" s="229"/>
-      <c r="AJ51" s="229"/>
-      <c r="AK51" s="229"/>
-      <c r="AL51" s="230">
+      <c r="AI51" s="244"/>
+      <c r="AJ51" s="244"/>
+      <c r="AK51" s="244"/>
+      <c r="AL51" s="245">
         <f>($Y43+$Y49)/($Y$72+$Y$78)</f>
         <v>0.12137895924465988</v>
       </c>
-      <c r="AM51" s="231"/>
-      <c r="AN51" s="230">
+      <c r="AM51" s="246"/>
+      <c r="AN51" s="245">
         <f>($AH43+$AH49)/($Y$72+$Y$78)</f>
         <v>9.2244506969491741E-2</v>
       </c>
-      <c r="AO51" s="231"/>
+      <c r="AO51" s="246"/>
       <c r="AP51" s="147"/>
       <c r="AR51" s="146"/>
-      <c r="AS51" s="228" t="s">
+      <c r="AS51" s="243" t="s">
         <v>669</v>
       </c>
-      <c r="AT51" s="229"/>
-      <c r="AU51" s="229"/>
-      <c r="AV51" s="229"/>
-      <c r="AW51" s="229"/>
-      <c r="AX51" s="229"/>
-      <c r="AY51" s="230">
+      <c r="AT51" s="244"/>
+      <c r="AU51" s="244"/>
+      <c r="AV51" s="244"/>
+      <c r="AW51" s="244"/>
+      <c r="AX51" s="244"/>
+      <c r="AY51" s="245">
         <f>100%-$BB43/$AS43</f>
         <v>0.72901749231000568</v>
       </c>
-      <c r="AZ51" s="231"/>
+      <c r="AZ51" s="246"/>
       <c r="BA51" s="143"/>
       <c r="BB51" s="143"/>
       <c r="BC51" s="143"/>
@@ -58030,7 +58311,7 @@
       <c r="BJ51" s="147"/>
     </row>
     <row r="52" spans="2:63" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="252"/>
+      <c r="B52" s="249"/>
       <c r="D52" s="165"/>
       <c r="E52" s="166"/>
       <c r="F52" s="166"/>
@@ -58091,7 +58372,7 @@
     </row>
     <row r="53" spans="2:63" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="54" spans="2:63" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="247" t="s">
+      <c r="B54" s="240" t="s">
         <v>666</v>
       </c>
       <c r="D54" s="152"/>
@@ -58154,92 +58435,92 @@
       <c r="BK54" s="21"/>
     </row>
     <row r="55" spans="2:63" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="248"/>
+      <c r="B55" s="241"/>
       <c r="D55" s="153"/>
-      <c r="E55" s="232" t="s">
+      <c r="E55" s="229" t="s">
         <v>35</v>
       </c>
-      <c r="F55" s="233"/>
-      <c r="G55" s="233"/>
-      <c r="H55" s="233"/>
-      <c r="I55" s="233"/>
-      <c r="J55" s="234"/>
-      <c r="K55" s="232" t="s">
+      <c r="F55" s="230"/>
+      <c r="G55" s="230"/>
+      <c r="H55" s="230"/>
+      <c r="I55" s="230"/>
+      <c r="J55" s="231"/>
+      <c r="K55" s="229" t="s">
         <v>7</v>
       </c>
-      <c r="L55" s="234"/>
+      <c r="L55" s="231"/>
       <c r="M55" s="150"/>
-      <c r="N55" s="240" t="s">
+      <c r="N55" s="232" t="s">
         <v>35</v>
       </c>
-      <c r="O55" s="241"/>
-      <c r="P55" s="241"/>
-      <c r="Q55" s="241"/>
-      <c r="R55" s="241"/>
-      <c r="S55" s="242"/>
-      <c r="T55" s="240" t="s">
+      <c r="O55" s="233"/>
+      <c r="P55" s="233"/>
+      <c r="Q55" s="233"/>
+      <c r="R55" s="233"/>
+      <c r="S55" s="234"/>
+      <c r="T55" s="232" t="s">
         <v>7</v>
       </c>
-      <c r="U55" s="242"/>
+      <c r="U55" s="234"/>
       <c r="V55" s="151"/>
       <c r="X55" s="153"/>
-      <c r="Y55" s="232" t="s">
+      <c r="Y55" s="229" t="s">
         <v>35</v>
       </c>
-      <c r="Z55" s="233"/>
-      <c r="AA55" s="233"/>
-      <c r="AB55" s="233"/>
-      <c r="AC55" s="233"/>
-      <c r="AD55" s="234"/>
-      <c r="AE55" s="232" t="s">
+      <c r="Z55" s="230"/>
+      <c r="AA55" s="230"/>
+      <c r="AB55" s="230"/>
+      <c r="AC55" s="230"/>
+      <c r="AD55" s="231"/>
+      <c r="AE55" s="229" t="s">
         <v>7</v>
       </c>
-      <c r="AF55" s="234"/>
+      <c r="AF55" s="231"/>
       <c r="AG55" s="150"/>
-      <c r="AH55" s="240" t="s">
+      <c r="AH55" s="232" t="s">
         <v>35</v>
       </c>
-      <c r="AI55" s="241"/>
-      <c r="AJ55" s="241"/>
-      <c r="AK55" s="241"/>
-      <c r="AL55" s="241"/>
-      <c r="AM55" s="242"/>
-      <c r="AN55" s="240" t="s">
+      <c r="AI55" s="233"/>
+      <c r="AJ55" s="233"/>
+      <c r="AK55" s="233"/>
+      <c r="AL55" s="233"/>
+      <c r="AM55" s="234"/>
+      <c r="AN55" s="232" t="s">
         <v>7</v>
       </c>
-      <c r="AO55" s="242"/>
+      <c r="AO55" s="234"/>
       <c r="AP55" s="151"/>
       <c r="AR55" s="153"/>
-      <c r="AS55" s="232" t="s">
+      <c r="AS55" s="229" t="s">
         <v>35</v>
       </c>
-      <c r="AT55" s="233"/>
-      <c r="AU55" s="233"/>
-      <c r="AV55" s="233"/>
-      <c r="AW55" s="233"/>
-      <c r="AX55" s="234"/>
-      <c r="AY55" s="232" t="s">
+      <c r="AT55" s="230"/>
+      <c r="AU55" s="230"/>
+      <c r="AV55" s="230"/>
+      <c r="AW55" s="230"/>
+      <c r="AX55" s="231"/>
+      <c r="AY55" s="229" t="s">
         <v>7</v>
       </c>
-      <c r="AZ55" s="234"/>
+      <c r="AZ55" s="231"/>
       <c r="BA55" s="150"/>
-      <c r="BB55" s="240" t="s">
+      <c r="BB55" s="232" t="s">
         <v>35</v>
       </c>
-      <c r="BC55" s="241"/>
-      <c r="BD55" s="241"/>
-      <c r="BE55" s="241"/>
-      <c r="BF55" s="241"/>
-      <c r="BG55" s="242"/>
-      <c r="BH55" s="240" t="s">
+      <c r="BC55" s="233"/>
+      <c r="BD55" s="233"/>
+      <c r="BE55" s="233"/>
+      <c r="BF55" s="233"/>
+      <c r="BG55" s="234"/>
+      <c r="BH55" s="232" t="s">
         <v>7</v>
       </c>
-      <c r="BI55" s="242"/>
+      <c r="BI55" s="234"/>
       <c r="BJ55" s="151"/>
       <c r="BK55" s="21"/>
     </row>
     <row r="56" spans="2:63" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="248"/>
+      <c r="B56" s="241"/>
       <c r="D56" s="153"/>
       <c r="E56" s="235">
         <v>9133132168</v>
@@ -58331,7 +58612,7 @@
       <c r="BK56" s="141"/>
     </row>
     <row r="57" spans="2:63" s="162" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="248"/>
+      <c r="B57" s="241"/>
       <c r="D57" s="149"/>
       <c r="E57" s="150"/>
       <c r="F57" s="150"/>
@@ -58393,92 +58674,92 @@
       <c r="BK57" s="142"/>
     </row>
     <row r="58" spans="2:63" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="248"/>
+      <c r="B58" s="241"/>
       <c r="D58" s="153"/>
-      <c r="E58" s="232" t="s">
+      <c r="E58" s="229" t="s">
         <v>36</v>
       </c>
-      <c r="F58" s="233"/>
-      <c r="G58" s="233"/>
-      <c r="H58" s="233"/>
-      <c r="I58" s="233"/>
-      <c r="J58" s="234"/>
-      <c r="K58" s="232" t="s">
+      <c r="F58" s="230"/>
+      <c r="G58" s="230"/>
+      <c r="H58" s="230"/>
+      <c r="I58" s="230"/>
+      <c r="J58" s="231"/>
+      <c r="K58" s="229" t="s">
         <v>7</v>
       </c>
-      <c r="L58" s="234"/>
+      <c r="L58" s="231"/>
       <c r="M58" s="150"/>
-      <c r="N58" s="240" t="s">
+      <c r="N58" s="232" t="s">
         <v>36</v>
       </c>
-      <c r="O58" s="241"/>
-      <c r="P58" s="241"/>
-      <c r="Q58" s="241"/>
-      <c r="R58" s="241"/>
-      <c r="S58" s="242"/>
-      <c r="T58" s="240" t="s">
+      <c r="O58" s="233"/>
+      <c r="P58" s="233"/>
+      <c r="Q58" s="233"/>
+      <c r="R58" s="233"/>
+      <c r="S58" s="234"/>
+      <c r="T58" s="232" t="s">
         <v>7</v>
       </c>
-      <c r="U58" s="242"/>
+      <c r="U58" s="234"/>
       <c r="V58" s="151"/>
       <c r="X58" s="153"/>
-      <c r="Y58" s="232" t="s">
+      <c r="Y58" s="229" t="s">
         <v>36</v>
       </c>
-      <c r="Z58" s="233"/>
-      <c r="AA58" s="233"/>
-      <c r="AB58" s="233"/>
-      <c r="AC58" s="233"/>
-      <c r="AD58" s="234"/>
-      <c r="AE58" s="232" t="s">
+      <c r="Z58" s="230"/>
+      <c r="AA58" s="230"/>
+      <c r="AB58" s="230"/>
+      <c r="AC58" s="230"/>
+      <c r="AD58" s="231"/>
+      <c r="AE58" s="229" t="s">
         <v>7</v>
       </c>
-      <c r="AF58" s="234"/>
+      <c r="AF58" s="231"/>
       <c r="AG58" s="150"/>
-      <c r="AH58" s="240" t="s">
+      <c r="AH58" s="232" t="s">
         <v>36</v>
       </c>
-      <c r="AI58" s="241"/>
-      <c r="AJ58" s="241"/>
-      <c r="AK58" s="241"/>
-      <c r="AL58" s="241"/>
-      <c r="AM58" s="242"/>
-      <c r="AN58" s="240" t="s">
+      <c r="AI58" s="233"/>
+      <c r="AJ58" s="233"/>
+      <c r="AK58" s="233"/>
+      <c r="AL58" s="233"/>
+      <c r="AM58" s="234"/>
+      <c r="AN58" s="232" t="s">
         <v>7</v>
       </c>
-      <c r="AO58" s="242"/>
+      <c r="AO58" s="234"/>
       <c r="AP58" s="151"/>
       <c r="AR58" s="153"/>
-      <c r="AS58" s="232" t="s">
+      <c r="AS58" s="229" t="s">
         <v>36</v>
       </c>
-      <c r="AT58" s="233"/>
-      <c r="AU58" s="233"/>
-      <c r="AV58" s="233"/>
-      <c r="AW58" s="233"/>
-      <c r="AX58" s="234"/>
-      <c r="AY58" s="232" t="s">
+      <c r="AT58" s="230"/>
+      <c r="AU58" s="230"/>
+      <c r="AV58" s="230"/>
+      <c r="AW58" s="230"/>
+      <c r="AX58" s="231"/>
+      <c r="AY58" s="229" t="s">
         <v>7</v>
       </c>
-      <c r="AZ58" s="234"/>
+      <c r="AZ58" s="231"/>
       <c r="BA58" s="150"/>
-      <c r="BB58" s="240" t="s">
+      <c r="BB58" s="232" t="s">
         <v>36</v>
       </c>
-      <c r="BC58" s="241"/>
-      <c r="BD58" s="241"/>
-      <c r="BE58" s="241"/>
-      <c r="BF58" s="241"/>
-      <c r="BG58" s="242"/>
-      <c r="BH58" s="240" t="s">
+      <c r="BC58" s="233"/>
+      <c r="BD58" s="233"/>
+      <c r="BE58" s="233"/>
+      <c r="BF58" s="233"/>
+      <c r="BG58" s="234"/>
+      <c r="BH58" s="232" t="s">
         <v>7</v>
       </c>
-      <c r="BI58" s="242"/>
+      <c r="BI58" s="234"/>
       <c r="BJ58" s="151"/>
       <c r="BK58" s="21"/>
     </row>
     <row r="59" spans="2:63" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="248"/>
+      <c r="B59" s="241"/>
       <c r="D59" s="153"/>
       <c r="E59" s="235">
         <v>668798684</v>
@@ -58570,7 +58851,7 @@
       <c r="BK59" s="141"/>
     </row>
     <row r="60" spans="2:63" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="248"/>
+      <c r="B60" s="241"/>
       <c r="D60" s="149"/>
       <c r="E60" s="150"/>
       <c r="F60" s="150"/>
@@ -58630,7 +58911,7 @@
       <c r="BJ60" s="151"/>
     </row>
     <row r="61" spans="2:63" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="248"/>
+      <c r="B61" s="241"/>
       <c r="D61" s="149"/>
       <c r="E61" s="150"/>
       <c r="F61" s="150"/>
@@ -58651,31 +58932,31 @@
       <c r="U61" s="150"/>
       <c r="V61" s="151"/>
       <c r="X61" s="149"/>
-      <c r="Y61" s="232" t="s">
+      <c r="Y61" s="229" t="s">
         <v>35</v>
       </c>
-      <c r="Z61" s="233"/>
-      <c r="AA61" s="233"/>
-      <c r="AB61" s="233"/>
-      <c r="AC61" s="233"/>
-      <c r="AD61" s="234"/>
-      <c r="AE61" s="232" t="s">
+      <c r="Z61" s="230"/>
+      <c r="AA61" s="230"/>
+      <c r="AB61" s="230"/>
+      <c r="AC61" s="230"/>
+      <c r="AD61" s="231"/>
+      <c r="AE61" s="229" t="s">
         <v>7</v>
       </c>
-      <c r="AF61" s="234"/>
+      <c r="AF61" s="231"/>
       <c r="AG61" s="150"/>
-      <c r="AH61" s="240" t="s">
+      <c r="AH61" s="232" t="s">
         <v>35</v>
       </c>
-      <c r="AI61" s="241"/>
-      <c r="AJ61" s="241"/>
-      <c r="AK61" s="241"/>
-      <c r="AL61" s="241"/>
-      <c r="AM61" s="242"/>
-      <c r="AN61" s="240" t="s">
+      <c r="AI61" s="233"/>
+      <c r="AJ61" s="233"/>
+      <c r="AK61" s="233"/>
+      <c r="AL61" s="233"/>
+      <c r="AM61" s="234"/>
+      <c r="AN61" s="232" t="s">
         <v>7</v>
       </c>
-      <c r="AO61" s="242"/>
+      <c r="AO61" s="234"/>
       <c r="AP61" s="151"/>
       <c r="AR61" s="149"/>
       <c r="AS61" s="150"/>
@@ -58698,7 +58979,7 @@
       <c r="BJ61" s="151"/>
     </row>
     <row r="62" spans="2:63" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="248"/>
+      <c r="B62" s="241"/>
       <c r="D62" s="149"/>
       <c r="E62" s="150"/>
       <c r="F62" s="150"/>
@@ -58768,7 +59049,7 @@
       <c r="BJ62" s="151"/>
     </row>
     <row r="63" spans="2:63" s="162" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="248"/>
+      <c r="B63" s="241"/>
       <c r="D63" s="149"/>
       <c r="E63" s="150"/>
       <c r="F63" s="150"/>
@@ -58829,7 +59110,7 @@
       <c r="BJ63" s="151"/>
     </row>
     <row r="64" spans="2:63" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="248"/>
+      <c r="B64" s="241"/>
       <c r="D64" s="149"/>
       <c r="E64" s="150"/>
       <c r="F64" s="150"/>
@@ -58850,31 +59131,31 @@
       <c r="U64" s="150"/>
       <c r="V64" s="151"/>
       <c r="X64" s="149"/>
-      <c r="Y64" s="232" t="s">
+      <c r="Y64" s="229" t="s">
         <v>36</v>
       </c>
-      <c r="Z64" s="233"/>
-      <c r="AA64" s="233"/>
-      <c r="AB64" s="233"/>
-      <c r="AC64" s="233"/>
-      <c r="AD64" s="234"/>
-      <c r="AE64" s="232" t="s">
+      <c r="Z64" s="230"/>
+      <c r="AA64" s="230"/>
+      <c r="AB64" s="230"/>
+      <c r="AC64" s="230"/>
+      <c r="AD64" s="231"/>
+      <c r="AE64" s="229" t="s">
         <v>7</v>
       </c>
-      <c r="AF64" s="234"/>
+      <c r="AF64" s="231"/>
       <c r="AG64" s="150"/>
-      <c r="AH64" s="240" t="s">
+      <c r="AH64" s="232" t="s">
         <v>36</v>
       </c>
-      <c r="AI64" s="241"/>
-      <c r="AJ64" s="241"/>
-      <c r="AK64" s="241"/>
-      <c r="AL64" s="241"/>
-      <c r="AM64" s="242"/>
-      <c r="AN64" s="240" t="s">
+      <c r="AI64" s="233"/>
+      <c r="AJ64" s="233"/>
+      <c r="AK64" s="233"/>
+      <c r="AL64" s="233"/>
+      <c r="AM64" s="234"/>
+      <c r="AN64" s="232" t="s">
         <v>7</v>
       </c>
-      <c r="AO64" s="242"/>
+      <c r="AO64" s="234"/>
       <c r="AP64" s="151"/>
       <c r="AR64" s="149"/>
       <c r="AS64" s="170"/>
@@ -58897,7 +59178,7 @@
       <c r="BJ64" s="151"/>
     </row>
     <row r="65" spans="2:63" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="248"/>
+      <c r="B65" s="241"/>
       <c r="D65" s="149"/>
       <c r="E65" s="150"/>
       <c r="F65" s="150"/>
@@ -58967,7 +59248,7 @@
       <c r="BJ65" s="151"/>
     </row>
     <row r="66" spans="2:63" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="248"/>
+      <c r="B66" s="241"/>
       <c r="D66" s="149"/>
       <c r="E66" s="150"/>
       <c r="F66" s="150"/>
@@ -59027,21 +59308,21 @@
       <c r="BJ66" s="151"/>
     </row>
     <row r="67" spans="2:63" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="248"/>
+      <c r="B67" s="241"/>
       <c r="D67" s="149"/>
-      <c r="E67" s="228" t="s">
+      <c r="E67" s="243" t="s">
         <v>669</v>
       </c>
-      <c r="F67" s="229"/>
-      <c r="G67" s="229"/>
-      <c r="H67" s="229"/>
-      <c r="I67" s="229"/>
-      <c r="J67" s="229"/>
-      <c r="K67" s="230">
+      <c r="F67" s="244"/>
+      <c r="G67" s="244"/>
+      <c r="H67" s="244"/>
+      <c r="I67" s="244"/>
+      <c r="J67" s="244"/>
+      <c r="K67" s="245">
         <f>100%-$N59/$E59</f>
         <v>0.64970498357021289</v>
       </c>
-      <c r="L67" s="231"/>
+      <c r="L67" s="246"/>
       <c r="M67" s="150"/>
       <c r="N67" s="150"/>
       <c r="O67" s="150"/>
@@ -59053,51 +59334,51 @@
       <c r="U67" s="150"/>
       <c r="V67" s="151"/>
       <c r="X67" s="149"/>
-      <c r="Y67" s="228" t="s">
+      <c r="Y67" s="243" t="s">
         <v>669</v>
       </c>
-      <c r="Z67" s="229"/>
-      <c r="AA67" s="229"/>
-      <c r="AB67" s="229"/>
-      <c r="AC67" s="229"/>
-      <c r="AD67" s="229"/>
-      <c r="AE67" s="230">
+      <c r="Z67" s="244"/>
+      <c r="AA67" s="244"/>
+      <c r="AB67" s="244"/>
+      <c r="AC67" s="244"/>
+      <c r="AD67" s="244"/>
+      <c r="AE67" s="245">
         <f>100%-($AH59+$AH65)/($Y59+$Y65)</f>
         <v>0.30495038301716515</v>
       </c>
-      <c r="AF67" s="231"/>
+      <c r="AF67" s="246"/>
       <c r="AG67" s="150"/>
-      <c r="AH67" s="228" t="s">
+      <c r="AH67" s="243" t="s">
         <v>670</v>
       </c>
-      <c r="AI67" s="229"/>
-      <c r="AJ67" s="229"/>
-      <c r="AK67" s="229"/>
-      <c r="AL67" s="230">
+      <c r="AI67" s="244"/>
+      <c r="AJ67" s="244"/>
+      <c r="AK67" s="244"/>
+      <c r="AL67" s="245">
         <f>($Y59+$Y65)/($Y$72+$Y$78)</f>
         <v>0.1432862811064384</v>
       </c>
-      <c r="AM67" s="231"/>
-      <c r="AN67" s="230">
+      <c r="AM67" s="246"/>
+      <c r="AN67" s="245">
         <f>($AH59+$AH65)/($Y$72+$Y$78)</f>
         <v>9.959107480192482E-2</v>
       </c>
-      <c r="AO67" s="231"/>
+      <c r="AO67" s="246"/>
       <c r="AP67" s="151"/>
       <c r="AR67" s="149"/>
-      <c r="AS67" s="228" t="s">
+      <c r="AS67" s="243" t="s">
         <v>669</v>
       </c>
-      <c r="AT67" s="229"/>
-      <c r="AU67" s="229"/>
-      <c r="AV67" s="229"/>
-      <c r="AW67" s="229"/>
-      <c r="AX67" s="229"/>
-      <c r="AY67" s="230">
+      <c r="AT67" s="244"/>
+      <c r="AU67" s="244"/>
+      <c r="AV67" s="244"/>
+      <c r="AW67" s="244"/>
+      <c r="AX67" s="244"/>
+      <c r="AY67" s="245">
         <f>100%-$BB59/$AS59</f>
         <v>0.66692162919937847</v>
       </c>
-      <c r="AZ67" s="231"/>
+      <c r="AZ67" s="246"/>
       <c r="BA67" s="150"/>
       <c r="BB67" s="150"/>
       <c r="BC67" s="150"/>
@@ -59110,7 +59391,7 @@
       <c r="BJ67" s="151"/>
     </row>
     <row r="68" spans="2:63" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="249"/>
+      <c r="B68" s="242"/>
       <c r="D68" s="172"/>
       <c r="E68" s="173"/>
       <c r="F68" s="173"/>
@@ -59171,7 +59452,7 @@
     </row>
     <row r="69" spans="2:63" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="70" spans="2:63" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="250" t="s">
+      <c r="B70" s="247" t="s">
         <v>667</v>
       </c>
       <c r="D70" s="144"/>
@@ -59234,92 +59515,92 @@
       <c r="BK70" s="21"/>
     </row>
     <row r="71" spans="2:63" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="251"/>
+      <c r="B71" s="248"/>
       <c r="D71" s="145"/>
-      <c r="E71" s="232" t="s">
+      <c r="E71" s="229" t="s">
         <v>35</v>
       </c>
-      <c r="F71" s="233"/>
-      <c r="G71" s="233"/>
-      <c r="H71" s="233"/>
-      <c r="I71" s="233"/>
-      <c r="J71" s="234"/>
-      <c r="K71" s="232" t="s">
+      <c r="F71" s="230"/>
+      <c r="G71" s="230"/>
+      <c r="H71" s="230"/>
+      <c r="I71" s="230"/>
+      <c r="J71" s="231"/>
+      <c r="K71" s="229" t="s">
         <v>7</v>
       </c>
-      <c r="L71" s="234"/>
+      <c r="L71" s="231"/>
       <c r="M71" s="143"/>
-      <c r="N71" s="240" t="s">
+      <c r="N71" s="232" t="s">
         <v>35</v>
       </c>
-      <c r="O71" s="241"/>
-      <c r="P71" s="241"/>
-      <c r="Q71" s="241"/>
-      <c r="R71" s="241"/>
-      <c r="S71" s="242"/>
-      <c r="T71" s="240" t="s">
+      <c r="O71" s="233"/>
+      <c r="P71" s="233"/>
+      <c r="Q71" s="233"/>
+      <c r="R71" s="233"/>
+      <c r="S71" s="234"/>
+      <c r="T71" s="232" t="s">
         <v>7</v>
       </c>
-      <c r="U71" s="242"/>
+      <c r="U71" s="234"/>
       <c r="V71" s="147"/>
       <c r="X71" s="145"/>
-      <c r="Y71" s="232" t="s">
+      <c r="Y71" s="229" t="s">
         <v>35</v>
       </c>
-      <c r="Z71" s="233"/>
-      <c r="AA71" s="233"/>
-      <c r="AB71" s="233"/>
-      <c r="AC71" s="233"/>
-      <c r="AD71" s="234"/>
-      <c r="AE71" s="232" t="s">
+      <c r="Z71" s="230"/>
+      <c r="AA71" s="230"/>
+      <c r="AB71" s="230"/>
+      <c r="AC71" s="230"/>
+      <c r="AD71" s="231"/>
+      <c r="AE71" s="229" t="s">
         <v>7</v>
       </c>
-      <c r="AF71" s="234"/>
+      <c r="AF71" s="231"/>
       <c r="AG71" s="143"/>
-      <c r="AH71" s="240" t="s">
+      <c r="AH71" s="232" t="s">
         <v>35</v>
       </c>
-      <c r="AI71" s="241"/>
-      <c r="AJ71" s="241"/>
-      <c r="AK71" s="241"/>
-      <c r="AL71" s="241"/>
-      <c r="AM71" s="242"/>
-      <c r="AN71" s="240" t="s">
+      <c r="AI71" s="233"/>
+      <c r="AJ71" s="233"/>
+      <c r="AK71" s="233"/>
+      <c r="AL71" s="233"/>
+      <c r="AM71" s="234"/>
+      <c r="AN71" s="232" t="s">
         <v>7</v>
       </c>
-      <c r="AO71" s="242"/>
+      <c r="AO71" s="234"/>
       <c r="AP71" s="147"/>
       <c r="AR71" s="145"/>
-      <c r="AS71" s="232" t="s">
+      <c r="AS71" s="229" t="s">
         <v>35</v>
       </c>
-      <c r="AT71" s="233"/>
-      <c r="AU71" s="233"/>
-      <c r="AV71" s="233"/>
-      <c r="AW71" s="233"/>
-      <c r="AX71" s="234"/>
-      <c r="AY71" s="232" t="s">
+      <c r="AT71" s="230"/>
+      <c r="AU71" s="230"/>
+      <c r="AV71" s="230"/>
+      <c r="AW71" s="230"/>
+      <c r="AX71" s="231"/>
+      <c r="AY71" s="229" t="s">
         <v>7</v>
       </c>
-      <c r="AZ71" s="234"/>
+      <c r="AZ71" s="231"/>
       <c r="BA71" s="143"/>
-      <c r="BB71" s="240" t="s">
+      <c r="BB71" s="232" t="s">
         <v>35</v>
       </c>
-      <c r="BC71" s="241"/>
-      <c r="BD71" s="241"/>
-      <c r="BE71" s="241"/>
-      <c r="BF71" s="241"/>
-      <c r="BG71" s="242"/>
-      <c r="BH71" s="240" t="s">
+      <c r="BC71" s="233"/>
+      <c r="BD71" s="233"/>
+      <c r="BE71" s="233"/>
+      <c r="BF71" s="233"/>
+      <c r="BG71" s="234"/>
+      <c r="BH71" s="232" t="s">
         <v>7</v>
       </c>
-      <c r="BI71" s="242"/>
+      <c r="BI71" s="234"/>
       <c r="BJ71" s="147"/>
       <c r="BK71" s="21"/>
     </row>
     <row r="72" spans="2:63" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="251"/>
+      <c r="B72" s="248"/>
       <c r="D72" s="145"/>
       <c r="E72" s="235">
         <v>9133132168</v>
@@ -59411,7 +59692,7 @@
       <c r="BK72" s="141"/>
     </row>
     <row r="73" spans="2:63" s="162" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="251"/>
+      <c r="B73" s="248"/>
       <c r="D73" s="146"/>
       <c r="E73" s="143"/>
       <c r="F73" s="143"/>
@@ -59473,92 +59754,92 @@
       <c r="BK73" s="142"/>
     </row>
     <row r="74" spans="2:63" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="251"/>
+      <c r="B74" s="248"/>
       <c r="D74" s="145"/>
-      <c r="E74" s="232" t="s">
+      <c r="E74" s="229" t="s">
         <v>36</v>
       </c>
-      <c r="F74" s="233"/>
-      <c r="G74" s="233"/>
-      <c r="H74" s="233"/>
-      <c r="I74" s="233"/>
-      <c r="J74" s="234"/>
-      <c r="K74" s="232" t="s">
+      <c r="F74" s="230"/>
+      <c r="G74" s="230"/>
+      <c r="H74" s="230"/>
+      <c r="I74" s="230"/>
+      <c r="J74" s="231"/>
+      <c r="K74" s="229" t="s">
         <v>7</v>
       </c>
-      <c r="L74" s="234"/>
+      <c r="L74" s="231"/>
       <c r="M74" s="143"/>
-      <c r="N74" s="240" t="s">
+      <c r="N74" s="232" t="s">
         <v>36</v>
       </c>
-      <c r="O74" s="241"/>
-      <c r="P74" s="241"/>
-      <c r="Q74" s="241"/>
-      <c r="R74" s="241"/>
-      <c r="S74" s="242"/>
-      <c r="T74" s="240" t="s">
+      <c r="O74" s="233"/>
+      <c r="P74" s="233"/>
+      <c r="Q74" s="233"/>
+      <c r="R74" s="233"/>
+      <c r="S74" s="234"/>
+      <c r="T74" s="232" t="s">
         <v>7</v>
       </c>
-      <c r="U74" s="242"/>
+      <c r="U74" s="234"/>
       <c r="V74" s="147"/>
       <c r="X74" s="145"/>
-      <c r="Y74" s="232" t="s">
+      <c r="Y74" s="229" t="s">
         <v>36</v>
       </c>
-      <c r="Z74" s="233"/>
-      <c r="AA74" s="233"/>
-      <c r="AB74" s="233"/>
-      <c r="AC74" s="233"/>
-      <c r="AD74" s="234"/>
-      <c r="AE74" s="232" t="s">
+      <c r="Z74" s="230"/>
+      <c r="AA74" s="230"/>
+      <c r="AB74" s="230"/>
+      <c r="AC74" s="230"/>
+      <c r="AD74" s="231"/>
+      <c r="AE74" s="229" t="s">
         <v>7</v>
       </c>
-      <c r="AF74" s="234"/>
+      <c r="AF74" s="231"/>
       <c r="AG74" s="143"/>
-      <c r="AH74" s="240" t="s">
+      <c r="AH74" s="232" t="s">
         <v>36</v>
       </c>
-      <c r="AI74" s="241"/>
-      <c r="AJ74" s="241"/>
-      <c r="AK74" s="241"/>
-      <c r="AL74" s="241"/>
-      <c r="AM74" s="242"/>
-      <c r="AN74" s="240" t="s">
+      <c r="AI74" s="233"/>
+      <c r="AJ74" s="233"/>
+      <c r="AK74" s="233"/>
+      <c r="AL74" s="233"/>
+      <c r="AM74" s="234"/>
+      <c r="AN74" s="232" t="s">
         <v>7</v>
       </c>
-      <c r="AO74" s="242"/>
+      <c r="AO74" s="234"/>
       <c r="AP74" s="147"/>
       <c r="AR74" s="145"/>
-      <c r="AS74" s="232" t="s">
+      <c r="AS74" s="229" t="s">
         <v>36</v>
       </c>
-      <c r="AT74" s="233"/>
-      <c r="AU74" s="233"/>
-      <c r="AV74" s="233"/>
-      <c r="AW74" s="233"/>
-      <c r="AX74" s="234"/>
-      <c r="AY74" s="232" t="s">
+      <c r="AT74" s="230"/>
+      <c r="AU74" s="230"/>
+      <c r="AV74" s="230"/>
+      <c r="AW74" s="230"/>
+      <c r="AX74" s="231"/>
+      <c r="AY74" s="229" t="s">
         <v>7</v>
       </c>
-      <c r="AZ74" s="234"/>
+      <c r="AZ74" s="231"/>
       <c r="BA74" s="143"/>
-      <c r="BB74" s="240" t="s">
+      <c r="BB74" s="232" t="s">
         <v>36</v>
       </c>
-      <c r="BC74" s="241"/>
-      <c r="BD74" s="241"/>
-      <c r="BE74" s="241"/>
-      <c r="BF74" s="241"/>
-      <c r="BG74" s="242"/>
-      <c r="BH74" s="240" t="s">
+      <c r="BC74" s="233"/>
+      <c r="BD74" s="233"/>
+      <c r="BE74" s="233"/>
+      <c r="BF74" s="233"/>
+      <c r="BG74" s="234"/>
+      <c r="BH74" s="232" t="s">
         <v>7</v>
       </c>
-      <c r="BI74" s="242"/>
+      <c r="BI74" s="234"/>
       <c r="BJ74" s="147"/>
       <c r="BK74" s="21"/>
     </row>
     <row r="75" spans="2:63" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="251"/>
+      <c r="B75" s="248"/>
       <c r="D75" s="145"/>
       <c r="E75" s="235">
         <v>671376552</v>
@@ -59650,7 +59931,7 @@
       <c r="BK75" s="141"/>
     </row>
     <row r="76" spans="2:63" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="251"/>
+      <c r="B76" s="248"/>
       <c r="D76" s="146"/>
       <c r="E76" s="143"/>
       <c r="F76" s="143"/>
@@ -59710,7 +59991,7 @@
       <c r="BJ76" s="147"/>
     </row>
     <row r="77" spans="2:63" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="251"/>
+      <c r="B77" s="248"/>
       <c r="D77" s="146"/>
       <c r="E77" s="143"/>
       <c r="F77" s="143"/>
@@ -59731,31 +60012,31 @@
       <c r="U77" s="143"/>
       <c r="V77" s="147"/>
       <c r="X77" s="146"/>
-      <c r="Y77" s="232" t="s">
+      <c r="Y77" s="229" t="s">
         <v>35</v>
       </c>
-      <c r="Z77" s="233"/>
-      <c r="AA77" s="233"/>
-      <c r="AB77" s="233"/>
-      <c r="AC77" s="233"/>
-      <c r="AD77" s="234"/>
-      <c r="AE77" s="232" t="s">
+      <c r="Z77" s="230"/>
+      <c r="AA77" s="230"/>
+      <c r="AB77" s="230"/>
+      <c r="AC77" s="230"/>
+      <c r="AD77" s="231"/>
+      <c r="AE77" s="229" t="s">
         <v>7</v>
       </c>
-      <c r="AF77" s="234"/>
+      <c r="AF77" s="231"/>
       <c r="AG77" s="143"/>
-      <c r="AH77" s="240" t="s">
+      <c r="AH77" s="232" t="s">
         <v>35</v>
       </c>
-      <c r="AI77" s="241"/>
-      <c r="AJ77" s="241"/>
-      <c r="AK77" s="241"/>
-      <c r="AL77" s="241"/>
-      <c r="AM77" s="242"/>
-      <c r="AN77" s="240" t="s">
+      <c r="AI77" s="233"/>
+      <c r="AJ77" s="233"/>
+      <c r="AK77" s="233"/>
+      <c r="AL77" s="233"/>
+      <c r="AM77" s="234"/>
+      <c r="AN77" s="232" t="s">
         <v>7</v>
       </c>
-      <c r="AO77" s="242"/>
+      <c r="AO77" s="234"/>
       <c r="AP77" s="147"/>
       <c r="AR77" s="146"/>
       <c r="AS77" s="143"/>
@@ -59778,7 +60059,7 @@
       <c r="BJ77" s="147"/>
     </row>
     <row r="78" spans="2:63" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="251"/>
+      <c r="B78" s="248"/>
       <c r="D78" s="146"/>
       <c r="E78" s="143"/>
       <c r="F78" s="143"/>
@@ -59848,7 +60129,7 @@
       <c r="BJ78" s="147"/>
     </row>
     <row r="79" spans="2:63" s="162" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="251"/>
+      <c r="B79" s="248"/>
       <c r="D79" s="146"/>
       <c r="E79" s="143"/>
       <c r="F79" s="143"/>
@@ -59909,7 +60190,7 @@
       <c r="BJ79" s="147"/>
     </row>
     <row r="80" spans="2:63" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="251"/>
+      <c r="B80" s="248"/>
       <c r="D80" s="146"/>
       <c r="E80" s="143"/>
       <c r="F80" s="143"/>
@@ -59930,31 +60211,31 @@
       <c r="U80" s="143"/>
       <c r="V80" s="147"/>
       <c r="X80" s="146"/>
-      <c r="Y80" s="232" t="s">
+      <c r="Y80" s="229" t="s">
         <v>36</v>
       </c>
-      <c r="Z80" s="233"/>
-      <c r="AA80" s="233"/>
-      <c r="AB80" s="233"/>
-      <c r="AC80" s="233"/>
-      <c r="AD80" s="234"/>
-      <c r="AE80" s="232" t="s">
+      <c r="Z80" s="230"/>
+      <c r="AA80" s="230"/>
+      <c r="AB80" s="230"/>
+      <c r="AC80" s="230"/>
+      <c r="AD80" s="231"/>
+      <c r="AE80" s="229" t="s">
         <v>7</v>
       </c>
-      <c r="AF80" s="234"/>
+      <c r="AF80" s="231"/>
       <c r="AG80" s="143"/>
-      <c r="AH80" s="240" t="s">
+      <c r="AH80" s="232" t="s">
         <v>36</v>
       </c>
-      <c r="AI80" s="241"/>
-      <c r="AJ80" s="241"/>
-      <c r="AK80" s="241"/>
-      <c r="AL80" s="241"/>
-      <c r="AM80" s="242"/>
-      <c r="AN80" s="240" t="s">
+      <c r="AI80" s="233"/>
+      <c r="AJ80" s="233"/>
+      <c r="AK80" s="233"/>
+      <c r="AL80" s="233"/>
+      <c r="AM80" s="234"/>
+      <c r="AN80" s="232" t="s">
         <v>7</v>
       </c>
-      <c r="AO80" s="242"/>
+      <c r="AO80" s="234"/>
       <c r="AP80" s="147"/>
       <c r="AR80" s="146"/>
       <c r="AS80" s="163"/>
@@ -59977,7 +60258,7 @@
       <c r="BJ80" s="147"/>
     </row>
     <row r="81" spans="2:63" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="251"/>
+      <c r="B81" s="248"/>
       <c r="D81" s="146"/>
       <c r="E81" s="143"/>
       <c r="F81" s="143"/>
@@ -60047,7 +60328,7 @@
       <c r="BJ81" s="147"/>
     </row>
     <row r="82" spans="2:63" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="251"/>
+      <c r="B82" s="248"/>
       <c r="D82" s="146"/>
       <c r="E82" s="143"/>
       <c r="F82" s="143"/>
@@ -60107,21 +60388,21 @@
       <c r="BJ82" s="147"/>
     </row>
     <row r="83" spans="2:63" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="251"/>
+      <c r="B83" s="248"/>
       <c r="D83" s="146"/>
-      <c r="E83" s="228" t="s">
+      <c r="E83" s="243" t="s">
         <v>669</v>
       </c>
-      <c r="F83" s="229"/>
-      <c r="G83" s="229"/>
-      <c r="H83" s="229"/>
-      <c r="I83" s="229"/>
-      <c r="J83" s="229"/>
-      <c r="K83" s="230">
+      <c r="F83" s="244"/>
+      <c r="G83" s="244"/>
+      <c r="H83" s="244"/>
+      <c r="I83" s="244"/>
+      <c r="J83" s="244"/>
+      <c r="K83" s="245">
         <f>100%-$N75/$E75</f>
         <v>0.62588209961792052</v>
       </c>
-      <c r="L83" s="231"/>
+      <c r="L83" s="246"/>
       <c r="M83" s="143"/>
       <c r="N83" s="143"/>
       <c r="O83" s="143"/>
@@ -60133,51 +60414,51 @@
       <c r="U83" s="143"/>
       <c r="V83" s="147"/>
       <c r="X83" s="146"/>
-      <c r="Y83" s="228" t="s">
+      <c r="Y83" s="243" t="s">
         <v>669</v>
       </c>
-      <c r="Z83" s="229"/>
-      <c r="AA83" s="229"/>
-      <c r="AB83" s="229"/>
-      <c r="AC83" s="229"/>
-      <c r="AD83" s="229"/>
-      <c r="AE83" s="230">
+      <c r="Z83" s="244"/>
+      <c r="AA83" s="244"/>
+      <c r="AB83" s="244"/>
+      <c r="AC83" s="244"/>
+      <c r="AD83" s="244"/>
+      <c r="AE83" s="245">
         <f>100%-($AH75+$AH81)/($Y75+$Y81)</f>
         <v>0.29618124258740208</v>
       </c>
-      <c r="AF83" s="231"/>
+      <c r="AF83" s="246"/>
       <c r="AG83" s="143"/>
-      <c r="AH83" s="228" t="s">
+      <c r="AH83" s="243" t="s">
         <v>670</v>
       </c>
-      <c r="AI83" s="229"/>
-      <c r="AJ83" s="229"/>
-      <c r="AK83" s="229"/>
-      <c r="AL83" s="230">
+      <c r="AI83" s="244"/>
+      <c r="AJ83" s="244"/>
+      <c r="AK83" s="244"/>
+      <c r="AL83" s="245">
         <f>($Y75+$Y81)/($Y$72+$Y$78)</f>
         <v>0.14354956805136435</v>
       </c>
-      <c r="AM83" s="231"/>
-      <c r="AN83" s="230">
+      <c r="AM83" s="246"/>
+      <c r="AN83" s="245">
         <f>($AH75+$AH81)/($Y$72+$Y$78)</f>
         <v>0.10103287861302641</v>
       </c>
-      <c r="AO83" s="231"/>
+      <c r="AO83" s="246"/>
       <c r="AP83" s="147"/>
       <c r="AR83" s="146"/>
-      <c r="AS83" s="228" t="s">
+      <c r="AS83" s="243" t="s">
         <v>669</v>
       </c>
-      <c r="AT83" s="229"/>
-      <c r="AU83" s="229"/>
-      <c r="AV83" s="229"/>
-      <c r="AW83" s="229"/>
-      <c r="AX83" s="229"/>
-      <c r="AY83" s="230">
+      <c r="AT83" s="244"/>
+      <c r="AU83" s="244"/>
+      <c r="AV83" s="244"/>
+      <c r="AW83" s="244"/>
+      <c r="AX83" s="244"/>
+      <c r="AY83" s="245">
         <f>100%-$BB75/$AS75</f>
         <v>0.72167224422544307</v>
       </c>
-      <c r="AZ83" s="231"/>
+      <c r="AZ83" s="246"/>
       <c r="BA83" s="143"/>
       <c r="BB83" s="143"/>
       <c r="BC83" s="143"/>
@@ -60190,7 +60471,7 @@
       <c r="BJ83" s="147"/>
     </row>
     <row r="84" spans="2:63" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="252"/>
+      <c r="B84" s="249"/>
       <c r="D84" s="165"/>
       <c r="E84" s="166"/>
       <c r="F84" s="166"/>
@@ -60251,7 +60532,7 @@
     </row>
     <row r="85" spans="2:63" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="86" spans="2:63" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="247" t="s">
+      <c r="B86" s="240" t="s">
         <v>668</v>
       </c>
       <c r="D86" s="152"/>
@@ -60314,92 +60595,92 @@
       <c r="BK86" s="21"/>
     </row>
     <row r="87" spans="2:63" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="248"/>
+      <c r="B87" s="241"/>
       <c r="D87" s="153"/>
-      <c r="E87" s="232" t="s">
+      <c r="E87" s="229" t="s">
         <v>35</v>
       </c>
-      <c r="F87" s="233"/>
-      <c r="G87" s="233"/>
-      <c r="H87" s="233"/>
-      <c r="I87" s="233"/>
-      <c r="J87" s="234"/>
-      <c r="K87" s="232" t="s">
+      <c r="F87" s="230"/>
+      <c r="G87" s="230"/>
+      <c r="H87" s="230"/>
+      <c r="I87" s="230"/>
+      <c r="J87" s="231"/>
+      <c r="K87" s="229" t="s">
         <v>7</v>
       </c>
-      <c r="L87" s="234"/>
+      <c r="L87" s="231"/>
       <c r="M87" s="150"/>
-      <c r="N87" s="240" t="s">
+      <c r="N87" s="232" t="s">
         <v>35</v>
       </c>
-      <c r="O87" s="241"/>
-      <c r="P87" s="241"/>
-      <c r="Q87" s="241"/>
-      <c r="R87" s="241"/>
-      <c r="S87" s="242"/>
-      <c r="T87" s="240" t="s">
+      <c r="O87" s="233"/>
+      <c r="P87" s="233"/>
+      <c r="Q87" s="233"/>
+      <c r="R87" s="233"/>
+      <c r="S87" s="234"/>
+      <c r="T87" s="232" t="s">
         <v>7</v>
       </c>
-      <c r="U87" s="242"/>
+      <c r="U87" s="234"/>
       <c r="V87" s="151"/>
       <c r="X87" s="153"/>
-      <c r="Y87" s="232" t="s">
+      <c r="Y87" s="229" t="s">
         <v>35</v>
       </c>
-      <c r="Z87" s="233"/>
-      <c r="AA87" s="233"/>
-      <c r="AB87" s="233"/>
-      <c r="AC87" s="233"/>
-      <c r="AD87" s="234"/>
-      <c r="AE87" s="232" t="s">
+      <c r="Z87" s="230"/>
+      <c r="AA87" s="230"/>
+      <c r="AB87" s="230"/>
+      <c r="AC87" s="230"/>
+      <c r="AD87" s="231"/>
+      <c r="AE87" s="229" t="s">
         <v>7</v>
       </c>
-      <c r="AF87" s="234"/>
+      <c r="AF87" s="231"/>
       <c r="AG87" s="150"/>
-      <c r="AH87" s="240" t="s">
+      <c r="AH87" s="232" t="s">
         <v>35</v>
       </c>
-      <c r="AI87" s="241"/>
-      <c r="AJ87" s="241"/>
-      <c r="AK87" s="241"/>
-      <c r="AL87" s="241"/>
-      <c r="AM87" s="242"/>
-      <c r="AN87" s="240" t="s">
+      <c r="AI87" s="233"/>
+      <c r="AJ87" s="233"/>
+      <c r="AK87" s="233"/>
+      <c r="AL87" s="233"/>
+      <c r="AM87" s="234"/>
+      <c r="AN87" s="232" t="s">
         <v>7</v>
       </c>
-      <c r="AO87" s="242"/>
+      <c r="AO87" s="234"/>
       <c r="AP87" s="151"/>
       <c r="AR87" s="153"/>
-      <c r="AS87" s="232" t="s">
+      <c r="AS87" s="229" t="s">
         <v>35</v>
       </c>
-      <c r="AT87" s="233"/>
-      <c r="AU87" s="233"/>
-      <c r="AV87" s="233"/>
-      <c r="AW87" s="233"/>
-      <c r="AX87" s="234"/>
-      <c r="AY87" s="232" t="s">
+      <c r="AT87" s="230"/>
+      <c r="AU87" s="230"/>
+      <c r="AV87" s="230"/>
+      <c r="AW87" s="230"/>
+      <c r="AX87" s="231"/>
+      <c r="AY87" s="229" t="s">
         <v>7</v>
       </c>
-      <c r="AZ87" s="234"/>
+      <c r="AZ87" s="231"/>
       <c r="BA87" s="150"/>
-      <c r="BB87" s="240" t="s">
+      <c r="BB87" s="232" t="s">
         <v>35</v>
       </c>
-      <c r="BC87" s="241"/>
-      <c r="BD87" s="241"/>
-      <c r="BE87" s="241"/>
-      <c r="BF87" s="241"/>
-      <c r="BG87" s="242"/>
-      <c r="BH87" s="240" t="s">
+      <c r="BC87" s="233"/>
+      <c r="BD87" s="233"/>
+      <c r="BE87" s="233"/>
+      <c r="BF87" s="233"/>
+      <c r="BG87" s="234"/>
+      <c r="BH87" s="232" t="s">
         <v>7</v>
       </c>
-      <c r="BI87" s="242"/>
+      <c r="BI87" s="234"/>
       <c r="BJ87" s="151"/>
       <c r="BK87" s="21"/>
     </row>
     <row r="88" spans="2:63" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="248"/>
+      <c r="B88" s="241"/>
       <c r="D88" s="153"/>
       <c r="E88" s="235">
         <v>9133132168</v>
@@ -60491,7 +60772,7 @@
       <c r="BK88" s="141"/>
     </row>
     <row r="89" spans="2:63" s="162" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="248"/>
+      <c r="B89" s="241"/>
       <c r="D89" s="149"/>
       <c r="E89" s="150"/>
       <c r="F89" s="150"/>
@@ -60553,92 +60834,92 @@
       <c r="BK89" s="142"/>
     </row>
     <row r="90" spans="2:63" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="248"/>
+      <c r="B90" s="241"/>
       <c r="D90" s="153"/>
-      <c r="E90" s="232" t="s">
+      <c r="E90" s="229" t="s">
         <v>36</v>
       </c>
-      <c r="F90" s="233"/>
-      <c r="G90" s="233"/>
-      <c r="H90" s="233"/>
-      <c r="I90" s="233"/>
-      <c r="J90" s="234"/>
-      <c r="K90" s="232" t="s">
+      <c r="F90" s="230"/>
+      <c r="G90" s="230"/>
+      <c r="H90" s="230"/>
+      <c r="I90" s="230"/>
+      <c r="J90" s="231"/>
+      <c r="K90" s="229" t="s">
         <v>7</v>
       </c>
-      <c r="L90" s="234"/>
+      <c r="L90" s="231"/>
       <c r="M90" s="150"/>
-      <c r="N90" s="240" t="s">
+      <c r="N90" s="232" t="s">
         <v>36</v>
       </c>
-      <c r="O90" s="241"/>
-      <c r="P90" s="241"/>
-      <c r="Q90" s="241"/>
-      <c r="R90" s="241"/>
-      <c r="S90" s="242"/>
-      <c r="T90" s="240" t="s">
+      <c r="O90" s="233"/>
+      <c r="P90" s="233"/>
+      <c r="Q90" s="233"/>
+      <c r="R90" s="233"/>
+      <c r="S90" s="234"/>
+      <c r="T90" s="232" t="s">
         <v>7</v>
       </c>
-      <c r="U90" s="242"/>
+      <c r="U90" s="234"/>
       <c r="V90" s="151"/>
       <c r="X90" s="153"/>
-      <c r="Y90" s="232" t="s">
+      <c r="Y90" s="229" t="s">
         <v>36</v>
       </c>
-      <c r="Z90" s="233"/>
-      <c r="AA90" s="233"/>
-      <c r="AB90" s="233"/>
-      <c r="AC90" s="233"/>
-      <c r="AD90" s="234"/>
-      <c r="AE90" s="232" t="s">
+      <c r="Z90" s="230"/>
+      <c r="AA90" s="230"/>
+      <c r="AB90" s="230"/>
+      <c r="AC90" s="230"/>
+      <c r="AD90" s="231"/>
+      <c r="AE90" s="229" t="s">
         <v>7</v>
       </c>
-      <c r="AF90" s="234"/>
+      <c r="AF90" s="231"/>
       <c r="AG90" s="150"/>
-      <c r="AH90" s="240" t="s">
+      <c r="AH90" s="232" t="s">
         <v>36</v>
       </c>
-      <c r="AI90" s="241"/>
-      <c r="AJ90" s="241"/>
-      <c r="AK90" s="241"/>
-      <c r="AL90" s="241"/>
-      <c r="AM90" s="242"/>
-      <c r="AN90" s="240" t="s">
+      <c r="AI90" s="233"/>
+      <c r="AJ90" s="233"/>
+      <c r="AK90" s="233"/>
+      <c r="AL90" s="233"/>
+      <c r="AM90" s="234"/>
+      <c r="AN90" s="232" t="s">
         <v>7</v>
       </c>
-      <c r="AO90" s="242"/>
+      <c r="AO90" s="234"/>
       <c r="AP90" s="151"/>
       <c r="AR90" s="153"/>
-      <c r="AS90" s="232" t="s">
+      <c r="AS90" s="229" t="s">
         <v>36</v>
       </c>
-      <c r="AT90" s="233"/>
-      <c r="AU90" s="233"/>
-      <c r="AV90" s="233"/>
-      <c r="AW90" s="233"/>
-      <c r="AX90" s="234"/>
-      <c r="AY90" s="232" t="s">
+      <c r="AT90" s="230"/>
+      <c r="AU90" s="230"/>
+      <c r="AV90" s="230"/>
+      <c r="AW90" s="230"/>
+      <c r="AX90" s="231"/>
+      <c r="AY90" s="229" t="s">
         <v>7</v>
       </c>
-      <c r="AZ90" s="234"/>
+      <c r="AZ90" s="231"/>
       <c r="BA90" s="150"/>
-      <c r="BB90" s="240" t="s">
+      <c r="BB90" s="232" t="s">
         <v>36</v>
       </c>
-      <c r="BC90" s="241"/>
-      <c r="BD90" s="241"/>
-      <c r="BE90" s="241"/>
-      <c r="BF90" s="241"/>
-      <c r="BG90" s="242"/>
-      <c r="BH90" s="240" t="s">
+      <c r="BC90" s="233"/>
+      <c r="BD90" s="233"/>
+      <c r="BE90" s="233"/>
+      <c r="BF90" s="233"/>
+      <c r="BG90" s="234"/>
+      <c r="BH90" s="232" t="s">
         <v>7</v>
       </c>
-      <c r="BI90" s="242"/>
+      <c r="BI90" s="234"/>
       <c r="BJ90" s="151"/>
       <c r="BK90" s="21"/>
     </row>
     <row r="91" spans="2:63" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="248"/>
+      <c r="B91" s="241"/>
       <c r="D91" s="153"/>
       <c r="E91" s="235">
         <v>671594400</v>
@@ -60730,7 +61011,7 @@
       <c r="BK91" s="141"/>
     </row>
     <row r="92" spans="2:63" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="248"/>
+      <c r="B92" s="241"/>
       <c r="D92" s="149"/>
       <c r="E92" s="150"/>
       <c r="F92" s="150"/>
@@ -60790,7 +61071,7 @@
       <c r="BJ92" s="151"/>
     </row>
     <row r="93" spans="2:63" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="248"/>
+      <c r="B93" s="241"/>
       <c r="D93" s="149"/>
       <c r="E93" s="150"/>
       <c r="F93" s="150"/>
@@ -60811,31 +61092,31 @@
       <c r="U93" s="150"/>
       <c r="V93" s="151"/>
       <c r="X93" s="149"/>
-      <c r="Y93" s="232" t="s">
+      <c r="Y93" s="229" t="s">
         <v>35</v>
       </c>
-      <c r="Z93" s="233"/>
-      <c r="AA93" s="233"/>
-      <c r="AB93" s="233"/>
-      <c r="AC93" s="233"/>
-      <c r="AD93" s="234"/>
-      <c r="AE93" s="232" t="s">
+      <c r="Z93" s="230"/>
+      <c r="AA93" s="230"/>
+      <c r="AB93" s="230"/>
+      <c r="AC93" s="230"/>
+      <c r="AD93" s="231"/>
+      <c r="AE93" s="229" t="s">
         <v>7</v>
       </c>
-      <c r="AF93" s="234"/>
+      <c r="AF93" s="231"/>
       <c r="AG93" s="150"/>
-      <c r="AH93" s="240" t="s">
+      <c r="AH93" s="232" t="s">
         <v>35</v>
       </c>
-      <c r="AI93" s="241"/>
-      <c r="AJ93" s="241"/>
-      <c r="AK93" s="241"/>
-      <c r="AL93" s="241"/>
-      <c r="AM93" s="242"/>
-      <c r="AN93" s="240" t="s">
+      <c r="AI93" s="233"/>
+      <c r="AJ93" s="233"/>
+      <c r="AK93" s="233"/>
+      <c r="AL93" s="233"/>
+      <c r="AM93" s="234"/>
+      <c r="AN93" s="232" t="s">
         <v>7</v>
       </c>
-      <c r="AO93" s="242"/>
+      <c r="AO93" s="234"/>
       <c r="AP93" s="151"/>
       <c r="AR93" s="149"/>
       <c r="AS93" s="150"/>
@@ -60858,7 +61139,7 @@
       <c r="BJ93" s="151"/>
     </row>
     <row r="94" spans="2:63" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="248"/>
+      <c r="B94" s="241"/>
       <c r="D94" s="149"/>
       <c r="E94" s="150"/>
       <c r="F94" s="150"/>
@@ -60928,7 +61209,7 @@
       <c r="BJ94" s="151"/>
     </row>
     <row r="95" spans="2:63" s="162" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="248"/>
+      <c r="B95" s="241"/>
       <c r="D95" s="149"/>
       <c r="E95" s="150"/>
       <c r="F95" s="150"/>
@@ -60989,7 +61270,7 @@
       <c r="BJ95" s="151"/>
     </row>
     <row r="96" spans="2:63" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="248"/>
+      <c r="B96" s="241"/>
       <c r="D96" s="149"/>
       <c r="E96" s="150"/>
       <c r="F96" s="150"/>
@@ -61010,31 +61291,31 @@
       <c r="U96" s="150"/>
       <c r="V96" s="151"/>
       <c r="X96" s="149"/>
-      <c r="Y96" s="232" t="s">
+      <c r="Y96" s="229" t="s">
         <v>36</v>
       </c>
-      <c r="Z96" s="233"/>
-      <c r="AA96" s="233"/>
-      <c r="AB96" s="233"/>
-      <c r="AC96" s="233"/>
-      <c r="AD96" s="234"/>
-      <c r="AE96" s="232" t="s">
+      <c r="Z96" s="230"/>
+      <c r="AA96" s="230"/>
+      <c r="AB96" s="230"/>
+      <c r="AC96" s="230"/>
+      <c r="AD96" s="231"/>
+      <c r="AE96" s="229" t="s">
         <v>7</v>
       </c>
-      <c r="AF96" s="234"/>
+      <c r="AF96" s="231"/>
       <c r="AG96" s="150"/>
-      <c r="AH96" s="240" t="s">
+      <c r="AH96" s="232" t="s">
         <v>36</v>
       </c>
-      <c r="AI96" s="241"/>
-      <c r="AJ96" s="241"/>
-      <c r="AK96" s="241"/>
-      <c r="AL96" s="241"/>
-      <c r="AM96" s="242"/>
-      <c r="AN96" s="240" t="s">
+      <c r="AI96" s="233"/>
+      <c r="AJ96" s="233"/>
+      <c r="AK96" s="233"/>
+      <c r="AL96" s="233"/>
+      <c r="AM96" s="234"/>
+      <c r="AN96" s="232" t="s">
         <v>7</v>
       </c>
-      <c r="AO96" s="242"/>
+      <c r="AO96" s="234"/>
       <c r="AP96" s="151"/>
       <c r="AR96" s="149"/>
       <c r="AS96" s="170"/>
@@ -61057,7 +61338,7 @@
       <c r="BJ96" s="151"/>
     </row>
     <row r="97" spans="2:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="248"/>
+      <c r="B97" s="241"/>
       <c r="D97" s="149"/>
       <c r="E97" s="150"/>
       <c r="F97" s="150"/>
@@ -61127,7 +61408,7 @@
       <c r="BJ97" s="151"/>
     </row>
     <row r="98" spans="2:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="248"/>
+      <c r="B98" s="241"/>
       <c r="D98" s="149"/>
       <c r="E98" s="150"/>
       <c r="F98" s="150"/>
@@ -61187,21 +61468,21 @@
       <c r="BJ98" s="151"/>
     </row>
     <row r="99" spans="2:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B99" s="248"/>
+      <c r="B99" s="241"/>
       <c r="D99" s="149"/>
-      <c r="E99" s="228" t="s">
+      <c r="E99" s="243" t="s">
         <v>669</v>
       </c>
-      <c r="F99" s="229"/>
-      <c r="G99" s="229"/>
-      <c r="H99" s="229"/>
-      <c r="I99" s="229"/>
-      <c r="J99" s="229"/>
-      <c r="K99" s="230">
+      <c r="F99" s="244"/>
+      <c r="G99" s="244"/>
+      <c r="H99" s="244"/>
+      <c r="I99" s="244"/>
+      <c r="J99" s="244"/>
+      <c r="K99" s="245">
         <f>100%-$N91/$E91</f>
         <v>0.62451243786428234</v>
       </c>
-      <c r="L99" s="231"/>
+      <c r="L99" s="246"/>
       <c r="M99" s="150"/>
       <c r="N99" s="150"/>
       <c r="O99" s="150"/>
@@ -61213,51 +61494,51 @@
       <c r="U99" s="150"/>
       <c r="V99" s="151"/>
       <c r="X99" s="149"/>
-      <c r="Y99" s="228" t="s">
+      <c r="Y99" s="243" t="s">
         <v>669</v>
       </c>
-      <c r="Z99" s="229"/>
-      <c r="AA99" s="229"/>
-      <c r="AB99" s="229"/>
-      <c r="AC99" s="229"/>
-      <c r="AD99" s="229"/>
-      <c r="AE99" s="230">
+      <c r="Z99" s="244"/>
+      <c r="AA99" s="244"/>
+      <c r="AB99" s="244"/>
+      <c r="AC99" s="244"/>
+      <c r="AD99" s="244"/>
+      <c r="AE99" s="245">
         <f>100%-($AH91+$AH97)/($Y91+$Y97)</f>
         <v>0.29601422277325717</v>
       </c>
-      <c r="AF99" s="231"/>
+      <c r="AF99" s="246"/>
       <c r="AG99" s="150"/>
-      <c r="AH99" s="228" t="s">
+      <c r="AH99" s="243" t="s">
         <v>670</v>
       </c>
-      <c r="AI99" s="229"/>
-      <c r="AJ99" s="229"/>
-      <c r="AK99" s="229"/>
-      <c r="AL99" s="230">
+      <c r="AI99" s="244"/>
+      <c r="AJ99" s="244"/>
+      <c r="AK99" s="244"/>
+      <c r="AL99" s="245">
         <f>($Y91+$Y97)/($Y$72+$Y$78)</f>
         <v>0.14357044752071263</v>
       </c>
-      <c r="AM99" s="231"/>
-      <c r="AN99" s="230">
+      <c r="AM99" s="246"/>
+      <c r="AN99" s="245">
         <f>($AH91+$AH97)/($Y$72+$Y$78)</f>
         <v>0.10107155308466018</v>
       </c>
-      <c r="AO99" s="231"/>
+      <c r="AO99" s="246"/>
       <c r="AP99" s="151"/>
       <c r="AR99" s="149"/>
-      <c r="AS99" s="228" t="s">
+      <c r="AS99" s="243" t="s">
         <v>669</v>
       </c>
-      <c r="AT99" s="229"/>
-      <c r="AU99" s="229"/>
-      <c r="AV99" s="229"/>
-      <c r="AW99" s="229"/>
-      <c r="AX99" s="229"/>
-      <c r="AY99" s="230">
+      <c r="AT99" s="244"/>
+      <c r="AU99" s="244"/>
+      <c r="AV99" s="244"/>
+      <c r="AW99" s="244"/>
+      <c r="AX99" s="244"/>
+      <c r="AY99" s="245">
         <f>100%-$BB91/$AS91</f>
         <v>0.72136742182070912</v>
       </c>
-      <c r="AZ99" s="231"/>
+      <c r="AZ99" s="246"/>
       <c r="BA99" s="150"/>
       <c r="BB99" s="150"/>
       <c r="BC99" s="150"/>
@@ -61270,7 +61551,7 @@
       <c r="BJ99" s="151"/>
     </row>
     <row r="100" spans="2:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B100" s="249"/>
+      <c r="B100" s="242"/>
       <c r="D100" s="172"/>
       <c r="E100" s="173"/>
       <c r="F100" s="173"/>
@@ -61330,100 +61611,100 @@
       <c r="BJ100" s="174"/>
     </row>
     <row r="102" spans="2:62" x14ac:dyDescent="0.25">
-      <c r="E102" s="256">
+      <c r="E102" s="228">
         <f>(K99+K83+K67+K51+K35+K19+AY19+AY35+AY51+AY67+AY83+AY99)/12</f>
         <v>0.63284161219459667</v>
       </c>
-      <c r="F102" s="256"/>
-      <c r="G102" s="256"/>
-      <c r="H102" s="256"/>
-      <c r="I102" s="256"/>
-      <c r="J102" s="256"/>
-      <c r="K102" s="256"/>
-      <c r="L102" s="256"/>
-      <c r="Y102" s="256">
+      <c r="F102" s="228"/>
+      <c r="G102" s="228"/>
+      <c r="H102" s="228"/>
+      <c r="I102" s="228"/>
+      <c r="J102" s="228"/>
+      <c r="K102" s="228"/>
+      <c r="L102" s="228"/>
+      <c r="Y102" s="228">
         <f>100%-AN11/AE11</f>
         <v>0.30844791506498825</v>
       </c>
-      <c r="Z102" s="256"/>
-      <c r="AA102" s="256"/>
-      <c r="AC102" s="256">
+      <c r="Z102" s="228"/>
+      <c r="AA102" s="228"/>
+      <c r="AC102" s="228">
         <f>100%-AN17/AE17</f>
         <v>0.24744855004283117</v>
       </c>
-      <c r="AD102" s="256"/>
-      <c r="AE102" s="256"/>
+      <c r="AD102" s="228"/>
+      <c r="AE102" s="228"/>
     </row>
     <row r="103" spans="2:62" x14ac:dyDescent="0.25">
       <c r="K103" s="175"/>
-      <c r="Y103" s="256">
+      <c r="Y103" s="228">
         <f>100%-AN27/AE27</f>
         <v>0.3019159077278849</v>
       </c>
-      <c r="Z103" s="256"/>
-      <c r="AA103" s="256"/>
-      <c r="AC103" s="256">
+      <c r="Z103" s="228"/>
+      <c r="AA103" s="228"/>
+      <c r="AC103" s="228">
         <f>100%-AN33/AE33</f>
         <v>0.22058870797004493</v>
       </c>
-      <c r="AD103" s="256"/>
-      <c r="AE103" s="256"/>
+      <c r="AD103" s="228"/>
+      <c r="AE103" s="228"/>
     </row>
     <row r="104" spans="2:62" x14ac:dyDescent="0.25">
-      <c r="Y104" s="256">
+      <c r="Y104" s="228">
         <f>100%-AN43/AE43</f>
         <v>0.3009897552199019</v>
       </c>
-      <c r="Z104" s="256"/>
-      <c r="AA104" s="256"/>
-      <c r="AC104" s="256">
+      <c r="Z104" s="228"/>
+      <c r="AA104" s="228"/>
+      <c r="AC104" s="228">
         <f>100%-AN49/AE49</f>
         <v>0.2164417584486491</v>
       </c>
-      <c r="AD104" s="256"/>
-      <c r="AE104" s="256"/>
+      <c r="AD104" s="228"/>
+      <c r="AE104" s="228"/>
     </row>
     <row r="105" spans="2:62" x14ac:dyDescent="0.25">
-      <c r="Y105" s="256">
+      <c r="Y105" s="228">
         <f>100%-AN59/AE59</f>
         <v>0.37551857943457223</v>
       </c>
-      <c r="Z105" s="256"/>
-      <c r="AA105" s="256"/>
-      <c r="AC105" s="256">
+      <c r="Z105" s="228"/>
+      <c r="AA105" s="228"/>
+      <c r="AC105" s="228">
         <f>100%-AN65/AE65</f>
         <v>0.27918380048847091</v>
       </c>
-      <c r="AD105" s="256"/>
-      <c r="AE105" s="256"/>
+      <c r="AD105" s="228"/>
+      <c r="AE105" s="228"/>
     </row>
     <row r="106" spans="2:62" x14ac:dyDescent="0.25">
-      <c r="Y106" s="256">
+      <c r="Y106" s="228">
         <f>100%-AN75/AE75</f>
         <v>0.37144825447274632</v>
       </c>
-      <c r="Z106" s="256"/>
-      <c r="AA106" s="256"/>
-      <c r="AC106" s="256">
+      <c r="Z106" s="228"/>
+      <c r="AA106" s="228"/>
+      <c r="AC106" s="228">
         <f>100%-AN81/AE81</f>
         <v>0.26867373499776825</v>
       </c>
-      <c r="AD106" s="256"/>
-      <c r="AE106" s="256"/>
+      <c r="AD106" s="228"/>
+      <c r="AE106" s="228"/>
     </row>
     <row r="107" spans="2:62" x14ac:dyDescent="0.25">
-      <c r="Y107" s="256">
+      <c r="Y107" s="228">
         <f>100%-AN91/AE91</f>
         <v>0.37088431846275638</v>
       </c>
-      <c r="Z107" s="256"/>
-      <c r="AA107" s="256"/>
-      <c r="AC107" s="256">
+      <c r="Z107" s="228"/>
+      <c r="AA107" s="228"/>
+      <c r="AC107" s="228">
         <f>100%-AN97/AE97</f>
         <v>0.26864705717157089</v>
       </c>
-      <c r="AD107" s="256"/>
-      <c r="AE107" s="256"/>
+      <c r="AD107" s="228"/>
+      <c r="AE107" s="228"/>
     </row>
     <row r="109" spans="2:62" x14ac:dyDescent="0.25">
       <c r="Z109" s="159">
@@ -61437,66 +61718,388 @@
     </row>
   </sheetData>
   <mergeCells count="466">
-    <mergeCell ref="E102:L102"/>
-    <mergeCell ref="Y102:AA102"/>
-    <mergeCell ref="Y103:AA103"/>
-    <mergeCell ref="Y104:AA104"/>
-    <mergeCell ref="Y105:AA105"/>
-    <mergeCell ref="Y106:AA106"/>
-    <mergeCell ref="Y107:AA107"/>
-    <mergeCell ref="AC102:AE102"/>
-    <mergeCell ref="AC103:AE103"/>
-    <mergeCell ref="AC104:AE104"/>
-    <mergeCell ref="AC105:AE105"/>
-    <mergeCell ref="AC106:AE106"/>
-    <mergeCell ref="AC107:AE107"/>
-    <mergeCell ref="Y96:AD96"/>
-    <mergeCell ref="AE96:AF96"/>
-    <mergeCell ref="AH96:AM96"/>
-    <mergeCell ref="AN96:AO96"/>
-    <mergeCell ref="Y97:AD97"/>
-    <mergeCell ref="AE97:AF97"/>
-    <mergeCell ref="AH97:AM97"/>
-    <mergeCell ref="AN97:AO97"/>
-    <mergeCell ref="Y93:AD93"/>
-    <mergeCell ref="AE93:AF93"/>
-    <mergeCell ref="AH93:AM93"/>
-    <mergeCell ref="AN93:AO93"/>
-    <mergeCell ref="Y94:AD94"/>
-    <mergeCell ref="AE94:AF94"/>
-    <mergeCell ref="AH94:AM94"/>
-    <mergeCell ref="AN94:AO94"/>
-    <mergeCell ref="BH90:BI90"/>
-    <mergeCell ref="E91:J91"/>
-    <mergeCell ref="K91:L91"/>
-    <mergeCell ref="N91:S91"/>
-    <mergeCell ref="T91:U91"/>
-    <mergeCell ref="Y91:AD91"/>
-    <mergeCell ref="AE91:AF91"/>
-    <mergeCell ref="AH91:AM91"/>
-    <mergeCell ref="AN91:AO91"/>
-    <mergeCell ref="AS91:AX91"/>
-    <mergeCell ref="AY91:AZ91"/>
-    <mergeCell ref="BB91:BG91"/>
-    <mergeCell ref="BH91:BI91"/>
-    <mergeCell ref="AH90:AM90"/>
-    <mergeCell ref="AN90:AO90"/>
-    <mergeCell ref="AS90:AX90"/>
-    <mergeCell ref="AY90:AZ90"/>
-    <mergeCell ref="BB90:BG90"/>
-    <mergeCell ref="AS87:AX87"/>
-    <mergeCell ref="AY87:AZ87"/>
-    <mergeCell ref="BB87:BG87"/>
-    <mergeCell ref="BH87:BI87"/>
-    <mergeCell ref="E88:J88"/>
-    <mergeCell ref="K88:L88"/>
-    <mergeCell ref="N88:S88"/>
-    <mergeCell ref="T88:U88"/>
-    <mergeCell ref="Y88:AD88"/>
-    <mergeCell ref="AS88:AX88"/>
-    <mergeCell ref="AY88:AZ88"/>
-    <mergeCell ref="BB88:BG88"/>
-    <mergeCell ref="BH88:BI88"/>
+    <mergeCell ref="AS83:AX83"/>
+    <mergeCell ref="AY83:AZ83"/>
+    <mergeCell ref="AS99:AX99"/>
+    <mergeCell ref="AY99:AZ99"/>
+    <mergeCell ref="AL19:AM19"/>
+    <mergeCell ref="AN19:AO19"/>
+    <mergeCell ref="E99:J99"/>
+    <mergeCell ref="K99:L99"/>
+    <mergeCell ref="E83:J83"/>
+    <mergeCell ref="K83:L83"/>
+    <mergeCell ref="E67:J67"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="E51:J51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="AH99:AK99"/>
+    <mergeCell ref="AL99:AM99"/>
+    <mergeCell ref="AN99:AO99"/>
+    <mergeCell ref="AH67:AK67"/>
+    <mergeCell ref="AL67:AM67"/>
+    <mergeCell ref="AN67:AO67"/>
+    <mergeCell ref="AH51:AK51"/>
+    <mergeCell ref="AL51:AM51"/>
+    <mergeCell ref="AN51:AO51"/>
+    <mergeCell ref="Y19:AD19"/>
+    <mergeCell ref="AE19:AF19"/>
+    <mergeCell ref="Y35:AD35"/>
+    <mergeCell ref="AE35:AF35"/>
+    <mergeCell ref="Y51:AD51"/>
+    <mergeCell ref="AE51:AF51"/>
+    <mergeCell ref="AH19:AK19"/>
+    <mergeCell ref="Y45:AD45"/>
+    <mergeCell ref="Y46:AD46"/>
+    <mergeCell ref="Y26:AD26"/>
+    <mergeCell ref="Y23:AD23"/>
+    <mergeCell ref="Y24:AD24"/>
+    <mergeCell ref="AE24:AF24"/>
+    <mergeCell ref="AH24:AM24"/>
+    <mergeCell ref="AN24:AO24"/>
+    <mergeCell ref="AE26:AF26"/>
+    <mergeCell ref="AH26:AM26"/>
+    <mergeCell ref="AN26:AO26"/>
+    <mergeCell ref="AE23:AF23"/>
+    <mergeCell ref="AH23:AM23"/>
+    <mergeCell ref="AN23:AO23"/>
+    <mergeCell ref="Y67:AD67"/>
+    <mergeCell ref="AE67:AF67"/>
+    <mergeCell ref="Y83:AD83"/>
+    <mergeCell ref="AE83:AF83"/>
+    <mergeCell ref="AN83:AO83"/>
+    <mergeCell ref="AL83:AM83"/>
+    <mergeCell ref="AH83:AK83"/>
+    <mergeCell ref="AH35:AK35"/>
+    <mergeCell ref="AL35:AM35"/>
+    <mergeCell ref="AN35:AO35"/>
+    <mergeCell ref="AE49:AF49"/>
+    <mergeCell ref="AH49:AM49"/>
+    <mergeCell ref="AN49:AO49"/>
+    <mergeCell ref="Y48:AD48"/>
+    <mergeCell ref="Y49:AD49"/>
+    <mergeCell ref="AE48:AF48"/>
+    <mergeCell ref="AH48:AM48"/>
+    <mergeCell ref="AN48:AO48"/>
+    <mergeCell ref="AE45:AF45"/>
+    <mergeCell ref="AH45:AM45"/>
+    <mergeCell ref="AN45:AO45"/>
+    <mergeCell ref="AE46:AF46"/>
+    <mergeCell ref="AH46:AM46"/>
+    <mergeCell ref="AN46:AO46"/>
+    <mergeCell ref="AS67:AX67"/>
+    <mergeCell ref="AY67:AZ67"/>
+    <mergeCell ref="AS35:AX35"/>
+    <mergeCell ref="AY35:AZ35"/>
+    <mergeCell ref="AS51:AX51"/>
+    <mergeCell ref="AY51:AZ51"/>
+    <mergeCell ref="AS19:AX19"/>
+    <mergeCell ref="AY19:AZ19"/>
+    <mergeCell ref="AY8:AZ8"/>
+    <mergeCell ref="AY10:AZ10"/>
+    <mergeCell ref="AY11:AZ11"/>
+    <mergeCell ref="AS26:AX26"/>
+    <mergeCell ref="AS23:AX23"/>
+    <mergeCell ref="AS24:AX24"/>
+    <mergeCell ref="AY27:AZ27"/>
+    <mergeCell ref="AS42:AX42"/>
+    <mergeCell ref="AY42:AZ42"/>
+    <mergeCell ref="AY55:AZ55"/>
+    <mergeCell ref="AY58:AZ58"/>
+    <mergeCell ref="AR4:AZ4"/>
+    <mergeCell ref="AH4:AP4"/>
+    <mergeCell ref="BB4:BJ4"/>
+    <mergeCell ref="X2:AP2"/>
+    <mergeCell ref="AR2:BJ2"/>
+    <mergeCell ref="BB11:BG11"/>
+    <mergeCell ref="BH11:BI11"/>
+    <mergeCell ref="BB8:BG8"/>
+    <mergeCell ref="BH8:BI8"/>
+    <mergeCell ref="BB10:BG10"/>
+    <mergeCell ref="BH10:BI10"/>
+    <mergeCell ref="Y11:AD11"/>
+    <mergeCell ref="AY7:AZ7"/>
+    <mergeCell ref="BB7:BG7"/>
+    <mergeCell ref="BH7:BI7"/>
+    <mergeCell ref="AS8:AX8"/>
+    <mergeCell ref="AS10:AX10"/>
+    <mergeCell ref="AS11:AX11"/>
+    <mergeCell ref="Y7:AD7"/>
+    <mergeCell ref="AS7:AX7"/>
+    <mergeCell ref="AE7:AF7"/>
+    <mergeCell ref="AH7:AM7"/>
+    <mergeCell ref="AN7:AO7"/>
+    <mergeCell ref="AN14:AO14"/>
+    <mergeCell ref="AH16:AM16"/>
+    <mergeCell ref="AN16:AO16"/>
+    <mergeCell ref="AH17:AM17"/>
+    <mergeCell ref="AN17:AO17"/>
+    <mergeCell ref="AE13:AF13"/>
+    <mergeCell ref="AE14:AF14"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="X4:AF4"/>
+    <mergeCell ref="Y8:AD8"/>
+    <mergeCell ref="Y10:AD10"/>
+    <mergeCell ref="AE11:AF11"/>
+    <mergeCell ref="AH8:AM8"/>
+    <mergeCell ref="AN8:AO8"/>
+    <mergeCell ref="AH10:AM10"/>
+    <mergeCell ref="AN10:AO10"/>
+    <mergeCell ref="AH11:AM11"/>
+    <mergeCell ref="AN11:AO11"/>
+    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="AE10:AF10"/>
+    <mergeCell ref="B54:B68"/>
+    <mergeCell ref="B70:B84"/>
+    <mergeCell ref="D2:V2"/>
+    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="N4:V4"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="N7:S7"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="N11:S11"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="N8:S8"/>
+    <mergeCell ref="N10:S10"/>
+    <mergeCell ref="E11:J11"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="N27:S27"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="N23:S23"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="N26:S26"/>
+    <mergeCell ref="B6:B20"/>
+    <mergeCell ref="B22:B36"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="N40:S40"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="T40:U40"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="T26:U26"/>
+    <mergeCell ref="E23:J23"/>
+    <mergeCell ref="T23:U23"/>
+    <mergeCell ref="E24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="N24:S24"/>
+    <mergeCell ref="T24:U24"/>
+    <mergeCell ref="B38:B52"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="N39:S39"/>
+    <mergeCell ref="E39:J39"/>
+    <mergeCell ref="T39:U39"/>
+    <mergeCell ref="E74:J74"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="N74:S74"/>
+    <mergeCell ref="T74:U74"/>
+    <mergeCell ref="E55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="N55:S55"/>
+    <mergeCell ref="T55:U55"/>
+    <mergeCell ref="E58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="N58:S58"/>
+    <mergeCell ref="T58:U58"/>
+    <mergeCell ref="BB39:BG39"/>
+    <mergeCell ref="BH39:BI39"/>
+    <mergeCell ref="AE40:AF40"/>
+    <mergeCell ref="AH40:AM40"/>
+    <mergeCell ref="AN40:AO40"/>
+    <mergeCell ref="AY40:AZ40"/>
+    <mergeCell ref="BB40:BG40"/>
+    <mergeCell ref="BH40:BI40"/>
+    <mergeCell ref="Y39:AD39"/>
+    <mergeCell ref="AS39:AX39"/>
+    <mergeCell ref="Y40:AD40"/>
+    <mergeCell ref="AS40:AX40"/>
+    <mergeCell ref="AE39:AF39"/>
+    <mergeCell ref="AH39:AM39"/>
+    <mergeCell ref="AN39:AO39"/>
+    <mergeCell ref="AY39:AZ39"/>
+    <mergeCell ref="BB27:BG27"/>
+    <mergeCell ref="BH27:BI27"/>
+    <mergeCell ref="Y13:AD13"/>
+    <mergeCell ref="Y14:AD14"/>
+    <mergeCell ref="Y16:AD16"/>
+    <mergeCell ref="Y17:AD17"/>
+    <mergeCell ref="Y27:AD27"/>
+    <mergeCell ref="AE27:AF27"/>
+    <mergeCell ref="AH27:AM27"/>
+    <mergeCell ref="AN27:AO27"/>
+    <mergeCell ref="AS27:AX27"/>
+    <mergeCell ref="AY24:AZ24"/>
+    <mergeCell ref="BB24:BG24"/>
+    <mergeCell ref="BH24:BI24"/>
+    <mergeCell ref="AY26:AZ26"/>
+    <mergeCell ref="BB26:BG26"/>
+    <mergeCell ref="BH26:BI26"/>
+    <mergeCell ref="AY23:AZ23"/>
+    <mergeCell ref="BB23:BG23"/>
+    <mergeCell ref="BH23:BI23"/>
+    <mergeCell ref="AE17:AF17"/>
+    <mergeCell ref="AH13:AM13"/>
+    <mergeCell ref="AN13:AO13"/>
+    <mergeCell ref="AH14:AM14"/>
+    <mergeCell ref="Y32:AD32"/>
+    <mergeCell ref="AE32:AF32"/>
+    <mergeCell ref="AH32:AM32"/>
+    <mergeCell ref="AN32:AO32"/>
+    <mergeCell ref="Y33:AD33"/>
+    <mergeCell ref="AE33:AF33"/>
+    <mergeCell ref="AH33:AM33"/>
+    <mergeCell ref="AN33:AO33"/>
+    <mergeCell ref="Y29:AD29"/>
+    <mergeCell ref="AE29:AF29"/>
+    <mergeCell ref="AH29:AM29"/>
+    <mergeCell ref="AN29:AO29"/>
+    <mergeCell ref="Y30:AD30"/>
+    <mergeCell ref="AE30:AF30"/>
+    <mergeCell ref="AH30:AM30"/>
+    <mergeCell ref="AN30:AO30"/>
+    <mergeCell ref="BB42:BG42"/>
+    <mergeCell ref="BH42:BI42"/>
+    <mergeCell ref="E43:J43"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="N43:S43"/>
+    <mergeCell ref="T43:U43"/>
+    <mergeCell ref="Y43:AD43"/>
+    <mergeCell ref="AS43:AX43"/>
+    <mergeCell ref="AY43:AZ43"/>
+    <mergeCell ref="BB43:BG43"/>
+    <mergeCell ref="BH43:BI43"/>
+    <mergeCell ref="AE42:AF42"/>
+    <mergeCell ref="AH42:AM42"/>
+    <mergeCell ref="AN42:AO42"/>
+    <mergeCell ref="AE43:AF43"/>
+    <mergeCell ref="AH43:AM43"/>
+    <mergeCell ref="AN43:AO43"/>
+    <mergeCell ref="Y42:AD42"/>
+    <mergeCell ref="E42:J42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="N42:S42"/>
+    <mergeCell ref="T42:U42"/>
+    <mergeCell ref="BB55:BG55"/>
+    <mergeCell ref="BH55:BI55"/>
+    <mergeCell ref="E56:J56"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="N56:S56"/>
+    <mergeCell ref="T56:U56"/>
+    <mergeCell ref="Y56:AD56"/>
+    <mergeCell ref="AS56:AX56"/>
+    <mergeCell ref="AY56:AZ56"/>
+    <mergeCell ref="BB56:BG56"/>
+    <mergeCell ref="BH56:BI56"/>
+    <mergeCell ref="Y55:AD55"/>
+    <mergeCell ref="AE55:AF55"/>
+    <mergeCell ref="AH55:AM55"/>
+    <mergeCell ref="AN55:AO55"/>
+    <mergeCell ref="AS55:AX55"/>
+    <mergeCell ref="AE56:AF56"/>
+    <mergeCell ref="AH56:AM56"/>
+    <mergeCell ref="AN56:AO56"/>
+    <mergeCell ref="BB58:BG58"/>
+    <mergeCell ref="BH58:BI58"/>
+    <mergeCell ref="E59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="N59:S59"/>
+    <mergeCell ref="T59:U59"/>
+    <mergeCell ref="Y59:AD59"/>
+    <mergeCell ref="AS59:AX59"/>
+    <mergeCell ref="AY59:AZ59"/>
+    <mergeCell ref="BB59:BG59"/>
+    <mergeCell ref="BH59:BI59"/>
+    <mergeCell ref="Y58:AD58"/>
+    <mergeCell ref="AE58:AF58"/>
+    <mergeCell ref="AH58:AM58"/>
+    <mergeCell ref="AN58:AO58"/>
+    <mergeCell ref="AS58:AX58"/>
+    <mergeCell ref="AE59:AF59"/>
+    <mergeCell ref="AH59:AM59"/>
+    <mergeCell ref="AN59:AO59"/>
+    <mergeCell ref="Y64:AD64"/>
+    <mergeCell ref="AE64:AF64"/>
+    <mergeCell ref="AH64:AM64"/>
+    <mergeCell ref="AN64:AO64"/>
+    <mergeCell ref="Y65:AD65"/>
+    <mergeCell ref="Y61:AD61"/>
+    <mergeCell ref="AE61:AF61"/>
+    <mergeCell ref="AH61:AM61"/>
+    <mergeCell ref="AN61:AO61"/>
+    <mergeCell ref="Y62:AD62"/>
+    <mergeCell ref="AE65:AF65"/>
+    <mergeCell ref="AH65:AM65"/>
+    <mergeCell ref="AN65:AO65"/>
+    <mergeCell ref="AE62:AF62"/>
+    <mergeCell ref="AH62:AM62"/>
+    <mergeCell ref="AN62:AO62"/>
+    <mergeCell ref="AS71:AX71"/>
+    <mergeCell ref="AY71:AZ71"/>
+    <mergeCell ref="BB71:BG71"/>
+    <mergeCell ref="BH71:BI71"/>
+    <mergeCell ref="E72:J72"/>
+    <mergeCell ref="K72:L72"/>
+    <mergeCell ref="N72:S72"/>
+    <mergeCell ref="T72:U72"/>
+    <mergeCell ref="Y72:AD72"/>
+    <mergeCell ref="AE72:AF72"/>
+    <mergeCell ref="AH72:AM72"/>
+    <mergeCell ref="AN72:AO72"/>
+    <mergeCell ref="AS72:AX72"/>
+    <mergeCell ref="AY72:AZ72"/>
+    <mergeCell ref="BB72:BG72"/>
+    <mergeCell ref="BH72:BI72"/>
+    <mergeCell ref="AE71:AF71"/>
+    <mergeCell ref="AH71:AM71"/>
+    <mergeCell ref="AN71:AO71"/>
+    <mergeCell ref="Y71:AD71"/>
+    <mergeCell ref="E71:J71"/>
+    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="N71:S71"/>
+    <mergeCell ref="T71:U71"/>
+    <mergeCell ref="E75:J75"/>
+    <mergeCell ref="K75:L75"/>
+    <mergeCell ref="N75:S75"/>
+    <mergeCell ref="T75:U75"/>
+    <mergeCell ref="Y75:AD75"/>
+    <mergeCell ref="AE75:AF75"/>
+    <mergeCell ref="AH75:AM75"/>
+    <mergeCell ref="AN75:AO75"/>
+    <mergeCell ref="AS75:AX75"/>
+    <mergeCell ref="Y78:AD78"/>
+    <mergeCell ref="AE78:AF78"/>
+    <mergeCell ref="AH78:AM78"/>
+    <mergeCell ref="AN78:AO78"/>
+    <mergeCell ref="Y80:AD80"/>
+    <mergeCell ref="AS74:AX74"/>
+    <mergeCell ref="AY74:AZ74"/>
+    <mergeCell ref="BB74:BG74"/>
+    <mergeCell ref="BH74:BI74"/>
+    <mergeCell ref="AY75:AZ75"/>
+    <mergeCell ref="BB75:BG75"/>
+    <mergeCell ref="BH75:BI75"/>
+    <mergeCell ref="AE80:AF80"/>
+    <mergeCell ref="AH80:AM80"/>
+    <mergeCell ref="AN80:AO80"/>
+    <mergeCell ref="AE77:AF77"/>
+    <mergeCell ref="AH77:AM77"/>
+    <mergeCell ref="AN77:AO77"/>
+    <mergeCell ref="Y77:AD77"/>
+    <mergeCell ref="AE74:AF74"/>
+    <mergeCell ref="AH74:AM74"/>
+    <mergeCell ref="AN74:AO74"/>
+    <mergeCell ref="Y74:AD74"/>
     <mergeCell ref="Y81:AD81"/>
     <mergeCell ref="AE81:AF81"/>
     <mergeCell ref="AH81:AM81"/>
@@ -61521,388 +62124,66 @@
     <mergeCell ref="AN88:AO88"/>
     <mergeCell ref="Y99:AD99"/>
     <mergeCell ref="AE99:AF99"/>
-    <mergeCell ref="Y78:AD78"/>
-    <mergeCell ref="AE78:AF78"/>
-    <mergeCell ref="AH78:AM78"/>
-    <mergeCell ref="AN78:AO78"/>
-    <mergeCell ref="Y80:AD80"/>
-    <mergeCell ref="AS74:AX74"/>
-    <mergeCell ref="AY74:AZ74"/>
-    <mergeCell ref="BB74:BG74"/>
-    <mergeCell ref="BH74:BI74"/>
-    <mergeCell ref="AY75:AZ75"/>
-    <mergeCell ref="BB75:BG75"/>
-    <mergeCell ref="BH75:BI75"/>
-    <mergeCell ref="AE80:AF80"/>
-    <mergeCell ref="AH80:AM80"/>
-    <mergeCell ref="AN80:AO80"/>
-    <mergeCell ref="AE77:AF77"/>
-    <mergeCell ref="AH77:AM77"/>
-    <mergeCell ref="AN77:AO77"/>
-    <mergeCell ref="Y77:AD77"/>
-    <mergeCell ref="AE74:AF74"/>
-    <mergeCell ref="AH74:AM74"/>
-    <mergeCell ref="AN74:AO74"/>
-    <mergeCell ref="Y74:AD74"/>
-    <mergeCell ref="E75:J75"/>
-    <mergeCell ref="K75:L75"/>
-    <mergeCell ref="N75:S75"/>
-    <mergeCell ref="T75:U75"/>
-    <mergeCell ref="Y75:AD75"/>
-    <mergeCell ref="AE75:AF75"/>
-    <mergeCell ref="AH75:AM75"/>
-    <mergeCell ref="AN75:AO75"/>
-    <mergeCell ref="AS75:AX75"/>
-    <mergeCell ref="AS71:AX71"/>
-    <mergeCell ref="AY71:AZ71"/>
-    <mergeCell ref="BB71:BG71"/>
-    <mergeCell ref="BH71:BI71"/>
-    <mergeCell ref="E72:J72"/>
-    <mergeCell ref="K72:L72"/>
-    <mergeCell ref="N72:S72"/>
-    <mergeCell ref="T72:U72"/>
-    <mergeCell ref="Y72:AD72"/>
-    <mergeCell ref="AE72:AF72"/>
-    <mergeCell ref="AH72:AM72"/>
-    <mergeCell ref="AN72:AO72"/>
-    <mergeCell ref="AS72:AX72"/>
-    <mergeCell ref="AY72:AZ72"/>
-    <mergeCell ref="BB72:BG72"/>
-    <mergeCell ref="BH72:BI72"/>
-    <mergeCell ref="AE71:AF71"/>
-    <mergeCell ref="AH71:AM71"/>
-    <mergeCell ref="AN71:AO71"/>
-    <mergeCell ref="Y71:AD71"/>
-    <mergeCell ref="E71:J71"/>
-    <mergeCell ref="K71:L71"/>
-    <mergeCell ref="N71:S71"/>
-    <mergeCell ref="T71:U71"/>
-    <mergeCell ref="Y64:AD64"/>
-    <mergeCell ref="AE64:AF64"/>
-    <mergeCell ref="AH64:AM64"/>
-    <mergeCell ref="AN64:AO64"/>
-    <mergeCell ref="Y65:AD65"/>
-    <mergeCell ref="Y61:AD61"/>
-    <mergeCell ref="AE61:AF61"/>
-    <mergeCell ref="AH61:AM61"/>
-    <mergeCell ref="AN61:AO61"/>
-    <mergeCell ref="Y62:AD62"/>
-    <mergeCell ref="AE65:AF65"/>
-    <mergeCell ref="AH65:AM65"/>
-    <mergeCell ref="AN65:AO65"/>
-    <mergeCell ref="AE62:AF62"/>
-    <mergeCell ref="AH62:AM62"/>
-    <mergeCell ref="AN62:AO62"/>
-    <mergeCell ref="BB58:BG58"/>
-    <mergeCell ref="BH58:BI58"/>
-    <mergeCell ref="E59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="N59:S59"/>
-    <mergeCell ref="T59:U59"/>
-    <mergeCell ref="Y59:AD59"/>
-    <mergeCell ref="AS59:AX59"/>
-    <mergeCell ref="AY59:AZ59"/>
-    <mergeCell ref="BB59:BG59"/>
-    <mergeCell ref="BH59:BI59"/>
-    <mergeCell ref="Y58:AD58"/>
-    <mergeCell ref="AE58:AF58"/>
-    <mergeCell ref="AH58:AM58"/>
-    <mergeCell ref="AN58:AO58"/>
-    <mergeCell ref="AS58:AX58"/>
-    <mergeCell ref="AE59:AF59"/>
-    <mergeCell ref="AH59:AM59"/>
-    <mergeCell ref="AN59:AO59"/>
-    <mergeCell ref="BB55:BG55"/>
-    <mergeCell ref="BH55:BI55"/>
-    <mergeCell ref="E56:J56"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="N56:S56"/>
-    <mergeCell ref="T56:U56"/>
-    <mergeCell ref="Y56:AD56"/>
-    <mergeCell ref="AS56:AX56"/>
-    <mergeCell ref="AY56:AZ56"/>
-    <mergeCell ref="BB56:BG56"/>
-    <mergeCell ref="BH56:BI56"/>
-    <mergeCell ref="Y55:AD55"/>
-    <mergeCell ref="AE55:AF55"/>
-    <mergeCell ref="AH55:AM55"/>
-    <mergeCell ref="AN55:AO55"/>
-    <mergeCell ref="AS55:AX55"/>
-    <mergeCell ref="AE56:AF56"/>
-    <mergeCell ref="AH56:AM56"/>
-    <mergeCell ref="AN56:AO56"/>
-    <mergeCell ref="BB42:BG42"/>
-    <mergeCell ref="BH42:BI42"/>
-    <mergeCell ref="E43:J43"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="N43:S43"/>
-    <mergeCell ref="T43:U43"/>
-    <mergeCell ref="Y43:AD43"/>
-    <mergeCell ref="AS43:AX43"/>
-    <mergeCell ref="AY43:AZ43"/>
-    <mergeCell ref="BB43:BG43"/>
-    <mergeCell ref="BH43:BI43"/>
-    <mergeCell ref="AE42:AF42"/>
-    <mergeCell ref="AH42:AM42"/>
-    <mergeCell ref="AN42:AO42"/>
-    <mergeCell ref="AE43:AF43"/>
-    <mergeCell ref="AH43:AM43"/>
-    <mergeCell ref="AN43:AO43"/>
-    <mergeCell ref="Y42:AD42"/>
-    <mergeCell ref="E42:J42"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="N42:S42"/>
-    <mergeCell ref="T42:U42"/>
-    <mergeCell ref="Y32:AD32"/>
-    <mergeCell ref="AE32:AF32"/>
-    <mergeCell ref="AH32:AM32"/>
-    <mergeCell ref="AN32:AO32"/>
-    <mergeCell ref="Y33:AD33"/>
-    <mergeCell ref="AE33:AF33"/>
-    <mergeCell ref="AH33:AM33"/>
-    <mergeCell ref="AN33:AO33"/>
-    <mergeCell ref="Y29:AD29"/>
-    <mergeCell ref="AE29:AF29"/>
-    <mergeCell ref="AH29:AM29"/>
-    <mergeCell ref="AN29:AO29"/>
-    <mergeCell ref="Y30:AD30"/>
-    <mergeCell ref="AE30:AF30"/>
-    <mergeCell ref="AH30:AM30"/>
-    <mergeCell ref="AN30:AO30"/>
-    <mergeCell ref="BB27:BG27"/>
-    <mergeCell ref="BH27:BI27"/>
-    <mergeCell ref="Y13:AD13"/>
-    <mergeCell ref="Y14:AD14"/>
-    <mergeCell ref="Y16:AD16"/>
-    <mergeCell ref="Y17:AD17"/>
-    <mergeCell ref="Y27:AD27"/>
-    <mergeCell ref="AE27:AF27"/>
-    <mergeCell ref="AH27:AM27"/>
-    <mergeCell ref="AN27:AO27"/>
-    <mergeCell ref="AS27:AX27"/>
-    <mergeCell ref="AY24:AZ24"/>
-    <mergeCell ref="BB24:BG24"/>
-    <mergeCell ref="BH24:BI24"/>
-    <mergeCell ref="AY26:AZ26"/>
-    <mergeCell ref="BB26:BG26"/>
-    <mergeCell ref="BH26:BI26"/>
-    <mergeCell ref="AY23:AZ23"/>
-    <mergeCell ref="BB23:BG23"/>
-    <mergeCell ref="BH23:BI23"/>
-    <mergeCell ref="AE17:AF17"/>
-    <mergeCell ref="AH13:AM13"/>
-    <mergeCell ref="AN13:AO13"/>
-    <mergeCell ref="AH14:AM14"/>
-    <mergeCell ref="BB39:BG39"/>
-    <mergeCell ref="BH39:BI39"/>
-    <mergeCell ref="AE40:AF40"/>
-    <mergeCell ref="AH40:AM40"/>
-    <mergeCell ref="AN40:AO40"/>
-    <mergeCell ref="AY40:AZ40"/>
-    <mergeCell ref="BB40:BG40"/>
-    <mergeCell ref="BH40:BI40"/>
-    <mergeCell ref="Y39:AD39"/>
-    <mergeCell ref="AS39:AX39"/>
-    <mergeCell ref="Y40:AD40"/>
-    <mergeCell ref="AS40:AX40"/>
-    <mergeCell ref="AE39:AF39"/>
-    <mergeCell ref="AH39:AM39"/>
-    <mergeCell ref="AN39:AO39"/>
-    <mergeCell ref="AY39:AZ39"/>
-    <mergeCell ref="E74:J74"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="N74:S74"/>
-    <mergeCell ref="T74:U74"/>
-    <mergeCell ref="E55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="N55:S55"/>
-    <mergeCell ref="T55:U55"/>
-    <mergeCell ref="E58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="N58:S58"/>
-    <mergeCell ref="T58:U58"/>
-    <mergeCell ref="T27:U27"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="N23:S23"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="N26:S26"/>
-    <mergeCell ref="B6:B20"/>
-    <mergeCell ref="B22:B36"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="N40:S40"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="T40:U40"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="T26:U26"/>
-    <mergeCell ref="E23:J23"/>
-    <mergeCell ref="T23:U23"/>
-    <mergeCell ref="E24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="N24:S24"/>
-    <mergeCell ref="T24:U24"/>
-    <mergeCell ref="B38:B52"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="N39:S39"/>
-    <mergeCell ref="E39:J39"/>
-    <mergeCell ref="T39:U39"/>
-    <mergeCell ref="B54:B68"/>
-    <mergeCell ref="B70:B84"/>
-    <mergeCell ref="D2:V2"/>
-    <mergeCell ref="D4:L4"/>
-    <mergeCell ref="N4:V4"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="N7:S7"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="N11:S11"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="N8:S8"/>
-    <mergeCell ref="N10:S10"/>
-    <mergeCell ref="E11:J11"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="N27:S27"/>
-    <mergeCell ref="AN14:AO14"/>
-    <mergeCell ref="AH16:AM16"/>
-    <mergeCell ref="AN16:AO16"/>
-    <mergeCell ref="AH17:AM17"/>
-    <mergeCell ref="AN17:AO17"/>
-    <mergeCell ref="AE13:AF13"/>
-    <mergeCell ref="AE14:AF14"/>
-    <mergeCell ref="AE16:AF16"/>
-    <mergeCell ref="X4:AF4"/>
-    <mergeCell ref="Y8:AD8"/>
-    <mergeCell ref="Y10:AD10"/>
-    <mergeCell ref="AE11:AF11"/>
-    <mergeCell ref="AH8:AM8"/>
-    <mergeCell ref="AN8:AO8"/>
-    <mergeCell ref="AH10:AM10"/>
-    <mergeCell ref="AN10:AO10"/>
-    <mergeCell ref="AH11:AM11"/>
-    <mergeCell ref="AN11:AO11"/>
-    <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="AE10:AF10"/>
-    <mergeCell ref="AR4:AZ4"/>
-    <mergeCell ref="AH4:AP4"/>
-    <mergeCell ref="BB4:BJ4"/>
-    <mergeCell ref="X2:AP2"/>
-    <mergeCell ref="AR2:BJ2"/>
-    <mergeCell ref="BB11:BG11"/>
-    <mergeCell ref="BH11:BI11"/>
-    <mergeCell ref="BB8:BG8"/>
-    <mergeCell ref="BH8:BI8"/>
-    <mergeCell ref="BB10:BG10"/>
-    <mergeCell ref="BH10:BI10"/>
-    <mergeCell ref="Y11:AD11"/>
-    <mergeCell ref="AY7:AZ7"/>
-    <mergeCell ref="BB7:BG7"/>
-    <mergeCell ref="BH7:BI7"/>
-    <mergeCell ref="AS8:AX8"/>
-    <mergeCell ref="AS10:AX10"/>
-    <mergeCell ref="AS11:AX11"/>
-    <mergeCell ref="Y7:AD7"/>
-    <mergeCell ref="AS7:AX7"/>
-    <mergeCell ref="AE7:AF7"/>
-    <mergeCell ref="AH7:AM7"/>
-    <mergeCell ref="AN7:AO7"/>
-    <mergeCell ref="AS67:AX67"/>
-    <mergeCell ref="AY67:AZ67"/>
-    <mergeCell ref="AS35:AX35"/>
-    <mergeCell ref="AY35:AZ35"/>
-    <mergeCell ref="AS51:AX51"/>
-    <mergeCell ref="AY51:AZ51"/>
-    <mergeCell ref="AS19:AX19"/>
-    <mergeCell ref="AY19:AZ19"/>
-    <mergeCell ref="AY8:AZ8"/>
-    <mergeCell ref="AY10:AZ10"/>
-    <mergeCell ref="AY11:AZ11"/>
-    <mergeCell ref="AS26:AX26"/>
-    <mergeCell ref="AS23:AX23"/>
-    <mergeCell ref="AS24:AX24"/>
-    <mergeCell ref="AY27:AZ27"/>
-    <mergeCell ref="AS42:AX42"/>
-    <mergeCell ref="AY42:AZ42"/>
-    <mergeCell ref="AY55:AZ55"/>
-    <mergeCell ref="AY58:AZ58"/>
-    <mergeCell ref="Y67:AD67"/>
-    <mergeCell ref="AE67:AF67"/>
-    <mergeCell ref="Y83:AD83"/>
-    <mergeCell ref="AE83:AF83"/>
-    <mergeCell ref="AN83:AO83"/>
-    <mergeCell ref="AL83:AM83"/>
-    <mergeCell ref="AH83:AK83"/>
-    <mergeCell ref="AH35:AK35"/>
-    <mergeCell ref="AL35:AM35"/>
-    <mergeCell ref="AN35:AO35"/>
-    <mergeCell ref="AE49:AF49"/>
-    <mergeCell ref="AH49:AM49"/>
-    <mergeCell ref="AN49:AO49"/>
-    <mergeCell ref="Y48:AD48"/>
-    <mergeCell ref="Y49:AD49"/>
-    <mergeCell ref="AE48:AF48"/>
-    <mergeCell ref="AH48:AM48"/>
-    <mergeCell ref="AN48:AO48"/>
-    <mergeCell ref="AE45:AF45"/>
-    <mergeCell ref="AH45:AM45"/>
-    <mergeCell ref="AN45:AO45"/>
-    <mergeCell ref="AE46:AF46"/>
-    <mergeCell ref="AH46:AM46"/>
-    <mergeCell ref="AN46:AO46"/>
-    <mergeCell ref="AH51:AK51"/>
-    <mergeCell ref="AL51:AM51"/>
-    <mergeCell ref="AN51:AO51"/>
-    <mergeCell ref="Y19:AD19"/>
-    <mergeCell ref="AE19:AF19"/>
-    <mergeCell ref="Y35:AD35"/>
-    <mergeCell ref="AE35:AF35"/>
-    <mergeCell ref="Y51:AD51"/>
-    <mergeCell ref="AE51:AF51"/>
-    <mergeCell ref="AH19:AK19"/>
-    <mergeCell ref="Y45:AD45"/>
-    <mergeCell ref="Y46:AD46"/>
-    <mergeCell ref="Y26:AD26"/>
-    <mergeCell ref="Y23:AD23"/>
-    <mergeCell ref="Y24:AD24"/>
-    <mergeCell ref="AE24:AF24"/>
-    <mergeCell ref="AH24:AM24"/>
-    <mergeCell ref="AN24:AO24"/>
-    <mergeCell ref="AE26:AF26"/>
-    <mergeCell ref="AH26:AM26"/>
-    <mergeCell ref="AN26:AO26"/>
-    <mergeCell ref="AE23:AF23"/>
-    <mergeCell ref="AH23:AM23"/>
-    <mergeCell ref="AN23:AO23"/>
-    <mergeCell ref="AS83:AX83"/>
-    <mergeCell ref="AY83:AZ83"/>
-    <mergeCell ref="AS99:AX99"/>
-    <mergeCell ref="AY99:AZ99"/>
-    <mergeCell ref="AL19:AM19"/>
-    <mergeCell ref="AN19:AO19"/>
-    <mergeCell ref="E99:J99"/>
-    <mergeCell ref="K99:L99"/>
-    <mergeCell ref="E83:J83"/>
-    <mergeCell ref="K83:L83"/>
-    <mergeCell ref="E67:J67"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="E51:J51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="E35:J35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="AH99:AK99"/>
-    <mergeCell ref="AL99:AM99"/>
-    <mergeCell ref="AN99:AO99"/>
-    <mergeCell ref="AH67:AK67"/>
-    <mergeCell ref="AL67:AM67"/>
-    <mergeCell ref="AN67:AO67"/>
+    <mergeCell ref="AS87:AX87"/>
+    <mergeCell ref="AY87:AZ87"/>
+    <mergeCell ref="BB87:BG87"/>
+    <mergeCell ref="BH87:BI87"/>
+    <mergeCell ref="E88:J88"/>
+    <mergeCell ref="K88:L88"/>
+    <mergeCell ref="N88:S88"/>
+    <mergeCell ref="T88:U88"/>
+    <mergeCell ref="Y88:AD88"/>
+    <mergeCell ref="AS88:AX88"/>
+    <mergeCell ref="AY88:AZ88"/>
+    <mergeCell ref="BB88:BG88"/>
+    <mergeCell ref="BH88:BI88"/>
+    <mergeCell ref="BH90:BI90"/>
+    <mergeCell ref="E91:J91"/>
+    <mergeCell ref="K91:L91"/>
+    <mergeCell ref="N91:S91"/>
+    <mergeCell ref="T91:U91"/>
+    <mergeCell ref="Y91:AD91"/>
+    <mergeCell ref="AE91:AF91"/>
+    <mergeCell ref="AH91:AM91"/>
+    <mergeCell ref="AN91:AO91"/>
+    <mergeCell ref="AS91:AX91"/>
+    <mergeCell ref="AY91:AZ91"/>
+    <mergeCell ref="BB91:BG91"/>
+    <mergeCell ref="BH91:BI91"/>
+    <mergeCell ref="AH90:AM90"/>
+    <mergeCell ref="AN90:AO90"/>
+    <mergeCell ref="AS90:AX90"/>
+    <mergeCell ref="AY90:AZ90"/>
+    <mergeCell ref="BB90:BG90"/>
+    <mergeCell ref="Y96:AD96"/>
+    <mergeCell ref="AE96:AF96"/>
+    <mergeCell ref="AH96:AM96"/>
+    <mergeCell ref="AN96:AO96"/>
+    <mergeCell ref="Y97:AD97"/>
+    <mergeCell ref="AE97:AF97"/>
+    <mergeCell ref="AH97:AM97"/>
+    <mergeCell ref="AN97:AO97"/>
+    <mergeCell ref="Y93:AD93"/>
+    <mergeCell ref="AE93:AF93"/>
+    <mergeCell ref="AH93:AM93"/>
+    <mergeCell ref="AN93:AO93"/>
+    <mergeCell ref="Y94:AD94"/>
+    <mergeCell ref="AE94:AF94"/>
+    <mergeCell ref="AH94:AM94"/>
+    <mergeCell ref="AN94:AO94"/>
+    <mergeCell ref="E102:L102"/>
+    <mergeCell ref="Y102:AA102"/>
+    <mergeCell ref="Y103:AA103"/>
+    <mergeCell ref="Y104:AA104"/>
+    <mergeCell ref="Y105:AA105"/>
+    <mergeCell ref="Y106:AA106"/>
+    <mergeCell ref="Y107:AA107"/>
+    <mergeCell ref="AC102:AE102"/>
+    <mergeCell ref="AC103:AE103"/>
+    <mergeCell ref="AC104:AE104"/>
+    <mergeCell ref="AC105:AE105"/>
+    <mergeCell ref="AC106:AE106"/>
+    <mergeCell ref="AC107:AE107"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
